--- a/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
+++ b/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="222">
   <si>
     <t>Person</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1148,6 +1148,10 @@
   </si>
   <si>
     <t>FED TO REDUCE DAILY PACE OF TREASURY BUYING TO $60B APRIL 2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newyorkfed.org/markets/ambs/operations/lastTwenty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,11 +1288,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2778,10 +2782,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2848,7 +2852,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="73.5">
+    <row r="4" spans="1:10" ht="42">
       <c r="A4" s="5">
         <v>43921</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="210">
+    <row r="19" spans="1:6" ht="168">
       <c r="A19" s="5">
         <v>43919</v>
       </c>
@@ -3132,9 +3136,10 @@
       <c r="D21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.5">
       <c r="A22" s="5">
         <v>43917</v>
       </c>
@@ -3147,1722 +3152,6106 @@
       <c r="D22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="5"/>
       <c r="B174" s="6"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="5"/>
       <c r="B202" s="6"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="5"/>
       <c r="B204" s="6"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="5"/>
       <c r="B206" s="6"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="5"/>
       <c r="B207" s="6"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="5"/>
       <c r="B208" s="6"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="5"/>
       <c r="B210" s="6"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="5"/>
       <c r="B213" s="6"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="5"/>
       <c r="B215" s="6"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="5"/>
       <c r="B216" s="6"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="5"/>
       <c r="B218" s="6"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="5"/>
       <c r="B220" s="6"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="5"/>
       <c r="B221" s="6"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="5"/>
       <c r="B222" s="6"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="5"/>
       <c r="B223" s="6"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="5"/>
       <c r="B224" s="6"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="5"/>
       <c r="B225" s="6"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="5"/>
       <c r="B226" s="6"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="5"/>
       <c r="B227" s="6"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="5"/>
       <c r="B228" s="6"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="5"/>
       <c r="B229" s="6"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="5"/>
       <c r="B230" s="6"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="5"/>
       <c r="B232" s="6"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="5"/>
       <c r="B233" s="6"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="5"/>
       <c r="B234" s="6"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="5"/>
       <c r="B244" s="6"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="5"/>
       <c r="B246" s="6"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+    </row>
+    <row r="273" spans="5:6">
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+    </row>
+    <row r="274" spans="5:6">
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+    </row>
+    <row r="275" spans="5:6">
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+    </row>
+    <row r="276" spans="5:6">
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+    </row>
+    <row r="277" spans="5:6">
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+    </row>
+    <row r="278" spans="5:6">
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+    </row>
+    <row r="279" spans="5:6">
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+    </row>
+    <row r="280" spans="5:6">
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+    </row>
+    <row r="281" spans="5:6">
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+    </row>
+    <row r="282" spans="5:6">
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+    </row>
+    <row r="283" spans="5:6">
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+    </row>
+    <row r="284" spans="5:6">
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+    </row>
+    <row r="285" spans="5:6">
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+    </row>
+    <row r="286" spans="5:6">
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+    </row>
+    <row r="287" spans="5:6">
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+    </row>
+    <row r="288" spans="5:6">
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+    </row>
+    <row r="289" spans="5:6">
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+    </row>
+    <row r="290" spans="5:6">
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+    </row>
+    <row r="291" spans="5:6">
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+    </row>
+    <row r="292" spans="5:6">
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+    </row>
+    <row r="293" spans="5:6">
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294" spans="5:6">
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295" spans="5:6">
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+    </row>
+    <row r="296" spans="5:6">
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+    </row>
+    <row r="297" spans="5:6">
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298" spans="5:6">
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+    </row>
+    <row r="299" spans="5:6">
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+    </row>
+    <row r="300" spans="5:6">
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+    </row>
+    <row r="301" spans="5:6">
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+    </row>
+    <row r="302" spans="5:6">
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+    </row>
+    <row r="303" spans="5:6">
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+    </row>
+    <row r="304" spans="5:6">
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+    </row>
+    <row r="305" spans="5:6">
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
+    </row>
+    <row r="306" spans="5:6">
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
+    </row>
+    <row r="307" spans="5:6">
+      <c r="E307" s="6"/>
+      <c r="F307" s="6"/>
+    </row>
+    <row r="308" spans="5:6">
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
+    </row>
+    <row r="309" spans="5:6">
+      <c r="E309" s="6"/>
+      <c r="F309" s="6"/>
+    </row>
+    <row r="310" spans="5:6">
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
+    </row>
+    <row r="311" spans="5:6">
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+    </row>
+    <row r="312" spans="5:6">
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
+    </row>
+    <row r="313" spans="5:6">
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+    </row>
+    <row r="314" spans="5:6">
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+    </row>
+    <row r="315" spans="5:6">
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+    </row>
+    <row r="316" spans="5:6">
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+    </row>
+    <row r="317" spans="5:6">
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+    </row>
+    <row r="318" spans="5:6">
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+    </row>
+    <row r="319" spans="5:6">
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+    </row>
+    <row r="320" spans="5:6">
+      <c r="E320" s="6"/>
+      <c r="F320" s="6"/>
+    </row>
+    <row r="321" spans="5:6">
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
+    </row>
+    <row r="322" spans="5:6">
+      <c r="E322" s="6"/>
+      <c r="F322" s="6"/>
+    </row>
+    <row r="323" spans="5:6">
+      <c r="E323" s="6"/>
+      <c r="F323" s="6"/>
+    </row>
+    <row r="324" spans="5:6">
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
+    </row>
+    <row r="325" spans="5:6">
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
+    </row>
+    <row r="326" spans="5:6">
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
+    </row>
+    <row r="327" spans="5:6">
+      <c r="E327" s="6"/>
+      <c r="F327" s="6"/>
+    </row>
+    <row r="328" spans="5:6">
+      <c r="E328" s="6"/>
+      <c r="F328" s="6"/>
+    </row>
+    <row r="329" spans="5:6">
+      <c r="E329" s="6"/>
+      <c r="F329" s="6"/>
+    </row>
+    <row r="330" spans="5:6">
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
+    </row>
+    <row r="331" spans="5:6">
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
+    </row>
+    <row r="332" spans="5:6">
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
+    </row>
+    <row r="333" spans="5:6">
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+    </row>
+    <row r="334" spans="5:6">
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
+    </row>
+    <row r="335" spans="5:6">
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+    </row>
+    <row r="336" spans="5:6">
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+    </row>
+    <row r="337" spans="5:6">
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
+    </row>
+    <row r="338" spans="5:6">
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
+    </row>
+    <row r="339" spans="5:6">
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
+    </row>
+    <row r="340" spans="5:6">
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
+    </row>
+    <row r="341" spans="5:6">
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+    </row>
+    <row r="342" spans="5:6">
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+    </row>
+    <row r="343" spans="5:6">
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
+    </row>
+    <row r="344" spans="5:6">
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
+    </row>
+    <row r="345" spans="5:6">
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+    </row>
+    <row r="346" spans="5:6">
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+    </row>
+    <row r="347" spans="5:6">
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
+    </row>
+    <row r="348" spans="5:6">
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
+    </row>
+    <row r="349" spans="5:6">
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+    </row>
+    <row r="350" spans="5:6">
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+    </row>
+    <row r="351" spans="5:6">
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+    </row>
+    <row r="352" spans="5:6">
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+    </row>
+    <row r="353" spans="5:6">
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
+    </row>
+    <row r="354" spans="5:6">
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+    </row>
+    <row r="355" spans="5:6">
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+    </row>
+    <row r="356" spans="5:6">
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+    </row>
+    <row r="357" spans="5:6">
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+    </row>
+    <row r="358" spans="5:6">
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+    </row>
+    <row r="359" spans="5:6">
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+    </row>
+    <row r="360" spans="5:6">
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
+    </row>
+    <row r="361" spans="5:6">
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
+    </row>
+    <row r="362" spans="5:6">
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+    </row>
+    <row r="363" spans="5:6">
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+    </row>
+    <row r="364" spans="5:6">
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+    </row>
+    <row r="365" spans="5:6">
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+    </row>
+    <row r="366" spans="5:6">
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
+    </row>
+    <row r="367" spans="5:6">
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
+    </row>
+    <row r="368" spans="5:6">
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
+    </row>
+    <row r="369" spans="5:6">
+      <c r="E369" s="6"/>
+      <c r="F369" s="6"/>
+    </row>
+    <row r="370" spans="5:6">
+      <c r="E370" s="6"/>
+      <c r="F370" s="6"/>
+    </row>
+    <row r="371" spans="5:6">
+      <c r="E371" s="6"/>
+      <c r="F371" s="6"/>
+    </row>
+    <row r="372" spans="5:6">
+      <c r="E372" s="6"/>
+      <c r="F372" s="6"/>
+    </row>
+    <row r="373" spans="5:6">
+      <c r="E373" s="6"/>
+      <c r="F373" s="6"/>
+    </row>
+    <row r="374" spans="5:6">
+      <c r="E374" s="6"/>
+      <c r="F374" s="6"/>
+    </row>
+    <row r="375" spans="5:6">
+      <c r="E375" s="6"/>
+      <c r="F375" s="6"/>
+    </row>
+    <row r="376" spans="5:6">
+      <c r="E376" s="6"/>
+      <c r="F376" s="6"/>
+    </row>
+    <row r="377" spans="5:6">
+      <c r="E377" s="6"/>
+      <c r="F377" s="6"/>
+    </row>
+    <row r="378" spans="5:6">
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
+    </row>
+    <row r="379" spans="5:6">
+      <c r="E379" s="6"/>
+      <c r="F379" s="6"/>
+    </row>
+    <row r="380" spans="5:6">
+      <c r="E380" s="6"/>
+      <c r="F380" s="6"/>
+    </row>
+    <row r="381" spans="5:6">
+      <c r="E381" s="6"/>
+      <c r="F381" s="6"/>
+    </row>
+    <row r="382" spans="5:6">
+      <c r="E382" s="6"/>
+      <c r="F382" s="6"/>
+    </row>
+    <row r="383" spans="5:6">
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
+    </row>
+    <row r="384" spans="5:6">
+      <c r="E384" s="6"/>
+      <c r="F384" s="6"/>
+    </row>
+    <row r="385" spans="5:6">
+      <c r="E385" s="6"/>
+      <c r="F385" s="6"/>
+    </row>
+    <row r="386" spans="5:6">
+      <c r="E386" s="6"/>
+      <c r="F386" s="6"/>
+    </row>
+    <row r="387" spans="5:6">
+      <c r="E387" s="6"/>
+      <c r="F387" s="6"/>
+    </row>
+    <row r="388" spans="5:6">
+      <c r="E388" s="6"/>
+      <c r="F388" s="6"/>
+    </row>
+    <row r="389" spans="5:6">
+      <c r="E389" s="6"/>
+      <c r="F389" s="6"/>
+    </row>
+    <row r="390" spans="5:6">
+      <c r="E390" s="6"/>
+      <c r="F390" s="6"/>
+    </row>
+    <row r="391" spans="5:6">
+      <c r="E391" s="6"/>
+      <c r="F391" s="6"/>
+    </row>
+    <row r="392" spans="5:6">
+      <c r="E392" s="6"/>
+      <c r="F392" s="6"/>
+    </row>
+    <row r="393" spans="5:6">
+      <c r="E393" s="6"/>
+      <c r="F393" s="6"/>
+    </row>
+    <row r="394" spans="5:6">
+      <c r="E394" s="6"/>
+      <c r="F394" s="6"/>
+    </row>
+    <row r="395" spans="5:6">
+      <c r="E395" s="6"/>
+      <c r="F395" s="6"/>
+    </row>
+    <row r="396" spans="5:6">
+      <c r="E396" s="6"/>
+      <c r="F396" s="6"/>
+    </row>
+    <row r="397" spans="5:6">
+      <c r="E397" s="6"/>
+      <c r="F397" s="6"/>
+    </row>
+    <row r="398" spans="5:6">
+      <c r="E398" s="6"/>
+      <c r="F398" s="6"/>
+    </row>
+    <row r="399" spans="5:6">
+      <c r="E399" s="6"/>
+      <c r="F399" s="6"/>
+    </row>
+    <row r="400" spans="5:6">
+      <c r="E400" s="6"/>
+      <c r="F400" s="6"/>
+    </row>
+    <row r="401" spans="5:6">
+      <c r="E401" s="6"/>
+      <c r="F401" s="6"/>
+    </row>
+    <row r="402" spans="5:6">
+      <c r="E402" s="6"/>
+      <c r="F402" s="6"/>
+    </row>
+    <row r="403" spans="5:6">
+      <c r="E403" s="6"/>
+      <c r="F403" s="6"/>
+    </row>
+    <row r="404" spans="5:6">
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
+    </row>
+    <row r="405" spans="5:6">
+      <c r="E405" s="6"/>
+      <c r="F405" s="6"/>
+    </row>
+    <row r="406" spans="5:6">
+      <c r="E406" s="6"/>
+      <c r="F406" s="6"/>
+    </row>
+    <row r="407" spans="5:6">
+      <c r="E407" s="6"/>
+      <c r="F407" s="6"/>
+    </row>
+    <row r="408" spans="5:6">
+      <c r="E408" s="6"/>
+      <c r="F408" s="6"/>
+    </row>
+    <row r="409" spans="5:6">
+      <c r="E409" s="6"/>
+      <c r="F409" s="6"/>
+    </row>
+    <row r="410" spans="5:6">
+      <c r="E410" s="6"/>
+      <c r="F410" s="6"/>
+    </row>
+    <row r="411" spans="5:6">
+      <c r="E411" s="6"/>
+      <c r="F411" s="6"/>
+    </row>
+    <row r="412" spans="5:6">
+      <c r="E412" s="6"/>
+      <c r="F412" s="6"/>
+    </row>
+    <row r="413" spans="5:6">
+      <c r="E413" s="6"/>
+      <c r="F413" s="6"/>
+    </row>
+    <row r="414" spans="5:6">
+      <c r="E414" s="6"/>
+      <c r="F414" s="6"/>
+    </row>
+    <row r="415" spans="5:6">
+      <c r="E415" s="6"/>
+      <c r="F415" s="6"/>
+    </row>
+    <row r="416" spans="5:6">
+      <c r="E416" s="6"/>
+      <c r="F416" s="6"/>
+    </row>
+    <row r="417" spans="5:6">
+      <c r="E417" s="6"/>
+      <c r="F417" s="6"/>
+    </row>
+    <row r="418" spans="5:6">
+      <c r="E418" s="6"/>
+      <c r="F418" s="6"/>
+    </row>
+    <row r="419" spans="5:6">
+      <c r="E419" s="6"/>
+      <c r="F419" s="6"/>
+    </row>
+    <row r="420" spans="5:6">
+      <c r="E420" s="6"/>
+      <c r="F420" s="6"/>
+    </row>
+    <row r="421" spans="5:6">
+      <c r="E421" s="6"/>
+      <c r="F421" s="6"/>
+    </row>
+    <row r="422" spans="5:6">
+      <c r="E422" s="6"/>
+      <c r="F422" s="6"/>
+    </row>
+    <row r="423" spans="5:6">
+      <c r="E423" s="6"/>
+      <c r="F423" s="6"/>
+    </row>
+    <row r="424" spans="5:6">
+      <c r="E424" s="6"/>
+      <c r="F424" s="6"/>
+    </row>
+    <row r="425" spans="5:6">
+      <c r="E425" s="6"/>
+      <c r="F425" s="6"/>
+    </row>
+    <row r="426" spans="5:6">
+      <c r="E426" s="6"/>
+      <c r="F426" s="6"/>
+    </row>
+    <row r="427" spans="5:6">
+      <c r="E427" s="6"/>
+      <c r="F427" s="6"/>
+    </row>
+    <row r="428" spans="5:6">
+      <c r="E428" s="6"/>
+      <c r="F428" s="6"/>
+    </row>
+    <row r="429" spans="5:6">
+      <c r="E429" s="6"/>
+      <c r="F429" s="6"/>
+    </row>
+    <row r="430" spans="5:6">
+      <c r="E430" s="6"/>
+      <c r="F430" s="6"/>
+    </row>
+    <row r="431" spans="5:6">
+      <c r="E431" s="6"/>
+      <c r="F431" s="6"/>
+    </row>
+    <row r="432" spans="5:6">
+      <c r="E432" s="6"/>
+      <c r="F432" s="6"/>
+    </row>
+    <row r="433" spans="5:6">
+      <c r="E433" s="6"/>
+      <c r="F433" s="6"/>
+    </row>
+    <row r="434" spans="5:6">
+      <c r="E434" s="6"/>
+      <c r="F434" s="6"/>
+    </row>
+    <row r="435" spans="5:6">
+      <c r="E435" s="6"/>
+      <c r="F435" s="6"/>
+    </row>
+    <row r="436" spans="5:6">
+      <c r="E436" s="6"/>
+      <c r="F436" s="6"/>
+    </row>
+    <row r="437" spans="5:6">
+      <c r="E437" s="6"/>
+      <c r="F437" s="6"/>
+    </row>
+    <row r="438" spans="5:6">
+      <c r="E438" s="6"/>
+      <c r="F438" s="6"/>
+    </row>
+    <row r="439" spans="5:6">
+      <c r="E439" s="6"/>
+      <c r="F439" s="6"/>
+    </row>
+    <row r="440" spans="5:6">
+      <c r="E440" s="6"/>
+      <c r="F440" s="6"/>
+    </row>
+    <row r="441" spans="5:6">
+      <c r="E441" s="6"/>
+      <c r="F441" s="6"/>
+    </row>
+    <row r="442" spans="5:6">
+      <c r="E442" s="6"/>
+      <c r="F442" s="6"/>
+    </row>
+    <row r="443" spans="5:6">
+      <c r="E443" s="6"/>
+      <c r="F443" s="6"/>
+    </row>
+    <row r="444" spans="5:6">
+      <c r="E444" s="6"/>
+      <c r="F444" s="6"/>
+    </row>
+    <row r="445" spans="5:6">
+      <c r="E445" s="6"/>
+      <c r="F445" s="6"/>
+    </row>
+    <row r="446" spans="5:6">
+      <c r="E446" s="6"/>
+      <c r="F446" s="6"/>
+    </row>
+    <row r="447" spans="5:6">
+      <c r="E447" s="6"/>
+      <c r="F447" s="6"/>
+    </row>
+    <row r="448" spans="5:6">
+      <c r="E448" s="6"/>
+      <c r="F448" s="6"/>
+    </row>
+    <row r="449" spans="5:6">
+      <c r="E449" s="6"/>
+      <c r="F449" s="6"/>
+    </row>
+    <row r="450" spans="5:6">
+      <c r="E450" s="6"/>
+      <c r="F450" s="6"/>
+    </row>
+    <row r="451" spans="5:6">
+      <c r="E451" s="6"/>
+      <c r="F451" s="6"/>
+    </row>
+    <row r="452" spans="5:6">
+      <c r="E452" s="6"/>
+      <c r="F452" s="6"/>
+    </row>
+    <row r="453" spans="5:6">
+      <c r="E453" s="6"/>
+      <c r="F453" s="6"/>
+    </row>
+    <row r="454" spans="5:6">
+      <c r="E454" s="6"/>
+      <c r="F454" s="6"/>
+    </row>
+    <row r="455" spans="5:6">
+      <c r="E455" s="6"/>
+      <c r="F455" s="6"/>
+    </row>
+    <row r="456" spans="5:6">
+      <c r="E456" s="6"/>
+      <c r="F456" s="6"/>
+    </row>
+    <row r="457" spans="5:6">
+      <c r="E457" s="6"/>
+      <c r="F457" s="6"/>
+    </row>
+    <row r="458" spans="5:6">
+      <c r="E458" s="6"/>
+      <c r="F458" s="6"/>
+    </row>
+    <row r="459" spans="5:6">
+      <c r="E459" s="6"/>
+      <c r="F459" s="6"/>
+    </row>
+    <row r="460" spans="5:6">
+      <c r="E460" s="6"/>
+      <c r="F460" s="6"/>
+    </row>
+    <row r="461" spans="5:6">
+      <c r="E461" s="6"/>
+      <c r="F461" s="6"/>
+    </row>
+    <row r="462" spans="5:6">
+      <c r="E462" s="6"/>
+      <c r="F462" s="6"/>
+    </row>
+    <row r="463" spans="5:6">
+      <c r="E463" s="6"/>
+      <c r="F463" s="6"/>
+    </row>
+    <row r="464" spans="5:6">
+      <c r="E464" s="6"/>
+      <c r="F464" s="6"/>
+    </row>
+    <row r="465" spans="5:6">
+      <c r="E465" s="6"/>
+      <c r="F465" s="6"/>
+    </row>
+    <row r="466" spans="5:6">
+      <c r="E466" s="6"/>
+      <c r="F466" s="6"/>
+    </row>
+    <row r="467" spans="5:6">
+      <c r="E467" s="6"/>
+      <c r="F467" s="6"/>
+    </row>
+    <row r="468" spans="5:6">
+      <c r="E468" s="6"/>
+      <c r="F468" s="6"/>
+    </row>
+    <row r="469" spans="5:6">
+      <c r="E469" s="6"/>
+      <c r="F469" s="6"/>
+    </row>
+    <row r="470" spans="5:6">
+      <c r="E470" s="6"/>
+      <c r="F470" s="6"/>
+    </row>
+    <row r="471" spans="5:6">
+      <c r="E471" s="6"/>
+      <c r="F471" s="6"/>
+    </row>
+    <row r="472" spans="5:6">
+      <c r="E472" s="6"/>
+      <c r="F472" s="6"/>
+    </row>
+    <row r="473" spans="5:6">
+      <c r="E473" s="6"/>
+      <c r="F473" s="6"/>
+    </row>
+    <row r="474" spans="5:6">
+      <c r="E474" s="6"/>
+      <c r="F474" s="6"/>
+    </row>
+    <row r="475" spans="5:6">
+      <c r="E475" s="6"/>
+      <c r="F475" s="6"/>
+    </row>
+    <row r="476" spans="5:6">
+      <c r="E476" s="6"/>
+      <c r="F476" s="6"/>
+    </row>
+    <row r="477" spans="5:6">
+      <c r="E477" s="6"/>
+      <c r="F477" s="6"/>
+    </row>
+    <row r="478" spans="5:6">
+      <c r="E478" s="6"/>
+      <c r="F478" s="6"/>
+    </row>
+    <row r="479" spans="5:6">
+      <c r="E479" s="6"/>
+      <c r="F479" s="6"/>
+    </row>
+    <row r="480" spans="5:6">
+      <c r="E480" s="6"/>
+      <c r="F480" s="6"/>
+    </row>
+    <row r="481" spans="5:6">
+      <c r="E481" s="6"/>
+      <c r="F481" s="6"/>
+    </row>
+    <row r="482" spans="5:6">
+      <c r="E482" s="6"/>
+      <c r="F482" s="6"/>
+    </row>
+    <row r="483" spans="5:6">
+      <c r="E483" s="6"/>
+      <c r="F483" s="6"/>
+    </row>
+    <row r="484" spans="5:6">
+      <c r="E484" s="6"/>
+      <c r="F484" s="6"/>
+    </row>
+    <row r="485" spans="5:6">
+      <c r="E485" s="6"/>
+      <c r="F485" s="6"/>
+    </row>
+    <row r="486" spans="5:6">
+      <c r="E486" s="6"/>
+      <c r="F486" s="6"/>
+    </row>
+    <row r="487" spans="5:6">
+      <c r="E487" s="6"/>
+      <c r="F487" s="6"/>
+    </row>
+    <row r="488" spans="5:6">
+      <c r="E488" s="6"/>
+      <c r="F488" s="6"/>
+    </row>
+    <row r="489" spans="5:6">
+      <c r="E489" s="6"/>
+      <c r="F489" s="6"/>
+    </row>
+    <row r="490" spans="5:6">
+      <c r="E490" s="6"/>
+      <c r="F490" s="6"/>
+    </row>
+    <row r="491" spans="5:6">
+      <c r="E491" s="6"/>
+      <c r="F491" s="6"/>
+    </row>
+    <row r="492" spans="5:6">
+      <c r="E492" s="6"/>
+      <c r="F492" s="6"/>
+    </row>
+    <row r="493" spans="5:6">
+      <c r="E493" s="6"/>
+      <c r="F493" s="6"/>
+    </row>
+    <row r="494" spans="5:6">
+      <c r="E494" s="6"/>
+      <c r="F494" s="6"/>
+    </row>
+    <row r="495" spans="5:6">
+      <c r="E495" s="6"/>
+      <c r="F495" s="6"/>
+    </row>
+    <row r="496" spans="5:6">
+      <c r="E496" s="6"/>
+      <c r="F496" s="6"/>
+    </row>
+    <row r="497" spans="5:6">
+      <c r="E497" s="6"/>
+      <c r="F497" s="6"/>
+    </row>
+    <row r="498" spans="5:6">
+      <c r="E498" s="6"/>
+      <c r="F498" s="6"/>
+    </row>
+    <row r="499" spans="5:6">
+      <c r="E499" s="6"/>
+      <c r="F499" s="6"/>
+    </row>
+    <row r="500" spans="5:6">
+      <c r="E500" s="6"/>
+      <c r="F500" s="6"/>
+    </row>
+    <row r="501" spans="5:6">
+      <c r="E501" s="6"/>
+      <c r="F501" s="6"/>
+    </row>
+    <row r="502" spans="5:6">
+      <c r="E502" s="6"/>
+      <c r="F502" s="6"/>
+    </row>
+    <row r="503" spans="5:6">
+      <c r="E503" s="6"/>
+      <c r="F503" s="6"/>
+    </row>
+    <row r="504" spans="5:6">
+      <c r="E504" s="6"/>
+      <c r="F504" s="6"/>
+    </row>
+    <row r="505" spans="5:6">
+      <c r="E505" s="6"/>
+      <c r="F505" s="6"/>
+    </row>
+    <row r="506" spans="5:6">
+      <c r="E506" s="6"/>
+      <c r="F506" s="6"/>
+    </row>
+    <row r="507" spans="5:6">
+      <c r="E507" s="6"/>
+      <c r="F507" s="6"/>
+    </row>
+    <row r="508" spans="5:6">
+      <c r="E508" s="6"/>
+      <c r="F508" s="6"/>
+    </row>
+    <row r="509" spans="5:6">
+      <c r="E509" s="6"/>
+      <c r="F509" s="6"/>
+    </row>
+    <row r="510" spans="5:6">
+      <c r="E510" s="6"/>
+      <c r="F510" s="6"/>
+    </row>
+    <row r="511" spans="5:6">
+      <c r="E511" s="6"/>
+      <c r="F511" s="6"/>
+    </row>
+    <row r="512" spans="5:6">
+      <c r="E512" s="6"/>
+      <c r="F512" s="6"/>
+    </row>
+    <row r="513" spans="5:6">
+      <c r="E513" s="6"/>
+      <c r="F513" s="6"/>
+    </row>
+    <row r="514" spans="5:6">
+      <c r="E514" s="6"/>
+      <c r="F514" s="6"/>
+    </row>
+    <row r="515" spans="5:6">
+      <c r="E515" s="6"/>
+      <c r="F515" s="6"/>
+    </row>
+    <row r="516" spans="5:6">
+      <c r="E516" s="6"/>
+      <c r="F516" s="6"/>
+    </row>
+    <row r="517" spans="5:6">
+      <c r="E517" s="6"/>
+      <c r="F517" s="6"/>
+    </row>
+    <row r="518" spans="5:6">
+      <c r="E518" s="6"/>
+      <c r="F518" s="6"/>
+    </row>
+    <row r="519" spans="5:6">
+      <c r="E519" s="6"/>
+      <c r="F519" s="6"/>
+    </row>
+    <row r="520" spans="5:6">
+      <c r="E520" s="6"/>
+      <c r="F520" s="6"/>
+    </row>
+    <row r="521" spans="5:6">
+      <c r="E521" s="6"/>
+      <c r="F521" s="6"/>
+    </row>
+    <row r="522" spans="5:6">
+      <c r="E522" s="6"/>
+      <c r="F522" s="6"/>
+    </row>
+    <row r="523" spans="5:6">
+      <c r="E523" s="6"/>
+      <c r="F523" s="6"/>
+    </row>
+    <row r="524" spans="5:6">
+      <c r="E524" s="6"/>
+      <c r="F524" s="6"/>
+    </row>
+    <row r="525" spans="5:6">
+      <c r="E525" s="6"/>
+      <c r="F525" s="6"/>
+    </row>
+    <row r="526" spans="5:6">
+      <c r="E526" s="6"/>
+      <c r="F526" s="6"/>
+    </row>
+    <row r="527" spans="5:6">
+      <c r="E527" s="6"/>
+      <c r="F527" s="6"/>
+    </row>
+    <row r="528" spans="5:6">
+      <c r="E528" s="6"/>
+      <c r="F528" s="6"/>
+    </row>
+    <row r="529" spans="5:6">
+      <c r="E529" s="6"/>
+      <c r="F529" s="6"/>
+    </row>
+    <row r="530" spans="5:6">
+      <c r="E530" s="6"/>
+      <c r="F530" s="6"/>
+    </row>
+    <row r="531" spans="5:6">
+      <c r="E531" s="6"/>
+      <c r="F531" s="6"/>
+    </row>
+    <row r="532" spans="5:6">
+      <c r="E532" s="6"/>
+      <c r="F532" s="6"/>
+    </row>
+    <row r="533" spans="5:6">
+      <c r="E533" s="6"/>
+      <c r="F533" s="6"/>
+    </row>
+    <row r="534" spans="5:6">
+      <c r="E534" s="6"/>
+      <c r="F534" s="6"/>
+    </row>
+    <row r="535" spans="5:6">
+      <c r="E535" s="6"/>
+      <c r="F535" s="6"/>
+    </row>
+    <row r="536" spans="5:6">
+      <c r="E536" s="6"/>
+      <c r="F536" s="6"/>
+    </row>
+    <row r="537" spans="5:6">
+      <c r="E537" s="6"/>
+      <c r="F537" s="6"/>
+    </row>
+    <row r="538" spans="5:6">
+      <c r="E538" s="6"/>
+      <c r="F538" s="6"/>
+    </row>
+    <row r="539" spans="5:6">
+      <c r="E539" s="6"/>
+      <c r="F539" s="6"/>
+    </row>
+    <row r="540" spans="5:6">
+      <c r="E540" s="6"/>
+      <c r="F540" s="6"/>
+    </row>
+    <row r="541" spans="5:6">
+      <c r="E541" s="6"/>
+      <c r="F541" s="6"/>
+    </row>
+    <row r="542" spans="5:6">
+      <c r="E542" s="6"/>
+      <c r="F542" s="6"/>
+    </row>
+    <row r="543" spans="5:6">
+      <c r="E543" s="6"/>
+      <c r="F543" s="6"/>
+    </row>
+    <row r="544" spans="5:6">
+      <c r="E544" s="6"/>
+      <c r="F544" s="6"/>
+    </row>
+    <row r="545" spans="5:6">
+      <c r="E545" s="6"/>
+      <c r="F545" s="6"/>
+    </row>
+    <row r="546" spans="5:6">
+      <c r="E546" s="6"/>
+      <c r="F546" s="6"/>
+    </row>
+    <row r="547" spans="5:6">
+      <c r="E547" s="6"/>
+      <c r="F547" s="6"/>
+    </row>
+    <row r="548" spans="5:6">
+      <c r="E548" s="6"/>
+      <c r="F548" s="6"/>
+    </row>
+    <row r="549" spans="5:6">
+      <c r="E549" s="6"/>
+      <c r="F549" s="6"/>
+    </row>
+    <row r="550" spans="5:6">
+      <c r="E550" s="6"/>
+      <c r="F550" s="6"/>
+    </row>
+    <row r="551" spans="5:6">
+      <c r="E551" s="6"/>
+      <c r="F551" s="6"/>
+    </row>
+    <row r="552" spans="5:6">
+      <c r="E552" s="6"/>
+      <c r="F552" s="6"/>
+    </row>
+    <row r="553" spans="5:6">
+      <c r="E553" s="6"/>
+      <c r="F553" s="6"/>
+    </row>
+    <row r="554" spans="5:6">
+      <c r="E554" s="6"/>
+      <c r="F554" s="6"/>
+    </row>
+    <row r="555" spans="5:6">
+      <c r="E555" s="6"/>
+      <c r="F555" s="6"/>
+    </row>
+    <row r="556" spans="5:6">
+      <c r="E556" s="6"/>
+      <c r="F556" s="6"/>
+    </row>
+    <row r="557" spans="5:6">
+      <c r="E557" s="6"/>
+      <c r="F557" s="6"/>
+    </row>
+    <row r="558" spans="5:6">
+      <c r="E558" s="6"/>
+      <c r="F558" s="6"/>
+    </row>
+    <row r="559" spans="5:6">
+      <c r="E559" s="6"/>
+      <c r="F559" s="6"/>
+    </row>
+    <row r="560" spans="5:6">
+      <c r="E560" s="6"/>
+      <c r="F560" s="6"/>
+    </row>
+    <row r="561" spans="5:6">
+      <c r="E561" s="6"/>
+      <c r="F561" s="6"/>
+    </row>
+    <row r="562" spans="5:6">
+      <c r="E562" s="6"/>
+      <c r="F562" s="6"/>
+    </row>
+    <row r="563" spans="5:6">
+      <c r="E563" s="6"/>
+      <c r="F563" s="6"/>
+    </row>
+    <row r="564" spans="5:6">
+      <c r="E564" s="6"/>
+      <c r="F564" s="6"/>
+    </row>
+    <row r="565" spans="5:6">
+      <c r="E565" s="6"/>
+      <c r="F565" s="6"/>
+    </row>
+    <row r="566" spans="5:6">
+      <c r="E566" s="6"/>
+      <c r="F566" s="6"/>
+    </row>
+    <row r="567" spans="5:6">
+      <c r="E567" s="6"/>
+      <c r="F567" s="6"/>
+    </row>
+    <row r="568" spans="5:6">
+      <c r="E568" s="6"/>
+      <c r="F568" s="6"/>
+    </row>
+    <row r="569" spans="5:6">
+      <c r="E569" s="6"/>
+      <c r="F569" s="6"/>
+    </row>
+    <row r="570" spans="5:6">
+      <c r="E570" s="6"/>
+      <c r="F570" s="6"/>
+    </row>
+    <row r="571" spans="5:6">
+      <c r="E571" s="6"/>
+      <c r="F571" s="6"/>
+    </row>
+    <row r="572" spans="5:6">
+      <c r="E572" s="6"/>
+      <c r="F572" s="6"/>
+    </row>
+    <row r="573" spans="5:6">
+      <c r="E573" s="6"/>
+      <c r="F573" s="6"/>
+    </row>
+    <row r="574" spans="5:6">
+      <c r="E574" s="6"/>
+      <c r="F574" s="6"/>
+    </row>
+    <row r="575" spans="5:6">
+      <c r="E575" s="6"/>
+      <c r="F575" s="6"/>
+    </row>
+    <row r="576" spans="5:6">
+      <c r="E576" s="6"/>
+      <c r="F576" s="6"/>
+    </row>
+    <row r="577" spans="5:6">
+      <c r="E577" s="6"/>
+      <c r="F577" s="6"/>
+    </row>
+    <row r="578" spans="5:6">
+      <c r="E578" s="6"/>
+      <c r="F578" s="6"/>
+    </row>
+    <row r="579" spans="5:6">
+      <c r="E579" s="6"/>
+      <c r="F579" s="6"/>
+    </row>
+    <row r="580" spans="5:6">
+      <c r="E580" s="6"/>
+      <c r="F580" s="6"/>
+    </row>
+    <row r="581" spans="5:6">
+      <c r="E581" s="6"/>
+      <c r="F581" s="6"/>
+    </row>
+    <row r="582" spans="5:6">
+      <c r="E582" s="6"/>
+      <c r="F582" s="6"/>
+    </row>
+    <row r="583" spans="5:6">
+      <c r="E583" s="6"/>
+      <c r="F583" s="6"/>
+    </row>
+    <row r="584" spans="5:6">
+      <c r="E584" s="6"/>
+      <c r="F584" s="6"/>
+    </row>
+    <row r="585" spans="5:6">
+      <c r="E585" s="6"/>
+      <c r="F585" s="6"/>
+    </row>
+    <row r="586" spans="5:6">
+      <c r="E586" s="6"/>
+      <c r="F586" s="6"/>
+    </row>
+    <row r="587" spans="5:6">
+      <c r="E587" s="6"/>
+      <c r="F587" s="6"/>
+    </row>
+    <row r="588" spans="5:6">
+      <c r="E588" s="6"/>
+      <c r="F588" s="6"/>
+    </row>
+    <row r="589" spans="5:6">
+      <c r="E589" s="6"/>
+      <c r="F589" s="6"/>
+    </row>
+    <row r="590" spans="5:6">
+      <c r="E590" s="6"/>
+      <c r="F590" s="6"/>
+    </row>
+    <row r="591" spans="5:6">
+      <c r="E591" s="6"/>
+      <c r="F591" s="6"/>
+    </row>
+    <row r="592" spans="5:6">
+      <c r="E592" s="6"/>
+      <c r="F592" s="6"/>
+    </row>
+    <row r="593" spans="5:6">
+      <c r="E593" s="6"/>
+      <c r="F593" s="6"/>
+    </row>
+    <row r="594" spans="5:6">
+      <c r="E594" s="6"/>
+      <c r="F594" s="6"/>
+    </row>
+    <row r="595" spans="5:6">
+      <c r="E595" s="6"/>
+      <c r="F595" s="6"/>
+    </row>
+    <row r="596" spans="5:6">
+      <c r="E596" s="6"/>
+      <c r="F596" s="6"/>
+    </row>
+    <row r="597" spans="5:6">
+      <c r="E597" s="6"/>
+      <c r="F597" s="6"/>
+    </row>
+    <row r="598" spans="5:6">
+      <c r="E598" s="6"/>
+      <c r="F598" s="6"/>
+    </row>
+    <row r="599" spans="5:6">
+      <c r="E599" s="6"/>
+      <c r="F599" s="6"/>
+    </row>
+    <row r="600" spans="5:6">
+      <c r="E600" s="6"/>
+      <c r="F600" s="6"/>
+    </row>
+    <row r="601" spans="5:6">
+      <c r="E601" s="6"/>
+      <c r="F601" s="6"/>
+    </row>
+    <row r="602" spans="5:6">
+      <c r="E602" s="6"/>
+      <c r="F602" s="6"/>
+    </row>
+    <row r="603" spans="5:6">
+      <c r="E603" s="6"/>
+      <c r="F603" s="6"/>
+    </row>
+    <row r="604" spans="5:6">
+      <c r="E604" s="6"/>
+      <c r="F604" s="6"/>
+    </row>
+    <row r="605" spans="5:6">
+      <c r="E605" s="6"/>
+      <c r="F605" s="6"/>
+    </row>
+    <row r="606" spans="5:6">
+      <c r="E606" s="6"/>
+      <c r="F606" s="6"/>
+    </row>
+    <row r="607" spans="5:6">
+      <c r="E607" s="6"/>
+      <c r="F607" s="6"/>
+    </row>
+    <row r="608" spans="5:6">
+      <c r="E608" s="6"/>
+      <c r="F608" s="6"/>
+    </row>
+    <row r="609" spans="5:6">
+      <c r="E609" s="6"/>
+      <c r="F609" s="6"/>
+    </row>
+    <row r="610" spans="5:6">
+      <c r="E610" s="6"/>
+      <c r="F610" s="6"/>
+    </row>
+    <row r="611" spans="5:6">
+      <c r="E611" s="6"/>
+      <c r="F611" s="6"/>
+    </row>
+    <row r="612" spans="5:6">
+      <c r="E612" s="6"/>
+      <c r="F612" s="6"/>
+    </row>
+    <row r="613" spans="5:6">
+      <c r="E613" s="6"/>
+      <c r="F613" s="6"/>
+    </row>
+    <row r="614" spans="5:6">
+      <c r="E614" s="6"/>
+      <c r="F614" s="6"/>
+    </row>
+    <row r="615" spans="5:6">
+      <c r="E615" s="6"/>
+      <c r="F615" s="6"/>
+    </row>
+    <row r="616" spans="5:6">
+      <c r="E616" s="6"/>
+      <c r="F616" s="6"/>
+    </row>
+    <row r="617" spans="5:6">
+      <c r="E617" s="6"/>
+      <c r="F617" s="6"/>
+    </row>
+    <row r="618" spans="5:6">
+      <c r="E618" s="6"/>
+      <c r="F618" s="6"/>
+    </row>
+    <row r="619" spans="5:6">
+      <c r="E619" s="6"/>
+      <c r="F619" s="6"/>
+    </row>
+    <row r="620" spans="5:6">
+      <c r="E620" s="6"/>
+      <c r="F620" s="6"/>
+    </row>
+    <row r="621" spans="5:6">
+      <c r="E621" s="6"/>
+      <c r="F621" s="6"/>
+    </row>
+    <row r="622" spans="5:6">
+      <c r="E622" s="6"/>
+      <c r="F622" s="6"/>
+    </row>
+    <row r="623" spans="5:6">
+      <c r="E623" s="6"/>
+      <c r="F623" s="6"/>
+    </row>
+    <row r="624" spans="5:6">
+      <c r="E624" s="6"/>
+      <c r="F624" s="6"/>
+    </row>
+    <row r="625" spans="5:6">
+      <c r="E625" s="6"/>
+      <c r="F625" s="6"/>
+    </row>
+    <row r="626" spans="5:6">
+      <c r="E626" s="6"/>
+      <c r="F626" s="6"/>
+    </row>
+    <row r="627" spans="5:6">
+      <c r="E627" s="6"/>
+      <c r="F627" s="6"/>
+    </row>
+    <row r="628" spans="5:6">
+      <c r="E628" s="6"/>
+      <c r="F628" s="6"/>
+    </row>
+    <row r="629" spans="5:6">
+      <c r="E629" s="6"/>
+      <c r="F629" s="6"/>
+    </row>
+    <row r="630" spans="5:6">
+      <c r="E630" s="6"/>
+      <c r="F630" s="6"/>
+    </row>
+    <row r="631" spans="5:6">
+      <c r="E631" s="6"/>
+      <c r="F631" s="6"/>
+    </row>
+    <row r="632" spans="5:6">
+      <c r="E632" s="6"/>
+      <c r="F632" s="6"/>
+    </row>
+    <row r="633" spans="5:6">
+      <c r="E633" s="6"/>
+      <c r="F633" s="6"/>
+    </row>
+    <row r="634" spans="5:6">
+      <c r="E634" s="6"/>
+      <c r="F634" s="6"/>
+    </row>
+    <row r="635" spans="5:6">
+      <c r="E635" s="6"/>
+      <c r="F635" s="6"/>
+    </row>
+    <row r="636" spans="5:6">
+      <c r="E636" s="6"/>
+      <c r="F636" s="6"/>
+    </row>
+    <row r="637" spans="5:6">
+      <c r="E637" s="6"/>
+      <c r="F637" s="6"/>
+    </row>
+    <row r="638" spans="5:6">
+      <c r="E638" s="6"/>
+      <c r="F638" s="6"/>
+    </row>
+    <row r="639" spans="5:6">
+      <c r="E639" s="6"/>
+      <c r="F639" s="6"/>
+    </row>
+    <row r="640" spans="5:6">
+      <c r="E640" s="6"/>
+      <c r="F640" s="6"/>
+    </row>
+    <row r="641" spans="5:6">
+      <c r="E641" s="6"/>
+      <c r="F641" s="6"/>
+    </row>
+    <row r="642" spans="5:6">
+      <c r="E642" s="6"/>
+      <c r="F642" s="6"/>
+    </row>
+    <row r="643" spans="5:6">
+      <c r="E643" s="6"/>
+      <c r="F643" s="6"/>
+    </row>
+    <row r="644" spans="5:6">
+      <c r="E644" s="6"/>
+      <c r="F644" s="6"/>
+    </row>
+    <row r="645" spans="5:6">
+      <c r="E645" s="6"/>
+      <c r="F645" s="6"/>
+    </row>
+    <row r="646" spans="5:6">
+      <c r="E646" s="6"/>
+      <c r="F646" s="6"/>
+    </row>
+    <row r="647" spans="5:6">
+      <c r="E647" s="6"/>
+      <c r="F647" s="6"/>
+    </row>
+    <row r="648" spans="5:6">
+      <c r="E648" s="6"/>
+      <c r="F648" s="6"/>
+    </row>
+    <row r="649" spans="5:6">
+      <c r="E649" s="6"/>
+      <c r="F649" s="6"/>
+    </row>
+    <row r="650" spans="5:6">
+      <c r="E650" s="6"/>
+      <c r="F650" s="6"/>
+    </row>
+    <row r="651" spans="5:6">
+      <c r="E651" s="6"/>
+      <c r="F651" s="6"/>
+    </row>
+    <row r="652" spans="5:6">
+      <c r="E652" s="6"/>
+      <c r="F652" s="6"/>
+    </row>
+    <row r="653" spans="5:6">
+      <c r="E653" s="6"/>
+      <c r="F653" s="6"/>
+    </row>
+    <row r="654" spans="5:6">
+      <c r="E654" s="6"/>
+      <c r="F654" s="6"/>
+    </row>
+    <row r="655" spans="5:6">
+      <c r="E655" s="6"/>
+      <c r="F655" s="6"/>
+    </row>
+    <row r="656" spans="5:6">
+      <c r="E656" s="6"/>
+      <c r="F656" s="6"/>
+    </row>
+    <row r="657" spans="5:6">
+      <c r="E657" s="6"/>
+      <c r="F657" s="6"/>
+    </row>
+    <row r="658" spans="5:6">
+      <c r="E658" s="6"/>
+      <c r="F658" s="6"/>
+    </row>
+    <row r="659" spans="5:6">
+      <c r="E659" s="6"/>
+      <c r="F659" s="6"/>
+    </row>
+    <row r="660" spans="5:6">
+      <c r="E660" s="6"/>
+      <c r="F660" s="6"/>
+    </row>
+    <row r="661" spans="5:6">
+      <c r="E661" s="6"/>
+      <c r="F661" s="6"/>
+    </row>
+    <row r="662" spans="5:6">
+      <c r="E662" s="6"/>
+      <c r="F662" s="6"/>
+    </row>
+    <row r="663" spans="5:6">
+      <c r="E663" s="6"/>
+      <c r="F663" s="6"/>
+    </row>
+    <row r="664" spans="5:6">
+      <c r="E664" s="6"/>
+      <c r="F664" s="6"/>
+    </row>
+    <row r="665" spans="5:6">
+      <c r="E665" s="6"/>
+      <c r="F665" s="6"/>
+    </row>
+    <row r="666" spans="5:6">
+      <c r="E666" s="6"/>
+      <c r="F666" s="6"/>
+    </row>
+    <row r="667" spans="5:6">
+      <c r="E667" s="6"/>
+      <c r="F667" s="6"/>
+    </row>
+    <row r="668" spans="5:6">
+      <c r="E668" s="6"/>
+      <c r="F668" s="6"/>
+    </row>
+    <row r="669" spans="5:6">
+      <c r="E669" s="6"/>
+      <c r="F669" s="6"/>
+    </row>
+    <row r="670" spans="5:6">
+      <c r="E670" s="6"/>
+      <c r="F670" s="6"/>
+    </row>
+    <row r="671" spans="5:6">
+      <c r="E671" s="6"/>
+      <c r="F671" s="6"/>
+    </row>
+    <row r="672" spans="5:6">
+      <c r="E672" s="6"/>
+      <c r="F672" s="6"/>
+    </row>
+    <row r="673" spans="5:6">
+      <c r="E673" s="6"/>
+      <c r="F673" s="6"/>
+    </row>
+    <row r="674" spans="5:6">
+      <c r="E674" s="6"/>
+      <c r="F674" s="6"/>
+    </row>
+    <row r="675" spans="5:6">
+      <c r="E675" s="6"/>
+      <c r="F675" s="6"/>
+    </row>
+    <row r="676" spans="5:6">
+      <c r="E676" s="6"/>
+      <c r="F676" s="6"/>
+    </row>
+    <row r="677" spans="5:6">
+      <c r="E677" s="6"/>
+      <c r="F677" s="6"/>
+    </row>
+    <row r="678" spans="5:6">
+      <c r="E678" s="6"/>
+      <c r="F678" s="6"/>
+    </row>
+    <row r="679" spans="5:6">
+      <c r="E679" s="6"/>
+      <c r="F679" s="6"/>
+    </row>
+    <row r="680" spans="5:6">
+      <c r="E680" s="6"/>
+      <c r="F680" s="6"/>
+    </row>
+    <row r="681" spans="5:6">
+      <c r="E681" s="6"/>
+      <c r="F681" s="6"/>
+    </row>
+    <row r="682" spans="5:6">
+      <c r="E682" s="6"/>
+      <c r="F682" s="6"/>
+    </row>
+    <row r="683" spans="5:6">
+      <c r="E683" s="6"/>
+      <c r="F683" s="6"/>
+    </row>
+    <row r="684" spans="5:6">
+      <c r="E684" s="6"/>
+      <c r="F684" s="6"/>
+    </row>
+    <row r="685" spans="5:6">
+      <c r="E685" s="6"/>
+      <c r="F685" s="6"/>
+    </row>
+    <row r="686" spans="5:6">
+      <c r="E686" s="6"/>
+      <c r="F686" s="6"/>
+    </row>
+    <row r="687" spans="5:6">
+      <c r="E687" s="6"/>
+      <c r="F687" s="6"/>
+    </row>
+    <row r="688" spans="5:6">
+      <c r="E688" s="6"/>
+      <c r="F688" s="6"/>
+    </row>
+    <row r="689" spans="5:6">
+      <c r="E689" s="6"/>
+      <c r="F689" s="6"/>
+    </row>
+    <row r="690" spans="5:6">
+      <c r="E690" s="6"/>
+      <c r="F690" s="6"/>
+    </row>
+    <row r="691" spans="5:6">
+      <c r="E691" s="6"/>
+      <c r="F691" s="6"/>
+    </row>
+    <row r="692" spans="5:6">
+      <c r="E692" s="6"/>
+      <c r="F692" s="6"/>
+    </row>
+    <row r="693" spans="5:6">
+      <c r="E693" s="6"/>
+      <c r="F693" s="6"/>
+    </row>
+    <row r="694" spans="5:6">
+      <c r="E694" s="6"/>
+      <c r="F694" s="6"/>
+    </row>
+    <row r="695" spans="5:6">
+      <c r="E695" s="6"/>
+      <c r="F695" s="6"/>
+    </row>
+    <row r="696" spans="5:6">
+      <c r="E696" s="6"/>
+      <c r="F696" s="6"/>
+    </row>
+    <row r="697" spans="5:6">
+      <c r="E697" s="6"/>
+      <c r="F697" s="6"/>
+    </row>
+    <row r="698" spans="5:6">
+      <c r="E698" s="6"/>
+      <c r="F698" s="6"/>
+    </row>
+    <row r="699" spans="5:6">
+      <c r="E699" s="6"/>
+      <c r="F699" s="6"/>
+    </row>
+    <row r="700" spans="5:6">
+      <c r="E700" s="6"/>
+      <c r="F700" s="6"/>
+    </row>
+    <row r="701" spans="5:6">
+      <c r="E701" s="6"/>
+      <c r="F701" s="6"/>
+    </row>
+    <row r="702" spans="5:6">
+      <c r="E702" s="6"/>
+      <c r="F702" s="6"/>
+    </row>
+    <row r="703" spans="5:6">
+      <c r="E703" s="6"/>
+      <c r="F703" s="6"/>
+    </row>
+    <row r="704" spans="5:6">
+      <c r="E704" s="6"/>
+      <c r="F704" s="6"/>
+    </row>
+    <row r="705" spans="5:6">
+      <c r="E705" s="6"/>
+      <c r="F705" s="6"/>
+    </row>
+    <row r="706" spans="5:6">
+      <c r="E706" s="6"/>
+      <c r="F706" s="6"/>
+    </row>
+    <row r="707" spans="5:6">
+      <c r="E707" s="6"/>
+      <c r="F707" s="6"/>
+    </row>
+    <row r="708" spans="5:6">
+      <c r="E708" s="6"/>
+      <c r="F708" s="6"/>
+    </row>
+    <row r="709" spans="5:6">
+      <c r="E709" s="6"/>
+      <c r="F709" s="6"/>
+    </row>
+    <row r="710" spans="5:6">
+      <c r="E710" s="6"/>
+      <c r="F710" s="6"/>
+    </row>
+    <row r="711" spans="5:6">
+      <c r="E711" s="6"/>
+      <c r="F711" s="6"/>
+    </row>
+    <row r="712" spans="5:6">
+      <c r="E712" s="6"/>
+      <c r="F712" s="6"/>
+    </row>
+    <row r="713" spans="5:6">
+      <c r="E713" s="6"/>
+      <c r="F713" s="6"/>
+    </row>
+    <row r="714" spans="5:6">
+      <c r="E714" s="6"/>
+      <c r="F714" s="6"/>
+    </row>
+    <row r="715" spans="5:6">
+      <c r="E715" s="6"/>
+      <c r="F715" s="6"/>
+    </row>
+    <row r="716" spans="5:6">
+      <c r="E716" s="6"/>
+      <c r="F716" s="6"/>
+    </row>
+    <row r="717" spans="5:6">
+      <c r="E717" s="6"/>
+      <c r="F717" s="6"/>
+    </row>
+    <row r="718" spans="5:6">
+      <c r="E718" s="6"/>
+      <c r="F718" s="6"/>
+    </row>
+    <row r="719" spans="5:6">
+      <c r="E719" s="6"/>
+      <c r="F719" s="6"/>
+    </row>
+    <row r="720" spans="5:6">
+      <c r="E720" s="6"/>
+      <c r="F720" s="6"/>
+    </row>
+    <row r="721" spans="5:6">
+      <c r="E721" s="6"/>
+      <c r="F721" s="6"/>
+    </row>
+    <row r="722" spans="5:6">
+      <c r="E722" s="6"/>
+      <c r="F722" s="6"/>
+    </row>
+    <row r="723" spans="5:6">
+      <c r="E723" s="6"/>
+      <c r="F723" s="6"/>
+    </row>
+    <row r="724" spans="5:6">
+      <c r="E724" s="6"/>
+      <c r="F724" s="6"/>
+    </row>
+    <row r="725" spans="5:6">
+      <c r="E725" s="6"/>
+      <c r="F725" s="6"/>
+    </row>
+    <row r="726" spans="5:6">
+      <c r="E726" s="6"/>
+      <c r="F726" s="6"/>
+    </row>
+    <row r="727" spans="5:6">
+      <c r="E727" s="6"/>
+      <c r="F727" s="6"/>
+    </row>
+    <row r="728" spans="5:6">
+      <c r="E728" s="6"/>
+      <c r="F728" s="6"/>
+    </row>
+    <row r="729" spans="5:6">
+      <c r="E729" s="6"/>
+      <c r="F729" s="6"/>
+    </row>
+    <row r="730" spans="5:6">
+      <c r="E730" s="6"/>
+      <c r="F730" s="6"/>
+    </row>
+    <row r="731" spans="5:6">
+      <c r="E731" s="6"/>
+      <c r="F731" s="6"/>
+    </row>
+    <row r="732" spans="5:6">
+      <c r="E732" s="6"/>
+      <c r="F732" s="6"/>
+    </row>
+    <row r="733" spans="5:6">
+      <c r="E733" s="6"/>
+      <c r="F733" s="6"/>
+    </row>
+    <row r="734" spans="5:6">
+      <c r="E734" s="6"/>
+      <c r="F734" s="6"/>
+    </row>
+    <row r="735" spans="5:6">
+      <c r="E735" s="6"/>
+      <c r="F735" s="6"/>
+    </row>
+    <row r="736" spans="5:6">
+      <c r="E736" s="6"/>
+      <c r="F736" s="6"/>
+    </row>
+    <row r="737" spans="5:6">
+      <c r="E737" s="6"/>
+      <c r="F737" s="6"/>
+    </row>
+    <row r="738" spans="5:6">
+      <c r="E738" s="6"/>
+      <c r="F738" s="6"/>
+    </row>
+    <row r="739" spans="5:6">
+      <c r="E739" s="6"/>
+      <c r="F739" s="6"/>
+    </row>
+    <row r="740" spans="5:6">
+      <c r="E740" s="6"/>
+      <c r="F740" s="6"/>
+    </row>
+    <row r="741" spans="5:6">
+      <c r="E741" s="6"/>
+      <c r="F741" s="6"/>
+    </row>
+    <row r="742" spans="5:6">
+      <c r="E742" s="6"/>
+      <c r="F742" s="6"/>
+    </row>
+    <row r="743" spans="5:6">
+      <c r="E743" s="6"/>
+      <c r="F743" s="6"/>
+    </row>
+    <row r="744" spans="5:6">
+      <c r="E744" s="6"/>
+      <c r="F744" s="6"/>
+    </row>
+    <row r="745" spans="5:6">
+      <c r="E745" s="6"/>
+      <c r="F745" s="6"/>
+    </row>
+    <row r="746" spans="5:6">
+      <c r="E746" s="6"/>
+      <c r="F746" s="6"/>
+    </row>
+    <row r="747" spans="5:6">
+      <c r="E747" s="6"/>
+      <c r="F747" s="6"/>
+    </row>
+    <row r="748" spans="5:6">
+      <c r="E748" s="6"/>
+      <c r="F748" s="6"/>
+    </row>
+    <row r="749" spans="5:6">
+      <c r="E749" s="6"/>
+      <c r="F749" s="6"/>
+    </row>
+    <row r="750" spans="5:6">
+      <c r="E750" s="6"/>
+      <c r="F750" s="6"/>
+    </row>
+    <row r="751" spans="5:6">
+      <c r="E751" s="6"/>
+      <c r="F751" s="6"/>
+    </row>
+    <row r="752" spans="5:6">
+      <c r="E752" s="6"/>
+      <c r="F752" s="6"/>
+    </row>
+    <row r="753" spans="5:6">
+      <c r="E753" s="6"/>
+      <c r="F753" s="6"/>
+    </row>
+    <row r="754" spans="5:6">
+      <c r="E754" s="6"/>
+      <c r="F754" s="6"/>
+    </row>
+    <row r="755" spans="5:6">
+      <c r="E755" s="6"/>
+      <c r="F755" s="6"/>
+    </row>
+    <row r="756" spans="5:6">
+      <c r="E756" s="6"/>
+      <c r="F756" s="6"/>
+    </row>
+    <row r="757" spans="5:6">
+      <c r="E757" s="6"/>
+      <c r="F757" s="6"/>
+    </row>
+    <row r="758" spans="5:6">
+      <c r="E758" s="6"/>
+      <c r="F758" s="6"/>
+    </row>
+    <row r="759" spans="5:6">
+      <c r="E759" s="6"/>
+      <c r="F759" s="6"/>
+    </row>
+    <row r="760" spans="5:6">
+      <c r="E760" s="6"/>
+      <c r="F760" s="6"/>
+    </row>
+    <row r="761" spans="5:6">
+      <c r="E761" s="6"/>
+      <c r="F761" s="6"/>
+    </row>
+    <row r="762" spans="5:6">
+      <c r="E762" s="6"/>
+      <c r="F762" s="6"/>
+    </row>
+    <row r="763" spans="5:6">
+      <c r="E763" s="6"/>
+      <c r="F763" s="6"/>
+    </row>
+    <row r="764" spans="5:6">
+      <c r="E764" s="6"/>
+      <c r="F764" s="6"/>
+    </row>
+    <row r="765" spans="5:6">
+      <c r="E765" s="6"/>
+      <c r="F765" s="6"/>
+    </row>
+    <row r="766" spans="5:6">
+      <c r="E766" s="6"/>
+      <c r="F766" s="6"/>
+    </row>
+    <row r="767" spans="5:6">
+      <c r="E767" s="6"/>
+      <c r="F767" s="6"/>
+    </row>
+    <row r="768" spans="5:6">
+      <c r="E768" s="6"/>
+      <c r="F768" s="6"/>
+    </row>
+    <row r="769" spans="5:6">
+      <c r="E769" s="6"/>
+      <c r="F769" s="6"/>
+    </row>
+    <row r="770" spans="5:6">
+      <c r="E770" s="6"/>
+      <c r="F770" s="6"/>
+    </row>
+    <row r="771" spans="5:6">
+      <c r="E771" s="6"/>
+      <c r="F771" s="6"/>
+    </row>
+    <row r="772" spans="5:6">
+      <c r="E772" s="6"/>
+      <c r="F772" s="6"/>
+    </row>
+    <row r="773" spans="5:6">
+      <c r="E773" s="6"/>
+      <c r="F773" s="6"/>
+    </row>
+    <row r="774" spans="5:6">
+      <c r="E774" s="6"/>
+      <c r="F774" s="6"/>
+    </row>
+    <row r="775" spans="5:6">
+      <c r="E775" s="6"/>
+      <c r="F775" s="6"/>
+    </row>
+    <row r="776" spans="5:6">
+      <c r="E776" s="6"/>
+      <c r="F776" s="6"/>
+    </row>
+    <row r="777" spans="5:6">
+      <c r="E777" s="6"/>
+      <c r="F777" s="6"/>
+    </row>
+    <row r="778" spans="5:6">
+      <c r="E778" s="6"/>
+      <c r="F778" s="6"/>
+    </row>
+    <row r="779" spans="5:6">
+      <c r="E779" s="6"/>
+      <c r="F779" s="6"/>
+    </row>
+    <row r="780" spans="5:6">
+      <c r="E780" s="6"/>
+      <c r="F780" s="6"/>
+    </row>
+    <row r="781" spans="5:6">
+      <c r="E781" s="6"/>
+      <c r="F781" s="6"/>
+    </row>
+    <row r="782" spans="5:6">
+      <c r="E782" s="6"/>
+      <c r="F782" s="6"/>
+    </row>
+    <row r="783" spans="5:6">
+      <c r="E783" s="6"/>
+      <c r="F783" s="6"/>
+    </row>
+    <row r="784" spans="5:6">
+      <c r="E784" s="6"/>
+      <c r="F784" s="6"/>
+    </row>
+    <row r="785" spans="5:6">
+      <c r="E785" s="6"/>
+      <c r="F785" s="6"/>
+    </row>
+    <row r="786" spans="5:6">
+      <c r="E786" s="6"/>
+      <c r="F786" s="6"/>
+    </row>
+    <row r="787" spans="5:6">
+      <c r="E787" s="6"/>
+      <c r="F787" s="6"/>
+    </row>
+    <row r="788" spans="5:6">
+      <c r="E788" s="6"/>
+      <c r="F788" s="6"/>
+    </row>
+    <row r="789" spans="5:6">
+      <c r="E789" s="6"/>
+      <c r="F789" s="6"/>
+    </row>
+    <row r="790" spans="5:6">
+      <c r="E790" s="6"/>
+      <c r="F790" s="6"/>
+    </row>
+    <row r="791" spans="5:6">
+      <c r="E791" s="6"/>
+      <c r="F791" s="6"/>
+    </row>
+    <row r="792" spans="5:6">
+      <c r="E792" s="6"/>
+      <c r="F792" s="6"/>
+    </row>
+    <row r="793" spans="5:6">
+      <c r="E793" s="6"/>
+      <c r="F793" s="6"/>
+    </row>
+    <row r="794" spans="5:6">
+      <c r="E794" s="6"/>
+      <c r="F794" s="6"/>
+    </row>
+    <row r="795" spans="5:6">
+      <c r="E795" s="6"/>
+      <c r="F795" s="6"/>
+    </row>
+    <row r="796" spans="5:6">
+      <c r="E796" s="6"/>
+      <c r="F796" s="6"/>
+    </row>
+    <row r="797" spans="5:6">
+      <c r="E797" s="6"/>
+      <c r="F797" s="6"/>
+    </row>
+    <row r="798" spans="5:6">
+      <c r="E798" s="6"/>
+      <c r="F798" s="6"/>
+    </row>
+    <row r="799" spans="5:6">
+      <c r="E799" s="6"/>
+      <c r="F799" s="6"/>
+    </row>
+    <row r="800" spans="5:6">
+      <c r="E800" s="6"/>
+      <c r="F800" s="6"/>
+    </row>
+    <row r="801" spans="5:6">
+      <c r="E801" s="6"/>
+      <c r="F801" s="6"/>
+    </row>
+    <row r="802" spans="5:6">
+      <c r="E802" s="6"/>
+      <c r="F802" s="6"/>
+    </row>
+    <row r="803" spans="5:6">
+      <c r="E803" s="6"/>
+      <c r="F803" s="6"/>
+    </row>
+    <row r="804" spans="5:6">
+      <c r="E804" s="6"/>
+      <c r="F804" s="6"/>
+    </row>
+    <row r="805" spans="5:6">
+      <c r="E805" s="6"/>
+      <c r="F805" s="6"/>
+    </row>
+    <row r="806" spans="5:6">
+      <c r="E806" s="6"/>
+      <c r="F806" s="6"/>
+    </row>
+    <row r="807" spans="5:6">
+      <c r="E807" s="6"/>
+      <c r="F807" s="6"/>
+    </row>
+    <row r="808" spans="5:6">
+      <c r="E808" s="6"/>
+      <c r="F808" s="6"/>
+    </row>
+    <row r="809" spans="5:6">
+      <c r="E809" s="6"/>
+      <c r="F809" s="6"/>
+    </row>
+    <row r="810" spans="5:6">
+      <c r="E810" s="6"/>
+      <c r="F810" s="6"/>
+    </row>
+    <row r="811" spans="5:6">
+      <c r="E811" s="6"/>
+      <c r="F811" s="6"/>
+    </row>
+    <row r="812" spans="5:6">
+      <c r="E812" s="6"/>
+      <c r="F812" s="6"/>
+    </row>
+    <row r="813" spans="5:6">
+      <c r="E813" s="6"/>
+      <c r="F813" s="6"/>
+    </row>
+    <row r="814" spans="5:6">
+      <c r="E814" s="6"/>
+      <c r="F814" s="6"/>
+    </row>
+    <row r="815" spans="5:6">
+      <c r="E815" s="6"/>
+      <c r="F815" s="6"/>
+    </row>
+    <row r="816" spans="5:6">
+      <c r="E816" s="6"/>
+      <c r="F816" s="6"/>
+    </row>
+    <row r="817" spans="5:6">
+      <c r="E817" s="6"/>
+      <c r="F817" s="6"/>
+    </row>
+    <row r="818" spans="5:6">
+      <c r="E818" s="6"/>
+      <c r="F818" s="6"/>
+    </row>
+    <row r="819" spans="5:6">
+      <c r="E819" s="6"/>
+      <c r="F819" s="6"/>
+    </row>
+    <row r="820" spans="5:6">
+      <c r="E820" s="6"/>
+      <c r="F820" s="6"/>
+    </row>
+    <row r="821" spans="5:6">
+      <c r="E821" s="6"/>
+      <c r="F821" s="6"/>
+    </row>
+    <row r="822" spans="5:6">
+      <c r="E822" s="6"/>
+      <c r="F822" s="6"/>
+    </row>
+    <row r="823" spans="5:6">
+      <c r="E823" s="6"/>
+      <c r="F823" s="6"/>
+    </row>
+    <row r="824" spans="5:6">
+      <c r="E824" s="6"/>
+      <c r="F824" s="6"/>
+    </row>
+    <row r="825" spans="5:6">
+      <c r="E825" s="6"/>
+      <c r="F825" s="6"/>
+    </row>
+    <row r="826" spans="5:6">
+      <c r="E826" s="6"/>
+      <c r="F826" s="6"/>
+    </row>
+    <row r="827" spans="5:6">
+      <c r="E827" s="6"/>
+      <c r="F827" s="6"/>
+    </row>
+    <row r="828" spans="5:6">
+      <c r="E828" s="6"/>
+      <c r="F828" s="6"/>
+    </row>
+    <row r="829" spans="5:6">
+      <c r="E829" s="6"/>
+      <c r="F829" s="6"/>
+    </row>
+    <row r="830" spans="5:6">
+      <c r="E830" s="6"/>
+      <c r="F830" s="6"/>
+    </row>
+    <row r="831" spans="5:6">
+      <c r="E831" s="6"/>
+      <c r="F831" s="6"/>
+    </row>
+    <row r="832" spans="5:6">
+      <c r="E832" s="6"/>
+      <c r="F832" s="6"/>
+    </row>
+    <row r="833" spans="5:6">
+      <c r="E833" s="6"/>
+      <c r="F833" s="6"/>
+    </row>
+    <row r="834" spans="5:6">
+      <c r="E834" s="6"/>
+      <c r="F834" s="6"/>
+    </row>
+    <row r="835" spans="5:6">
+      <c r="E835" s="6"/>
+      <c r="F835" s="6"/>
+    </row>
+    <row r="836" spans="5:6">
+      <c r="E836" s="6"/>
+      <c r="F836" s="6"/>
+    </row>
+    <row r="837" spans="5:6">
+      <c r="E837" s="6"/>
+      <c r="F837" s="6"/>
+    </row>
+    <row r="838" spans="5:6">
+      <c r="E838" s="6"/>
+      <c r="F838" s="6"/>
+    </row>
+    <row r="839" spans="5:6">
+      <c r="E839" s="6"/>
+      <c r="F839" s="6"/>
+    </row>
+    <row r="840" spans="5:6">
+      <c r="E840" s="6"/>
+      <c r="F840" s="6"/>
+    </row>
+    <row r="841" spans="5:6">
+      <c r="E841" s="6"/>
+      <c r="F841" s="6"/>
+    </row>
+    <row r="842" spans="5:6">
+      <c r="E842" s="6"/>
+      <c r="F842" s="6"/>
+    </row>
+    <row r="843" spans="5:6">
+      <c r="E843" s="6"/>
+      <c r="F843" s="6"/>
+    </row>
+    <row r="844" spans="5:6">
+      <c r="E844" s="6"/>
+      <c r="F844" s="6"/>
+    </row>
+    <row r="845" spans="5:6">
+      <c r="E845" s="6"/>
+      <c r="F845" s="6"/>
+    </row>
+    <row r="846" spans="5:6">
+      <c r="E846" s="6"/>
+      <c r="F846" s="6"/>
+    </row>
+    <row r="847" spans="5:6">
+      <c r="E847" s="6"/>
+      <c r="F847" s="6"/>
+    </row>
+    <row r="848" spans="5:6">
+      <c r="E848" s="6"/>
+      <c r="F848" s="6"/>
+    </row>
+    <row r="849" spans="5:6">
+      <c r="E849" s="6"/>
+      <c r="F849" s="6"/>
+    </row>
+    <row r="850" spans="5:6">
+      <c r="E850" s="6"/>
+      <c r="F850" s="6"/>
+    </row>
+    <row r="851" spans="5:6">
+      <c r="E851" s="6"/>
+      <c r="F851" s="6"/>
+    </row>
+    <row r="852" spans="5:6">
+      <c r="E852" s="6"/>
+      <c r="F852" s="6"/>
+    </row>
+    <row r="853" spans="5:6">
+      <c r="E853" s="6"/>
+      <c r="F853" s="6"/>
+    </row>
+    <row r="854" spans="5:6">
+      <c r="E854" s="6"/>
+      <c r="F854" s="6"/>
+    </row>
+    <row r="855" spans="5:6">
+      <c r="E855" s="6"/>
+      <c r="F855" s="6"/>
+    </row>
+    <row r="856" spans="5:6">
+      <c r="E856" s="6"/>
+      <c r="F856" s="6"/>
+    </row>
+    <row r="857" spans="5:6">
+      <c r="E857" s="6"/>
+      <c r="F857" s="6"/>
+    </row>
+    <row r="858" spans="5:6">
+      <c r="E858" s="6"/>
+      <c r="F858" s="6"/>
+    </row>
+    <row r="859" spans="5:6">
+      <c r="E859" s="6"/>
+      <c r="F859" s="6"/>
+    </row>
+    <row r="860" spans="5:6">
+      <c r="E860" s="6"/>
+      <c r="F860" s="6"/>
+    </row>
+    <row r="861" spans="5:6">
+      <c r="E861" s="6"/>
+      <c r="F861" s="6"/>
+    </row>
+    <row r="862" spans="5:6">
+      <c r="E862" s="6"/>
+      <c r="F862" s="6"/>
+    </row>
+    <row r="863" spans="5:6">
+      <c r="E863" s="6"/>
+      <c r="F863" s="6"/>
+    </row>
+    <row r="864" spans="5:6">
+      <c r="E864" s="6"/>
+      <c r="F864" s="6"/>
+    </row>
+    <row r="865" spans="5:6">
+      <c r="E865" s="6"/>
+      <c r="F865" s="6"/>
+    </row>
+    <row r="866" spans="5:6">
+      <c r="E866" s="6"/>
+      <c r="F866" s="6"/>
+    </row>
+    <row r="867" spans="5:6">
+      <c r="E867" s="6"/>
+      <c r="F867" s="6"/>
+    </row>
+    <row r="868" spans="5:6">
+      <c r="E868" s="6"/>
+      <c r="F868" s="6"/>
+    </row>
+    <row r="869" spans="5:6">
+      <c r="E869" s="6"/>
+      <c r="F869" s="6"/>
+    </row>
+    <row r="870" spans="5:6">
+      <c r="E870" s="6"/>
+      <c r="F870" s="6"/>
+    </row>
+    <row r="871" spans="5:6">
+      <c r="E871" s="6"/>
+      <c r="F871" s="6"/>
+    </row>
+    <row r="872" spans="5:6">
+      <c r="E872" s="6"/>
+      <c r="F872" s="6"/>
+    </row>
+    <row r="873" spans="5:6">
+      <c r="E873" s="6"/>
+      <c r="F873" s="6"/>
+    </row>
+    <row r="874" spans="5:6">
+      <c r="E874" s="6"/>
+      <c r="F874" s="6"/>
+    </row>
+    <row r="875" spans="5:6">
+      <c r="E875" s="6"/>
+      <c r="F875" s="6"/>
+    </row>
+    <row r="876" spans="5:6">
+      <c r="E876" s="6"/>
+      <c r="F876" s="6"/>
+    </row>
+    <row r="877" spans="5:6">
+      <c r="E877" s="6"/>
+      <c r="F877" s="6"/>
+    </row>
+    <row r="878" spans="5:6">
+      <c r="E878" s="6"/>
+      <c r="F878" s="6"/>
+    </row>
+    <row r="879" spans="5:6">
+      <c r="E879" s="6"/>
+      <c r="F879" s="6"/>
+    </row>
+    <row r="880" spans="5:6">
+      <c r="E880" s="6"/>
+      <c r="F880" s="6"/>
+    </row>
+    <row r="881" spans="5:6">
+      <c r="E881" s="6"/>
+      <c r="F881" s="6"/>
+    </row>
+    <row r="882" spans="5:6">
+      <c r="E882" s="6"/>
+      <c r="F882" s="6"/>
+    </row>
+    <row r="883" spans="5:6">
+      <c r="E883" s="6"/>
+      <c r="F883" s="6"/>
+    </row>
+    <row r="884" spans="5:6">
+      <c r="E884" s="6"/>
+      <c r="F884" s="6"/>
+    </row>
+    <row r="885" spans="5:6">
+      <c r="E885" s="6"/>
+      <c r="F885" s="6"/>
+    </row>
+    <row r="886" spans="5:6">
+      <c r="E886" s="6"/>
+      <c r="F886" s="6"/>
+    </row>
+    <row r="887" spans="5:6">
+      <c r="E887" s="6"/>
+      <c r="F887" s="6"/>
+    </row>
+    <row r="888" spans="5:6">
+      <c r="E888" s="6"/>
+      <c r="F888" s="6"/>
+    </row>
+    <row r="889" spans="5:6">
+      <c r="E889" s="6"/>
+      <c r="F889" s="6"/>
+    </row>
+    <row r="890" spans="5:6">
+      <c r="E890" s="6"/>
+      <c r="F890" s="6"/>
+    </row>
+    <row r="891" spans="5:6">
+      <c r="E891" s="6"/>
+      <c r="F891" s="6"/>
+    </row>
+    <row r="892" spans="5:6">
+      <c r="E892" s="6"/>
+      <c r="F892" s="6"/>
+    </row>
+    <row r="893" spans="5:6">
+      <c r="E893" s="6"/>
+      <c r="F893" s="6"/>
+    </row>
+    <row r="894" spans="5:6">
+      <c r="E894" s="6"/>
+      <c r="F894" s="6"/>
+    </row>
+    <row r="895" spans="5:6">
+      <c r="E895" s="6"/>
+      <c r="F895" s="6"/>
+    </row>
+    <row r="896" spans="5:6">
+      <c r="E896" s="6"/>
+      <c r="F896" s="6"/>
+    </row>
+    <row r="897" spans="5:6">
+      <c r="E897" s="6"/>
+      <c r="F897" s="6"/>
+    </row>
+    <row r="898" spans="5:6">
+      <c r="E898" s="6"/>
+      <c r="F898" s="6"/>
+    </row>
+    <row r="899" spans="5:6">
+      <c r="E899" s="6"/>
+      <c r="F899" s="6"/>
+    </row>
+    <row r="900" spans="5:6">
+      <c r="E900" s="6"/>
+      <c r="F900" s="6"/>
+    </row>
+    <row r="901" spans="5:6">
+      <c r="E901" s="6"/>
+      <c r="F901" s="6"/>
+    </row>
+    <row r="902" spans="5:6">
+      <c r="E902" s="6"/>
+      <c r="F902" s="6"/>
+    </row>
+    <row r="903" spans="5:6">
+      <c r="E903" s="6"/>
+      <c r="F903" s="6"/>
+    </row>
+    <row r="904" spans="5:6">
+      <c r="E904" s="6"/>
+      <c r="F904" s="6"/>
+    </row>
+    <row r="905" spans="5:6">
+      <c r="E905" s="6"/>
+      <c r="F905" s="6"/>
+    </row>
+    <row r="906" spans="5:6">
+      <c r="E906" s="6"/>
+      <c r="F906" s="6"/>
+    </row>
+    <row r="907" spans="5:6">
+      <c r="E907" s="6"/>
+      <c r="F907" s="6"/>
+    </row>
+    <row r="908" spans="5:6">
+      <c r="E908" s="6"/>
+      <c r="F908" s="6"/>
+    </row>
+    <row r="909" spans="5:6">
+      <c r="E909" s="6"/>
+      <c r="F909" s="6"/>
+    </row>
+    <row r="910" spans="5:6">
+      <c r="E910" s="6"/>
+      <c r="F910" s="6"/>
+    </row>
+    <row r="911" spans="5:6">
+      <c r="E911" s="6"/>
+      <c r="F911" s="6"/>
+    </row>
+    <row r="912" spans="5:6">
+      <c r="E912" s="6"/>
+      <c r="F912" s="6"/>
+    </row>
+    <row r="913" spans="5:6">
+      <c r="E913" s="6"/>
+      <c r="F913" s="6"/>
+    </row>
+    <row r="914" spans="5:6">
+      <c r="E914" s="6"/>
+      <c r="F914" s="6"/>
+    </row>
+    <row r="915" spans="5:6">
+      <c r="E915" s="6"/>
+      <c r="F915" s="6"/>
+    </row>
+    <row r="916" spans="5:6">
+      <c r="E916" s="6"/>
+      <c r="F916" s="6"/>
+    </row>
+    <row r="917" spans="5:6">
+      <c r="E917" s="6"/>
+      <c r="F917" s="6"/>
+    </row>
+    <row r="918" spans="5:6">
+      <c r="E918" s="6"/>
+      <c r="F918" s="6"/>
+    </row>
+    <row r="919" spans="5:6">
+      <c r="E919" s="6"/>
+      <c r="F919" s="6"/>
+    </row>
+    <row r="920" spans="5:6">
+      <c r="E920" s="6"/>
+      <c r="F920" s="6"/>
+    </row>
+    <row r="921" spans="5:6">
+      <c r="E921" s="6"/>
+      <c r="F921" s="6"/>
+    </row>
+    <row r="922" spans="5:6">
+      <c r="E922" s="6"/>
+      <c r="F922" s="6"/>
+    </row>
+    <row r="923" spans="5:6">
+      <c r="E923" s="6"/>
+      <c r="F923" s="6"/>
+    </row>
+    <row r="924" spans="5:6">
+      <c r="E924" s="6"/>
+      <c r="F924" s="6"/>
+    </row>
+    <row r="925" spans="5:6">
+      <c r="E925" s="6"/>
+      <c r="F925" s="6"/>
+    </row>
+    <row r="926" spans="5:6">
+      <c r="E926" s="6"/>
+      <c r="F926" s="6"/>
+    </row>
+    <row r="927" spans="5:6">
+      <c r="E927" s="6"/>
+      <c r="F927" s="6"/>
+    </row>
+    <row r="928" spans="5:6">
+      <c r="E928" s="6"/>
+      <c r="F928" s="6"/>
+    </row>
+    <row r="929" spans="5:6">
+      <c r="E929" s="6"/>
+      <c r="F929" s="6"/>
+    </row>
+    <row r="930" spans="5:6">
+      <c r="E930" s="6"/>
+      <c r="F930" s="6"/>
+    </row>
+    <row r="931" spans="5:6">
+      <c r="E931" s="6"/>
+      <c r="F931" s="6"/>
+    </row>
+    <row r="932" spans="5:6">
+      <c r="E932" s="6"/>
+      <c r="F932" s="6"/>
+    </row>
+    <row r="933" spans="5:6">
+      <c r="E933" s="6"/>
+      <c r="F933" s="6"/>
+    </row>
+    <row r="934" spans="5:6">
+      <c r="E934" s="6"/>
+      <c r="F934" s="6"/>
+    </row>
+    <row r="935" spans="5:6">
+      <c r="E935" s="6"/>
+      <c r="F935" s="6"/>
+    </row>
+    <row r="936" spans="5:6">
+      <c r="E936" s="6"/>
+      <c r="F936" s="6"/>
+    </row>
+    <row r="937" spans="5:6">
+      <c r="E937" s="6"/>
+      <c r="F937" s="6"/>
+    </row>
+    <row r="938" spans="5:6">
+      <c r="E938" s="6"/>
+      <c r="F938" s="6"/>
+    </row>
+    <row r="939" spans="5:6">
+      <c r="E939" s="6"/>
+      <c r="F939" s="6"/>
+    </row>
+    <row r="940" spans="5:6">
+      <c r="E940" s="6"/>
+      <c r="F940" s="6"/>
+    </row>
+    <row r="941" spans="5:6">
+      <c r="E941" s="6"/>
+      <c r="F941" s="6"/>
+    </row>
+    <row r="942" spans="5:6">
+      <c r="E942" s="6"/>
+      <c r="F942" s="6"/>
+    </row>
+    <row r="943" spans="5:6">
+      <c r="E943" s="6"/>
+      <c r="F943" s="6"/>
+    </row>
+    <row r="944" spans="5:6">
+      <c r="E944" s="6"/>
+      <c r="F944" s="6"/>
+    </row>
+    <row r="945" spans="5:6">
+      <c r="E945" s="6"/>
+      <c r="F945" s="6"/>
+    </row>
+    <row r="946" spans="5:6">
+      <c r="E946" s="6"/>
+      <c r="F946" s="6"/>
+    </row>
+    <row r="947" spans="5:6">
+      <c r="E947" s="6"/>
+      <c r="F947" s="6"/>
+    </row>
+    <row r="948" spans="5:6">
+      <c r="E948" s="6"/>
+      <c r="F948" s="6"/>
+    </row>
+    <row r="949" spans="5:6">
+      <c r="E949" s="6"/>
+      <c r="F949" s="6"/>
+    </row>
+    <row r="950" spans="5:6">
+      <c r="E950" s="6"/>
+      <c r="F950" s="6"/>
+    </row>
+    <row r="951" spans="5:6">
+      <c r="E951" s="6"/>
+      <c r="F951" s="6"/>
+    </row>
+    <row r="952" spans="5:6">
+      <c r="E952" s="6"/>
+      <c r="F952" s="6"/>
+    </row>
+    <row r="953" spans="5:6">
+      <c r="E953" s="6"/>
+      <c r="F953" s="6"/>
+    </row>
+    <row r="954" spans="5:6">
+      <c r="E954" s="6"/>
+      <c r="F954" s="6"/>
+    </row>
+    <row r="955" spans="5:6">
+      <c r="E955" s="6"/>
+      <c r="F955" s="6"/>
+    </row>
+    <row r="956" spans="5:6">
+      <c r="E956" s="6"/>
+      <c r="F956" s="6"/>
+    </row>
+    <row r="957" spans="5:6">
+      <c r="E957" s="6"/>
+      <c r="F957" s="6"/>
+    </row>
+    <row r="958" spans="5:6">
+      <c r="E958" s="6"/>
+      <c r="F958" s="6"/>
+    </row>
+    <row r="959" spans="5:6">
+      <c r="E959" s="6"/>
+      <c r="F959" s="6"/>
+    </row>
+    <row r="960" spans="5:6">
+      <c r="E960" s="6"/>
+      <c r="F960" s="6"/>
+    </row>
+    <row r="961" spans="5:6">
+      <c r="E961" s="6"/>
+      <c r="F961" s="6"/>
+    </row>
+    <row r="962" spans="5:6">
+      <c r="E962" s="6"/>
+      <c r="F962" s="6"/>
+    </row>
+    <row r="963" spans="5:6">
+      <c r="E963" s="6"/>
+      <c r="F963" s="6"/>
+    </row>
+    <row r="964" spans="5:6">
+      <c r="E964" s="6"/>
+      <c r="F964" s="6"/>
+    </row>
+    <row r="965" spans="5:6">
+      <c r="E965" s="6"/>
+      <c r="F965" s="6"/>
+    </row>
+    <row r="966" spans="5:6">
+      <c r="E966" s="6"/>
+      <c r="F966" s="6"/>
+    </row>
+    <row r="967" spans="5:6">
+      <c r="E967" s="6"/>
+      <c r="F967" s="6"/>
+    </row>
+    <row r="968" spans="5:6">
+      <c r="E968" s="6"/>
+      <c r="F968" s="6"/>
+    </row>
+    <row r="969" spans="5:6">
+      <c r="E969" s="6"/>
+      <c r="F969" s="6"/>
+    </row>
+    <row r="970" spans="5:6">
+      <c r="E970" s="6"/>
+      <c r="F970" s="6"/>
+    </row>
+    <row r="971" spans="5:6">
+      <c r="E971" s="6"/>
+      <c r="F971" s="6"/>
+    </row>
+    <row r="972" spans="5:6">
+      <c r="E972" s="6"/>
+      <c r="F972" s="6"/>
+    </row>
+    <row r="973" spans="5:6">
+      <c r="E973" s="6"/>
+      <c r="F973" s="6"/>
+    </row>
+    <row r="974" spans="5:6">
+      <c r="E974" s="6"/>
+      <c r="F974" s="6"/>
+    </row>
+    <row r="975" spans="5:6">
+      <c r="E975" s="6"/>
+      <c r="F975" s="6"/>
+    </row>
+    <row r="976" spans="5:6">
+      <c r="E976" s="6"/>
+      <c r="F976" s="6"/>
+    </row>
+    <row r="977" spans="5:6">
+      <c r="E977" s="6"/>
+      <c r="F977" s="6"/>
+    </row>
+    <row r="978" spans="5:6">
+      <c r="E978" s="6"/>
+      <c r="F978" s="6"/>
+    </row>
+    <row r="979" spans="5:6">
+      <c r="E979" s="6"/>
+      <c r="F979" s="6"/>
+    </row>
+    <row r="980" spans="5:6">
+      <c r="E980" s="6"/>
+      <c r="F980" s="6"/>
+    </row>
+    <row r="981" spans="5:6">
+      <c r="E981" s="6"/>
+      <c r="F981" s="6"/>
+    </row>
+    <row r="982" spans="5:6">
+      <c r="E982" s="6"/>
+      <c r="F982" s="6"/>
+    </row>
+    <row r="983" spans="5:6">
+      <c r="E983" s="6"/>
+      <c r="F983" s="6"/>
+    </row>
+    <row r="984" spans="5:6">
+      <c r="E984" s="6"/>
+      <c r="F984" s="6"/>
+    </row>
+    <row r="985" spans="5:6">
+      <c r="E985" s="6"/>
+      <c r="F985" s="6"/>
+    </row>
+    <row r="986" spans="5:6">
+      <c r="E986" s="6"/>
+      <c r="F986" s="6"/>
+    </row>
+    <row r="987" spans="5:6">
+      <c r="E987" s="6"/>
+      <c r="F987" s="6"/>
+    </row>
+    <row r="988" spans="5:6">
+      <c r="E988" s="6"/>
+      <c r="F988" s="6"/>
+    </row>
+    <row r="989" spans="5:6">
+      <c r="E989" s="6"/>
+      <c r="F989" s="6"/>
+    </row>
+    <row r="990" spans="5:6">
+      <c r="E990" s="6"/>
+      <c r="F990" s="6"/>
+    </row>
+    <row r="991" spans="5:6">
+      <c r="E991" s="6"/>
+      <c r="F991" s="6"/>
+    </row>
+    <row r="992" spans="5:6">
+      <c r="E992" s="6"/>
+      <c r="F992" s="6"/>
+    </row>
+    <row r="993" spans="5:6">
+      <c r="E993" s="6"/>
+      <c r="F993" s="6"/>
+    </row>
+    <row r="994" spans="5:6">
+      <c r="E994" s="6"/>
+      <c r="F994" s="6"/>
+    </row>
+    <row r="995" spans="5:6">
+      <c r="E995" s="6"/>
+      <c r="F995" s="6"/>
+    </row>
+    <row r="996" spans="5:6">
+      <c r="E996" s="6"/>
+      <c r="F996" s="6"/>
+    </row>
+    <row r="997" spans="5:6">
+      <c r="E997" s="6"/>
+      <c r="F997" s="6"/>
+    </row>
+    <row r="998" spans="5:6">
+      <c r="E998" s="6"/>
+      <c r="F998" s="6"/>
+    </row>
+    <row r="999" spans="5:6">
+      <c r="E999" s="6"/>
+      <c r="F999" s="6"/>
+    </row>
+    <row r="1000" spans="5:6">
+      <c r="E1000" s="6"/>
+      <c r="F1000" s="6"/>
+    </row>
+    <row r="1001" spans="5:6">
+      <c r="E1001" s="6"/>
+      <c r="F1001" s="6"/>
+    </row>
+    <row r="1002" spans="5:6">
+      <c r="E1002" s="6"/>
+      <c r="F1002" s="6"/>
+    </row>
+    <row r="1003" spans="5:6">
+      <c r="E1003" s="6"/>
+      <c r="F1003" s="6"/>
+    </row>
+    <row r="1004" spans="5:6">
+      <c r="E1004" s="6"/>
+      <c r="F1004" s="6"/>
+    </row>
+    <row r="1005" spans="5:6">
+      <c r="E1005" s="6"/>
+      <c r="F1005" s="6"/>
+    </row>
+    <row r="1006" spans="5:6">
+      <c r="E1006" s="6"/>
+      <c r="F1006" s="6"/>
+    </row>
+    <row r="1007" spans="5:6">
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="6"/>
+    </row>
+    <row r="1008" spans="5:6">
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="6"/>
+    </row>
+    <row r="1009" spans="5:6">
+      <c r="E1009" s="6"/>
+      <c r="F1009" s="6"/>
+    </row>
+    <row r="1010" spans="5:6">
+      <c r="E1010" s="6"/>
+      <c r="F1010" s="6"/>
+    </row>
+    <row r="1011" spans="5:6">
+      <c r="E1011" s="6"/>
+      <c r="F1011" s="6"/>
+    </row>
+    <row r="1012" spans="5:6">
+      <c r="E1012" s="6"/>
+      <c r="F1012" s="6"/>
+    </row>
+    <row r="1013" spans="5:6">
+      <c r="E1013" s="6"/>
+      <c r="F1013" s="6"/>
+    </row>
+    <row r="1014" spans="5:6">
+      <c r="E1014" s="6"/>
+      <c r="F1014" s="6"/>
+    </row>
+    <row r="1015" spans="5:6">
+      <c r="E1015" s="6"/>
+      <c r="F1015" s="6"/>
+    </row>
+    <row r="1016" spans="5:6">
+      <c r="E1016" s="6"/>
+      <c r="F1016" s="6"/>
+    </row>
+    <row r="1017" spans="5:6">
+      <c r="E1017" s="6"/>
+      <c r="F1017" s="6"/>
+    </row>
+    <row r="1018" spans="5:6">
+      <c r="E1018" s="6"/>
+      <c r="F1018" s="6"/>
+    </row>
+    <row r="1019" spans="5:6">
+      <c r="E1019" s="6"/>
+      <c r="F1019" s="6"/>
+    </row>
+    <row r="1020" spans="5:6">
+      <c r="E1020" s="6"/>
+      <c r="F1020" s="6"/>
+    </row>
+    <row r="1021" spans="5:6">
+      <c r="E1021" s="6"/>
+      <c r="F1021" s="6"/>
+    </row>
+    <row r="1022" spans="5:6">
+      <c r="E1022" s="6"/>
+      <c r="F1022" s="6"/>
+    </row>
+    <row r="1023" spans="5:6">
+      <c r="E1023" s="6"/>
+      <c r="F1023" s="6"/>
+    </row>
+    <row r="1024" spans="5:6">
+      <c r="E1024" s="6"/>
+      <c r="F1024" s="6"/>
+    </row>
+    <row r="1025" spans="5:6">
+      <c r="E1025" s="6"/>
+      <c r="F1025" s="6"/>
+    </row>
+    <row r="1026" spans="5:6">
+      <c r="E1026" s="6"/>
+      <c r="F1026" s="6"/>
+    </row>
+    <row r="1027" spans="5:6">
+      <c r="E1027" s="6"/>
+      <c r="F1027" s="6"/>
+    </row>
+    <row r="1028" spans="5:6">
+      <c r="E1028" s="6"/>
+      <c r="F1028" s="6"/>
+    </row>
+    <row r="1029" spans="5:6">
+      <c r="E1029" s="6"/>
+      <c r="F1029" s="6"/>
+    </row>
+    <row r="1030" spans="5:6">
+      <c r="E1030" s="6"/>
+      <c r="F1030" s="6"/>
+    </row>
+    <row r="1031" spans="5:6">
+      <c r="E1031" s="6"/>
+      <c r="F1031" s="6"/>
+    </row>
+    <row r="1032" spans="5:6">
+      <c r="E1032" s="6"/>
+      <c r="F1032" s="6"/>
+    </row>
+    <row r="1033" spans="5:6">
+      <c r="E1033" s="6"/>
+      <c r="F1033" s="6"/>
+    </row>
+    <row r="1034" spans="5:6">
+      <c r="E1034" s="6"/>
+      <c r="F1034" s="6"/>
+    </row>
+    <row r="1035" spans="5:6">
+      <c r="E1035" s="6"/>
+      <c r="F1035" s="6"/>
+    </row>
+    <row r="1036" spans="5:6">
+      <c r="E1036" s="6"/>
+      <c r="F1036" s="6"/>
+    </row>
+    <row r="1037" spans="5:6">
+      <c r="E1037" s="6"/>
+      <c r="F1037" s="6"/>
+    </row>
+    <row r="1038" spans="5:6">
+      <c r="E1038" s="6"/>
+      <c r="F1038" s="6"/>
+    </row>
+    <row r="1039" spans="5:6">
+      <c r="E1039" s="6"/>
+      <c r="F1039" s="6"/>
+    </row>
+    <row r="1040" spans="5:6">
+      <c r="E1040" s="6"/>
+      <c r="F1040" s="6"/>
+    </row>
+    <row r="1041" spans="5:6">
+      <c r="E1041" s="6"/>
+      <c r="F1041" s="6"/>
+    </row>
+    <row r="1042" spans="5:6">
+      <c r="E1042" s="6"/>
+      <c r="F1042" s="6"/>
+    </row>
+    <row r="1043" spans="5:6">
+      <c r="E1043" s="6"/>
+      <c r="F1043" s="6"/>
+    </row>
+    <row r="1044" spans="5:6">
+      <c r="E1044" s="6"/>
+      <c r="F1044" s="6"/>
+    </row>
+    <row r="1045" spans="5:6">
+      <c r="E1045" s="6"/>
+      <c r="F1045" s="6"/>
+    </row>
+    <row r="1046" spans="5:6">
+      <c r="E1046" s="6"/>
+      <c r="F1046" s="6"/>
+    </row>
+    <row r="1047" spans="5:6">
+      <c r="E1047" s="6"/>
+      <c r="F1047" s="6"/>
+    </row>
+    <row r="1048" spans="5:6">
+      <c r="E1048" s="6"/>
+      <c r="F1048" s="6"/>
+    </row>
+    <row r="1049" spans="5:6">
+      <c r="E1049" s="6"/>
+      <c r="F1049" s="6"/>
+    </row>
+    <row r="1050" spans="5:6">
+      <c r="E1050" s="6"/>
+      <c r="F1050" s="6"/>
+    </row>
+    <row r="1051" spans="5:6">
+      <c r="E1051" s="6"/>
+      <c r="F1051" s="6"/>
+    </row>
+    <row r="1052" spans="5:6">
+      <c r="E1052" s="6"/>
+      <c r="F1052" s="6"/>
+    </row>
+    <row r="1053" spans="5:6">
+      <c r="E1053" s="6"/>
+      <c r="F1053" s="6"/>
+    </row>
+    <row r="1054" spans="5:6">
+      <c r="E1054" s="6"/>
+      <c r="F1054" s="6"/>
+    </row>
+    <row r="1055" spans="5:6">
+      <c r="E1055" s="6"/>
+      <c r="F1055" s="6"/>
+    </row>
+    <row r="1056" spans="5:6">
+      <c r="E1056" s="6"/>
+      <c r="F1056" s="6"/>
+    </row>
+    <row r="1057" spans="5:6">
+      <c r="E1057" s="6"/>
+      <c r="F1057" s="6"/>
+    </row>
+    <row r="1058" spans="5:6">
+      <c r="E1058" s="6"/>
+      <c r="F1058" s="6"/>
+    </row>
+    <row r="1059" spans="5:6">
+      <c r="E1059" s="6"/>
+      <c r="F1059" s="6"/>
+    </row>
+    <row r="1060" spans="5:6">
+      <c r="E1060" s="6"/>
+      <c r="F1060" s="6"/>
+    </row>
+    <row r="1061" spans="5:6">
+      <c r="E1061" s="6"/>
+      <c r="F1061" s="6"/>
+    </row>
+    <row r="1062" spans="5:6">
+      <c r="E1062" s="6"/>
+      <c r="F1062" s="6"/>
+    </row>
+    <row r="1063" spans="5:6">
+      <c r="E1063" s="6"/>
+      <c r="F1063" s="6"/>
+    </row>
+    <row r="1064" spans="5:6">
+      <c r="E1064" s="6"/>
+      <c r="F1064" s="6"/>
+    </row>
+    <row r="1065" spans="5:6">
+      <c r="E1065" s="6"/>
+      <c r="F1065" s="6"/>
+    </row>
+    <row r="1066" spans="5:6">
+      <c r="E1066" s="6"/>
+      <c r="F1066" s="6"/>
+    </row>
+    <row r="1067" spans="5:6">
+      <c r="E1067" s="6"/>
+      <c r="F1067" s="6"/>
+    </row>
+    <row r="1068" spans="5:6">
+      <c r="E1068" s="6"/>
+      <c r="F1068" s="6"/>
+    </row>
+    <row r="1069" spans="5:6">
+      <c r="E1069" s="6"/>
+      <c r="F1069" s="6"/>
+    </row>
+    <row r="1070" spans="5:6">
+      <c r="E1070" s="6"/>
+      <c r="F1070" s="6"/>
+    </row>
+    <row r="1071" spans="5:6">
+      <c r="E1071" s="6"/>
+      <c r="F1071" s="6"/>
+    </row>
+    <row r="1072" spans="5:6">
+      <c r="E1072" s="6"/>
+      <c r="F1072" s="6"/>
+    </row>
+    <row r="1073" spans="5:6">
+      <c r="E1073" s="6"/>
+      <c r="F1073" s="6"/>
+    </row>
+    <row r="1074" spans="5:6">
+      <c r="E1074" s="6"/>
+      <c r="F1074" s="6"/>
+    </row>
+    <row r="1075" spans="5:6">
+      <c r="E1075" s="6"/>
+      <c r="F1075" s="6"/>
+    </row>
+    <row r="1076" spans="5:6">
+      <c r="E1076" s="6"/>
+      <c r="F1076" s="6"/>
+    </row>
+    <row r="1077" spans="5:6">
+      <c r="E1077" s="6"/>
+      <c r="F1077" s="6"/>
+    </row>
+    <row r="1078" spans="5:6">
+      <c r="E1078" s="6"/>
+      <c r="F1078" s="6"/>
+    </row>
+    <row r="1079" spans="5:6">
+      <c r="E1079" s="6"/>
+      <c r="F1079" s="6"/>
+    </row>
+    <row r="1080" spans="5:6">
+      <c r="E1080" s="6"/>
+      <c r="F1080" s="6"/>
+    </row>
+    <row r="1081" spans="5:6">
+      <c r="E1081" s="6"/>
+      <c r="F1081" s="6"/>
+    </row>
+    <row r="1082" spans="5:6">
+      <c r="E1082" s="6"/>
+      <c r="F1082" s="6"/>
+    </row>
+    <row r="1083" spans="5:6">
+      <c r="E1083" s="6"/>
+      <c r="F1083" s="6"/>
+    </row>
+    <row r="1084" spans="5:6">
+      <c r="E1084" s="6"/>
+      <c r="F1084" s="6"/>
+    </row>
+    <row r="1085" spans="5:6">
+      <c r="E1085" s="6"/>
+      <c r="F1085" s="6"/>
+    </row>
+    <row r="1086" spans="5:6">
+      <c r="E1086" s="6"/>
+      <c r="F1086" s="6"/>
+    </row>
+    <row r="1087" spans="5:6">
+      <c r="E1087" s="6"/>
+      <c r="F1087" s="6"/>
+    </row>
+    <row r="1088" spans="5:6">
+      <c r="E1088" s="6"/>
+      <c r="F1088" s="6"/>
+    </row>
+    <row r="1089" spans="5:6">
+      <c r="E1089" s="6"/>
+      <c r="F1089" s="6"/>
+    </row>
+    <row r="1090" spans="5:6">
+      <c r="E1090" s="6"/>
+      <c r="F1090" s="6"/>
+    </row>
+    <row r="1091" spans="5:6">
+      <c r="E1091" s="6"/>
+      <c r="F1091" s="6"/>
+    </row>
+    <row r="1092" spans="5:6">
+      <c r="E1092" s="6"/>
+      <c r="F1092" s="6"/>
+    </row>
+    <row r="1093" spans="5:6">
+      <c r="E1093" s="6"/>
+      <c r="F1093" s="6"/>
+    </row>
+    <row r="1094" spans="5:6">
+      <c r="E1094" s="6"/>
+      <c r="F1094" s="6"/>
+    </row>
+    <row r="1095" spans="5:6">
+      <c r="E1095" s="6"/>
+      <c r="F1095" s="6"/>
+    </row>
+    <row r="1096" spans="5:6">
+      <c r="E1096" s="6"/>
+      <c r="F1096" s="6"/>
+    </row>
+    <row r="1097" spans="5:6">
+      <c r="E1097" s="6"/>
+      <c r="F1097" s="6"/>
+    </row>
+    <row r="1098" spans="5:6">
+      <c r="E1098" s="6"/>
+      <c r="F1098" s="6"/>
+    </row>
+    <row r="1099" spans="5:6">
+      <c r="E1099" s="6"/>
+      <c r="F1099" s="6"/>
+    </row>
+    <row r="1100" spans="5:6">
+      <c r="E1100" s="6"/>
+      <c r="F1100" s="6"/>
+    </row>
+    <row r="1101" spans="5:6">
+      <c r="E1101" s="6"/>
+      <c r="F1101" s="6"/>
+    </row>
+    <row r="1102" spans="5:6">
+      <c r="E1102" s="6"/>
+      <c r="F1102" s="6"/>
+    </row>
+    <row r="1103" spans="5:6">
+      <c r="E1103" s="6"/>
+      <c r="F1103" s="6"/>
+    </row>
+    <row r="1104" spans="5:6">
+      <c r="E1104" s="6"/>
+      <c r="F1104" s="6"/>
+    </row>
+    <row r="1105" spans="5:6">
+      <c r="E1105" s="6"/>
+      <c r="F1105" s="6"/>
+    </row>
+    <row r="1106" spans="5:6">
+      <c r="E1106" s="6"/>
+      <c r="F1106" s="6"/>
+    </row>
+    <row r="1107" spans="5:6">
+      <c r="E1107" s="6"/>
+      <c r="F1107" s="6"/>
+    </row>
+    <row r="1108" spans="5:6">
+      <c r="E1108" s="6"/>
+      <c r="F1108" s="6"/>
+    </row>
+    <row r="1109" spans="5:6">
+      <c r="E1109" s="6"/>
+      <c r="F1109" s="6"/>
+    </row>
+    <row r="1110" spans="5:6">
+      <c r="E1110" s="6"/>
+      <c r="F1110" s="6"/>
+    </row>
+    <row r="1111" spans="5:6">
+      <c r="E1111" s="6"/>
+      <c r="F1111" s="6"/>
+    </row>
+    <row r="1112" spans="5:6">
+      <c r="E1112" s="6"/>
+      <c r="F1112" s="6"/>
+    </row>
+    <row r="1113" spans="5:6">
+      <c r="E1113" s="6"/>
+      <c r="F1113" s="6"/>
+    </row>
+    <row r="1114" spans="5:6">
+      <c r="E1114" s="6"/>
+      <c r="F1114" s="6"/>
+    </row>
+    <row r="1115" spans="5:6">
+      <c r="E1115" s="6"/>
+      <c r="F1115" s="6"/>
+    </row>
+    <row r="1116" spans="5:6">
+      <c r="E1116" s="6"/>
+      <c r="F1116" s="6"/>
+    </row>
+    <row r="1117" spans="5:6">
+      <c r="E1117" s="6"/>
+      <c r="F1117" s="6"/>
+    </row>
+    <row r="1118" spans="5:6">
+      <c r="E1118" s="6"/>
+      <c r="F1118" s="6"/>
+    </row>
+    <row r="1119" spans="5:6">
+      <c r="E1119" s="6"/>
+      <c r="F1119" s="6"/>
+    </row>
+    <row r="1120" spans="5:6">
+      <c r="E1120" s="6"/>
+      <c r="F1120" s="6"/>
+    </row>
+    <row r="1121" spans="5:6">
+      <c r="E1121" s="6"/>
+      <c r="F1121" s="6"/>
+    </row>
+    <row r="1122" spans="5:6">
+      <c r="E1122" s="6"/>
+      <c r="F1122" s="6"/>
+    </row>
+    <row r="1123" spans="5:6">
+      <c r="E1123" s="6"/>
+      <c r="F1123" s="6"/>
+    </row>
+    <row r="1124" spans="5:6">
+      <c r="E1124" s="6"/>
+      <c r="F1124" s="6"/>
+    </row>
+    <row r="1125" spans="5:6">
+      <c r="E1125" s="6"/>
+      <c r="F1125" s="6"/>
+    </row>
+    <row r="1126" spans="5:6">
+      <c r="E1126" s="6"/>
+      <c r="F1126" s="6"/>
+    </row>
+    <row r="1127" spans="5:6">
+      <c r="E1127" s="6"/>
+      <c r="F1127" s="6"/>
+    </row>
+    <row r="1128" spans="5:6">
+      <c r="E1128" s="6"/>
+      <c r="F1128" s="6"/>
+    </row>
+    <row r="1129" spans="5:6">
+      <c r="E1129" s="6"/>
+      <c r="F1129" s="6"/>
+    </row>
+    <row r="1130" spans="5:6">
+      <c r="E1130" s="6"/>
+      <c r="F1130" s="6"/>
+    </row>
+    <row r="1131" spans="5:6">
+      <c r="E1131" s="6"/>
+      <c r="F1131" s="6"/>
+    </row>
+    <row r="1132" spans="5:6">
+      <c r="E1132" s="6"/>
+      <c r="F1132" s="6"/>
+    </row>
+    <row r="1133" spans="5:6">
+      <c r="E1133" s="6"/>
+      <c r="F1133" s="6"/>
+    </row>
+    <row r="1134" spans="5:6">
+      <c r="E1134" s="6"/>
+      <c r="F1134" s="6"/>
+    </row>
+    <row r="1135" spans="5:6">
+      <c r="E1135" s="6"/>
+      <c r="F1135" s="6"/>
+    </row>
+    <row r="1136" spans="5:6">
+      <c r="E1136" s="6"/>
+      <c r="F1136" s="6"/>
+    </row>
+    <row r="1137" spans="5:6">
+      <c r="E1137" s="6"/>
+      <c r="F1137" s="6"/>
+    </row>
+    <row r="1138" spans="5:6">
+      <c r="E1138" s="6"/>
+      <c r="F1138" s="6"/>
+    </row>
+    <row r="1139" spans="5:6">
+      <c r="E1139" s="6"/>
+      <c r="F1139" s="6"/>
+    </row>
+    <row r="1140" spans="5:6">
+      <c r="E1140" s="6"/>
+      <c r="F1140" s="6"/>
+    </row>
+    <row r="1141" spans="5:6">
+      <c r="E1141" s="6"/>
+      <c r="F1141" s="6"/>
+    </row>
+    <row r="1142" spans="5:6">
+      <c r="E1142" s="6"/>
+      <c r="F1142" s="6"/>
+    </row>
+    <row r="1143" spans="5:6">
+      <c r="E1143" s="6"/>
+      <c r="F1143" s="6"/>
+    </row>
+    <row r="1144" spans="5:6">
+      <c r="E1144" s="6"/>
+      <c r="F1144" s="6"/>
+    </row>
+    <row r="1145" spans="5:6">
+      <c r="E1145" s="6"/>
+      <c r="F1145" s="6"/>
+    </row>
+    <row r="1146" spans="5:6">
+      <c r="E1146" s="6"/>
+      <c r="F1146" s="6"/>
+    </row>
+    <row r="1147" spans="5:6">
+      <c r="E1147" s="6"/>
+      <c r="F1147" s="6"/>
+    </row>
+    <row r="1148" spans="5:6">
+      <c r="E1148" s="6"/>
+      <c r="F1148" s="6"/>
+    </row>
+    <row r="1149" spans="5:6">
+      <c r="E1149" s="6"/>
+      <c r="F1149" s="6"/>
+    </row>
+    <row r="1150" spans="5:6">
+      <c r="E1150" s="6"/>
+      <c r="F1150" s="6"/>
+    </row>
+    <row r="1151" spans="5:6">
+      <c r="E1151" s="6"/>
+      <c r="F1151" s="6"/>
+    </row>
+    <row r="1152" spans="5:6">
+      <c r="E1152" s="6"/>
+      <c r="F1152" s="6"/>
+    </row>
+    <row r="1153" spans="5:6">
+      <c r="E1153" s="6"/>
+      <c r="F1153" s="6"/>
+    </row>
+    <row r="1154" spans="5:6">
+      <c r="E1154" s="6"/>
+      <c r="F1154" s="6"/>
+    </row>
+    <row r="1155" spans="5:6">
+      <c r="E1155" s="6"/>
+      <c r="F1155" s="6"/>
+    </row>
+    <row r="1156" spans="5:6">
+      <c r="E1156" s="6"/>
+      <c r="F1156" s="6"/>
+    </row>
+    <row r="1157" spans="5:6">
+      <c r="E1157" s="6"/>
+      <c r="F1157" s="6"/>
+    </row>
+    <row r="1158" spans="5:6">
+      <c r="E1158" s="6"/>
+      <c r="F1158" s="6"/>
+    </row>
+    <row r="1159" spans="5:6">
+      <c r="E1159" s="6"/>
+      <c r="F1159" s="6"/>
+    </row>
+    <row r="1160" spans="5:6">
+      <c r="E1160" s="6"/>
+      <c r="F1160" s="6"/>
+    </row>
+    <row r="1161" spans="5:6">
+      <c r="E1161" s="6"/>
+      <c r="F1161" s="6"/>
+    </row>
+    <row r="1162" spans="5:6">
+      <c r="E1162" s="6"/>
+      <c r="F1162" s="6"/>
+    </row>
+    <row r="1163" spans="5:6">
+      <c r="E1163" s="6"/>
+      <c r="F1163" s="6"/>
+    </row>
+    <row r="1164" spans="5:6">
+      <c r="E1164" s="6"/>
+      <c r="F1164" s="6"/>
+    </row>
+    <row r="1165" spans="5:6">
+      <c r="E1165" s="6"/>
+      <c r="F1165" s="6"/>
+    </row>
+    <row r="1166" spans="5:6">
+      <c r="E1166" s="6"/>
+      <c r="F1166" s="6"/>
+    </row>
+    <row r="1167" spans="5:6">
+      <c r="E1167" s="6"/>
+      <c r="F1167" s="6"/>
+    </row>
+    <row r="1168" spans="5:6">
+      <c r="E1168" s="6"/>
+      <c r="F1168" s="6"/>
+    </row>
+    <row r="1169" spans="5:6">
+      <c r="E1169" s="6"/>
+      <c r="F1169" s="6"/>
+    </row>
+    <row r="1170" spans="5:6">
+      <c r="E1170" s="6"/>
+      <c r="F1170" s="6"/>
+    </row>
+    <row r="1171" spans="5:6">
+      <c r="E1171" s="6"/>
+      <c r="F1171" s="6"/>
+    </row>
+    <row r="1172" spans="5:6">
+      <c r="E1172" s="6"/>
+      <c r="F1172" s="6"/>
+    </row>
+    <row r="1173" spans="5:6">
+      <c r="E1173" s="6"/>
+      <c r="F1173" s="6"/>
+    </row>
+    <row r="1174" spans="5:6">
+      <c r="E1174" s="6"/>
+      <c r="F1174" s="6"/>
+    </row>
+    <row r="1175" spans="5:6">
+      <c r="E1175" s="6"/>
+      <c r="F1175" s="6"/>
+    </row>
+    <row r="1176" spans="5:6">
+      <c r="E1176" s="6"/>
+      <c r="F1176" s="6"/>
+    </row>
+    <row r="1177" spans="5:6">
+      <c r="E1177" s="6"/>
+      <c r="F1177" s="6"/>
+    </row>
+    <row r="1178" spans="5:6">
+      <c r="E1178" s="6"/>
+      <c r="F1178" s="6"/>
+    </row>
+    <row r="1179" spans="5:6">
+      <c r="E1179" s="6"/>
+      <c r="F1179" s="6"/>
+    </row>
+    <row r="1180" spans="5:6">
+      <c r="E1180" s="6"/>
+      <c r="F1180" s="6"/>
+    </row>
+    <row r="1181" spans="5:6">
+      <c r="E1181" s="6"/>
+      <c r="F1181" s="6"/>
+    </row>
+    <row r="1182" spans="5:6">
+      <c r="E1182" s="6"/>
+      <c r="F1182" s="6"/>
+    </row>
+    <row r="1183" spans="5:6">
+      <c r="E1183" s="6"/>
+      <c r="F1183" s="6"/>
+    </row>
+    <row r="1184" spans="5:6">
+      <c r="E1184" s="6"/>
+      <c r="F1184" s="6"/>
+    </row>
+    <row r="1185" spans="5:6">
+      <c r="E1185" s="6"/>
+      <c r="F1185" s="6"/>
+    </row>
+    <row r="1186" spans="5:6">
+      <c r="E1186" s="6"/>
+      <c r="F1186" s="6"/>
+    </row>
+    <row r="1187" spans="5:6">
+      <c r="E1187" s="6"/>
+      <c r="F1187" s="6"/>
+    </row>
+    <row r="1188" spans="5:6">
+      <c r="E1188" s="6"/>
+      <c r="F1188" s="6"/>
+    </row>
+    <row r="1189" spans="5:6">
+      <c r="E1189" s="6"/>
+      <c r="F1189" s="6"/>
+    </row>
+    <row r="1190" spans="5:6">
+      <c r="E1190" s="6"/>
+      <c r="F1190" s="6"/>
+    </row>
+    <row r="1191" spans="5:6">
+      <c r="E1191" s="6"/>
+      <c r="F1191" s="6"/>
+    </row>
+    <row r="1192" spans="5:6">
+      <c r="E1192" s="6"/>
+      <c r="F1192" s="6"/>
+    </row>
+    <row r="1193" spans="5:6">
+      <c r="E1193" s="6"/>
+      <c r="F1193" s="6"/>
+    </row>
+    <row r="1194" spans="5:6">
+      <c r="E1194" s="6"/>
+      <c r="F1194" s="6"/>
+    </row>
+    <row r="1195" spans="5:6">
+      <c r="E1195" s="6"/>
+      <c r="F1195" s="6"/>
+    </row>
+    <row r="1196" spans="5:6">
+      <c r="E1196" s="6"/>
+      <c r="F1196" s="6"/>
+    </row>
+    <row r="1197" spans="5:6">
+      <c r="E1197" s="6"/>
+      <c r="F1197" s="6"/>
+    </row>
+    <row r="1198" spans="5:6">
+      <c r="E1198" s="6"/>
+      <c r="F1198" s="6"/>
+    </row>
+    <row r="1199" spans="5:6">
+      <c r="E1199" s="6"/>
+      <c r="F1199" s="6"/>
+    </row>
+    <row r="1200" spans="5:6">
+      <c r="E1200" s="6"/>
+      <c r="F1200" s="6"/>
+    </row>
+    <row r="1201" spans="5:6">
+      <c r="E1201" s="6"/>
+      <c r="F1201" s="6"/>
+    </row>
+    <row r="1202" spans="5:6">
+      <c r="E1202" s="6"/>
+      <c r="F1202" s="6"/>
+    </row>
+    <row r="1203" spans="5:6">
+      <c r="E1203" s="6"/>
+      <c r="F1203" s="6"/>
+    </row>
+    <row r="1204" spans="5:6">
+      <c r="E1204" s="6"/>
+      <c r="F1204" s="6"/>
+    </row>
+    <row r="1205" spans="5:6">
+      <c r="E1205" s="6"/>
+      <c r="F1205" s="6"/>
+    </row>
+    <row r="1206" spans="5:6">
+      <c r="E1206" s="6"/>
+      <c r="F1206" s="6"/>
+    </row>
+    <row r="1207" spans="5:6">
+      <c r="E1207" s="6"/>
+      <c r="F1207" s="6"/>
+    </row>
+    <row r="1208" spans="5:6">
+      <c r="E1208" s="6"/>
+      <c r="F1208" s="6"/>
+    </row>
+    <row r="1209" spans="5:6">
+      <c r="E1209" s="6"/>
+      <c r="F1209" s="6"/>
+    </row>
+    <row r="1210" spans="5:6">
+      <c r="E1210" s="6"/>
+      <c r="F1210" s="6"/>
+    </row>
+    <row r="1211" spans="5:6">
+      <c r="E1211" s="6"/>
+      <c r="F1211" s="6"/>
+    </row>
+    <row r="1212" spans="5:6">
+      <c r="E1212" s="6"/>
+      <c r="F1212" s="6"/>
+    </row>
+    <row r="1213" spans="5:6">
+      <c r="E1213" s="6"/>
+      <c r="F1213" s="6"/>
+    </row>
+    <row r="1214" spans="5:6">
+      <c r="E1214" s="6"/>
+      <c r="F1214" s="6"/>
+    </row>
+    <row r="1215" spans="5:6">
+      <c r="E1215" s="6"/>
+      <c r="F1215" s="6"/>
+    </row>
+    <row r="1216" spans="5:6">
+      <c r="E1216" s="6"/>
+      <c r="F1216" s="6"/>
+    </row>
+    <row r="1217" spans="5:6">
+      <c r="E1217" s="6"/>
+      <c r="F1217" s="6"/>
+    </row>
+    <row r="1218" spans="5:6">
+      <c r="E1218" s="6"/>
+      <c r="F1218" s="6"/>
+    </row>
+    <row r="1219" spans="5:6">
+      <c r="E1219" s="6"/>
+      <c r="F1219" s="6"/>
+    </row>
+    <row r="1220" spans="5:6">
+      <c r="E1220" s="6"/>
+      <c r="F1220" s="6"/>
+    </row>
+    <row r="1221" spans="5:6">
+      <c r="E1221" s="6"/>
+      <c r="F1221" s="6"/>
+    </row>
+    <row r="1222" spans="5:6">
+      <c r="E1222" s="6"/>
+      <c r="F1222" s="6"/>
+    </row>
+    <row r="1223" spans="5:6">
+      <c r="E1223" s="6"/>
+      <c r="F1223" s="6"/>
+    </row>
+    <row r="1224" spans="5:6">
+      <c r="E1224" s="6"/>
+      <c r="F1224" s="6"/>
+    </row>
+    <row r="1225" spans="5:6">
+      <c r="E1225" s="6"/>
+      <c r="F1225" s="6"/>
+    </row>
+    <row r="1226" spans="5:6">
+      <c r="E1226" s="6"/>
+      <c r="F1226" s="6"/>
+    </row>
+    <row r="1227" spans="5:6">
+      <c r="E1227" s="6"/>
+      <c r="F1227" s="6"/>
+    </row>
+    <row r="1228" spans="5:6">
+      <c r="E1228" s="6"/>
+      <c r="F1228" s="6"/>
+    </row>
+    <row r="1229" spans="5:6">
+      <c r="E1229" s="6"/>
+      <c r="F1229" s="6"/>
+    </row>
+    <row r="1230" spans="5:6">
+      <c r="E1230" s="6"/>
+      <c r="F1230" s="6"/>
+    </row>
+    <row r="1231" spans="5:6">
+      <c r="E1231" s="6"/>
+      <c r="F1231" s="6"/>
+    </row>
+    <row r="1232" spans="5:6">
+      <c r="E1232" s="6"/>
+      <c r="F1232" s="6"/>
+    </row>
+    <row r="1233" spans="5:6">
+      <c r="E1233" s="6"/>
+      <c r="F1233" s="6"/>
+    </row>
+    <row r="1234" spans="5:6">
+      <c r="E1234" s="6"/>
+      <c r="F1234" s="6"/>
+    </row>
+    <row r="1235" spans="5:6">
+      <c r="E1235" s="6"/>
+      <c r="F1235" s="6"/>
+    </row>
+    <row r="1236" spans="5:6">
+      <c r="E1236" s="6"/>
+      <c r="F1236" s="6"/>
+    </row>
+    <row r="1237" spans="5:6">
+      <c r="E1237" s="6"/>
+      <c r="F1237" s="6"/>
+    </row>
+    <row r="1238" spans="5:6">
+      <c r="E1238" s="6"/>
+      <c r="F1238" s="6"/>
+    </row>
+    <row r="1239" spans="5:6">
+      <c r="E1239" s="6"/>
+      <c r="F1239" s="6"/>
+    </row>
+    <row r="1240" spans="5:6">
+      <c r="E1240" s="6"/>
+      <c r="F1240" s="6"/>
+    </row>
+    <row r="1241" spans="5:6">
+      <c r="E1241" s="6"/>
+      <c r="F1241" s="6"/>
+    </row>
+    <row r="1242" spans="5:6">
+      <c r="E1242" s="6"/>
+      <c r="F1242" s="6"/>
+    </row>
+    <row r="1243" spans="5:6">
+      <c r="E1243" s="6"/>
+      <c r="F1243" s="6"/>
+    </row>
+    <row r="1244" spans="5:6">
+      <c r="E1244" s="6"/>
+      <c r="F1244" s="6"/>
+    </row>
+    <row r="1245" spans="5:6">
+      <c r="E1245" s="6"/>
+      <c r="F1245" s="6"/>
+    </row>
+    <row r="1246" spans="5:6">
+      <c r="E1246" s="6"/>
+      <c r="F1246" s="6"/>
+    </row>
+    <row r="1247" spans="5:6">
+      <c r="E1247" s="6"/>
+      <c r="F1247" s="6"/>
+    </row>
+    <row r="1248" spans="5:6">
+      <c r="E1248" s="6"/>
+      <c r="F1248" s="6"/>
+    </row>
+    <row r="1249" spans="5:6">
+      <c r="E1249" s="6"/>
+      <c r="F1249" s="6"/>
+    </row>
+    <row r="1250" spans="5:6">
+      <c r="E1250" s="6"/>
+      <c r="F1250" s="6"/>
+    </row>
+    <row r="1251" spans="5:6">
+      <c r="E1251" s="6"/>
+      <c r="F1251" s="6"/>
+    </row>
+    <row r="1252" spans="5:6">
+      <c r="E1252" s="6"/>
+      <c r="F1252" s="6"/>
+    </row>
+    <row r="1253" spans="5:6">
+      <c r="E1253" s="6"/>
+      <c r="F1253" s="6"/>
+    </row>
+    <row r="1254" spans="5:6">
+      <c r="E1254" s="6"/>
+      <c r="F1254" s="6"/>
+    </row>
+    <row r="1255" spans="5:6">
+      <c r="E1255" s="6"/>
+      <c r="F1255" s="6"/>
+    </row>
+    <row r="1256" spans="5:6">
+      <c r="E1256" s="6"/>
+      <c r="F1256" s="6"/>
+    </row>
+    <row r="1257" spans="5:6">
+      <c r="E1257" s="6"/>
+      <c r="F1257" s="6"/>
+    </row>
+    <row r="1258" spans="5:6">
+      <c r="E1258" s="6"/>
+      <c r="F1258" s="6"/>
+    </row>
+    <row r="1259" spans="5:6">
+      <c r="E1259" s="6"/>
+      <c r="F1259" s="6"/>
+    </row>
+    <row r="1260" spans="5:6">
+      <c r="E1260" s="6"/>
+      <c r="F1260" s="6"/>
+    </row>
+    <row r="1261" spans="5:6">
+      <c r="E1261" s="6"/>
+      <c r="F1261" s="6"/>
+    </row>
+    <row r="1262" spans="5:6">
+      <c r="E1262" s="6"/>
+      <c r="F1262" s="6"/>
+    </row>
+    <row r="1263" spans="5:6">
+      <c r="E1263" s="6"/>
+      <c r="F1263" s="6"/>
+    </row>
+    <row r="1264" spans="5:6">
+      <c r="E1264" s="6"/>
+      <c r="F1264" s="6"/>
+    </row>
+    <row r="1265" spans="5:6">
+      <c r="E1265" s="6"/>
+      <c r="F1265" s="6"/>
+    </row>
+    <row r="1266" spans="5:6">
+      <c r="E1266" s="6"/>
+      <c r="F1266" s="6"/>
+    </row>
+    <row r="1267" spans="5:6">
+      <c r="E1267" s="6"/>
+      <c r="F1267" s="6"/>
+    </row>
+    <row r="1268" spans="5:6">
+      <c r="E1268" s="6"/>
+      <c r="F1268" s="6"/>
+    </row>
+    <row r="1269" spans="5:6">
+      <c r="E1269" s="6"/>
+      <c r="F1269" s="6"/>
+    </row>
+    <row r="1270" spans="5:6">
+      <c r="E1270" s="6"/>
+      <c r="F1270" s="6"/>
+    </row>
+    <row r="1271" spans="5:6">
+      <c r="E1271" s="6"/>
+      <c r="F1271" s="6"/>
+    </row>
+    <row r="1272" spans="5:6">
+      <c r="E1272" s="6"/>
+      <c r="F1272" s="6"/>
+    </row>
+    <row r="1273" spans="5:6">
+      <c r="E1273" s="6"/>
+      <c r="F1273" s="6"/>
+    </row>
+    <row r="1274" spans="5:6">
+      <c r="E1274" s="6"/>
+      <c r="F1274" s="6"/>
+    </row>
+    <row r="1275" spans="5:6">
+      <c r="E1275" s="6"/>
+      <c r="F1275" s="6"/>
+    </row>
+    <row r="1276" spans="5:6">
+      <c r="E1276" s="6"/>
+      <c r="F1276" s="6"/>
+    </row>
+    <row r="1277" spans="5:6">
+      <c r="E1277" s="6"/>
+      <c r="F1277" s="6"/>
+    </row>
+    <row r="1278" spans="5:6">
+      <c r="E1278" s="6"/>
+      <c r="F1278" s="6"/>
+    </row>
+    <row r="1279" spans="5:6">
+      <c r="E1279" s="6"/>
+      <c r="F1279" s="6"/>
+    </row>
+    <row r="1280" spans="5:6">
+      <c r="E1280" s="6"/>
+      <c r="F1280" s="6"/>
+    </row>
+    <row r="1281" spans="5:6">
+      <c r="E1281" s="6"/>
+      <c r="F1281" s="6"/>
+    </row>
+    <row r="1282" spans="5:6">
+      <c r="E1282" s="6"/>
+      <c r="F1282" s="6"/>
+    </row>
+    <row r="1283" spans="5:6">
+      <c r="E1283" s="6"/>
+      <c r="F1283" s="6"/>
+    </row>
+    <row r="1284" spans="5:6">
+      <c r="E1284" s="6"/>
+      <c r="F1284" s="6"/>
+    </row>
+    <row r="1285" spans="5:6">
+      <c r="E1285" s="6"/>
+      <c r="F1285" s="6"/>
+    </row>
+    <row r="1286" spans="5:6">
+      <c r="E1286" s="6"/>
+      <c r="F1286" s="6"/>
+    </row>
+    <row r="1287" spans="5:6">
+      <c r="E1287" s="6"/>
+      <c r="F1287" s="6"/>
+    </row>
+    <row r="1288" spans="5:6">
+      <c r="E1288" s="6"/>
+      <c r="F1288" s="6"/>
+    </row>
+    <row r="1289" spans="5:6">
+      <c r="E1289" s="6"/>
+      <c r="F1289" s="6"/>
+    </row>
+    <row r="1290" spans="5:6">
+      <c r="E1290" s="6"/>
+      <c r="F1290" s="6"/>
+    </row>
+    <row r="1291" spans="5:6">
+      <c r="E1291" s="6"/>
+      <c r="F1291" s="6"/>
+    </row>
+    <row r="1292" spans="5:6">
+      <c r="E1292" s="6"/>
+      <c r="F1292" s="6"/>
+    </row>
+    <row r="1293" spans="5:6">
+      <c r="E1293" s="6"/>
+      <c r="F1293" s="6"/>
+    </row>
+    <row r="1294" spans="5:6">
+      <c r="E1294" s="6"/>
+      <c r="F1294" s="6"/>
+    </row>
+    <row r="1295" spans="5:6">
+      <c r="E1295" s="6"/>
+      <c r="F1295" s="6"/>
+    </row>
+    <row r="1296" spans="5:6">
+      <c r="E1296" s="6"/>
+      <c r="F1296" s="6"/>
+    </row>
+    <row r="1297" spans="5:6">
+      <c r="E1297" s="6"/>
+      <c r="F1297" s="6"/>
+    </row>
+    <row r="1298" spans="5:6">
+      <c r="E1298" s="6"/>
+      <c r="F1298" s="6"/>
+    </row>
+    <row r="1299" spans="5:6">
+      <c r="E1299" s="6"/>
+      <c r="F1299" s="6"/>
+    </row>
+    <row r="1300" spans="5:6">
+      <c r="E1300" s="6"/>
+      <c r="F1300" s="6"/>
+    </row>
+    <row r="1301" spans="5:6">
+      <c r="E1301" s="6"/>
+      <c r="F1301" s="6"/>
     </row>
     <row r="1048576" spans="1:4">
       <c r="A1048576" s="5"/>
@@ -4873,10 +9262,11 @@
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>
     <hyperlink ref="F20" r:id="rId2"/>
+    <hyperlink ref="F22" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4962,8 +9352,8 @@
       <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -10758,7 +15148,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="21">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>43914</v>
       </c>
@@ -10949,7 +15339,7 @@
       <c r="C20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="7"/>

--- a/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
+++ b/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="471">
   <si>
     <t>Person</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2493,6 +2493,116 @@
   </si>
   <si>
     <t>BBG ticker: (SCCNSMEI &lt;index&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX view: still bearish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBH tightens policy by introducing a new 1-week depo facility paying the 0.9% base rate (compared to -0.05% in the standing o/n facility), first tender tomorrow. The unexpected move comes likely in response to underperformance of the Forint in recent days, with which the central bank continues to be displeased apparently (they had also removed some liquidity via the swaps in recent days). The central bank continues to have conflicting targets, wanting to add liquidity to support the government indirectly support the government's financing effort, and at the same time wanting to control FX weakness. Its hard to know exactly what the tradeoffs are, but we maintain our view that under extreme pressure, the goal of keeping easy policy and supporting the economy will be more important than FX management.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pretty much the same monetary policy set up as Turkey 3-4 years ago (which says a lots). Will be able to deposit at the NBH at the base rate (0.90%) an amount decided on each week for one week - given you can borrow at -0.05% in the O/N depo (restricted amount) - the demand will always be high. Nagy will use this to fix Bubor up to 90bp in times of FX stress. I suspect this means Bubor is a lot more volatile now (+/- 10bp on the 1w depo days type volatility, rather than the tight ranges we have got use to).
+He has spoken about doing this on a recent conference call - the whole concept was to force speculators to give up on being long EURHUF - he was keen to specify he did not want to actually tighten monetary conditions for people on the ground (most debt is floating and linked to bubor - so I don’t know how you do this).  
+On a side note, given FX implieds and bill yields, a reasonable increase in bubor tomorrow should be expected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagy is on a call now with GS. Complete 180 in policy. Push implied up to any level (i.e. above 90). Wants to tighten financial conditions (opposite of what he said at NBH meeting 2 weeks ago, and 1 month ago on BOA call), liquidity will only be injected in 3y-5y sector. Will never increase FX swaps again, only roll or reduce. ON depo will be phased out so all rates will be at 90bp. Can hike rates further if needed.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*HUNGARY'S ORBAN ANNOUNCES STIMULUS PLAN WORTH 18-20% OF GDP
+BNP
+These headlines are in line what has been signalled over the weekend
+JP
+This combined with fixing only +1 today and with the aggressive flattening we have seen, i would suggest the curve steepens from here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiscal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arjuna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infra constr has entered high season in most regions Since infra construction started seasonal recovery from mid-to-late Feb, China avg. excavator on-duty ratio improved from less than 15% in early Feb to 38% in early Mar and to 77% in early Apr, reaching Mar 2019 avg level, c.5% below Apr 2019 avg. Mar 2020 avg. excavator on-duty ratio in China was 68%, -10%YoY. In early Apr, most regions, incl. East, SW, North, NE and NW China, saw excavator on-duty ratio reach 8090%, reaching or exceeding Apr 2019 level; provinces in and close to South China, such as Guangdong, Guangxi, Fujian and Hunan, saw YoY lower on-duty ratio of excavator for rainy days over the past week; in Hubei, excavator on-duty ratio recovered to 66% in early Apr (vs. less than 5% in Feb- early Mar 2020, and c.90% in Mar-Apr 2019).
+Ppty constr YoY decline narrowed to MSD% last week Property construction started notable recovery from early-to mid Mar, and was close to normal level last week. Tower crane’s on-duty ratio improved from 14.5% in Feb to 52% in Mar, down 27%YoY; in late Mar,  tower crane’s on-duty ratio reached 64% (down 13%YoY); considering tower crane fleet size expanded 8%YoY, we estimate the property construction YoY decline narrowed to MSD% in late Mar. In most regions, concrete mixing plants’ production just recovered to normal level last week given relatively late recovery of property construction compared with infra construction after newly added COVID-19 cases were under control in China; as such, China concrete sales declined by c.30%YoY in Mar, but will likely be flat YoY in Apr as increasing demand from infra construction could offset the slight YoY decline in property construction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew Law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanks, Arjuna. China has gone back to work, but not socialising/leisure. ROW to follow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS hosted a conference call on favourite EM trade ideas. I can pass on more detailed notes on each one, but main ideas below:
+·         Long RUB via 1y 70/65 put spread
+·         Long RUB, short TRY
+·         Long RUB (separate trader) vs TRY and ZAR. In TRY they are doing 1y digitals, using 1m knock outs. In RUB they like to sell topside.
+·         Paid SAR forward points
+·         Long KRW (China first to stabilise). RV expression is short MYR or THB.
+·         Short MXN and BRL
+·         Long CLPCOP
+·         Pay low yielders – CZK and PLN long ends
+·         Rec South Africa and ILS rates. ILS is safe, south Africa has enough priced
+·         Rec 2y MXN – highest conviction trade. 2y prices a neutral policy rate
+·         Pay 1y CLP – 58bp vs 50bp fix, cheap option
+·         Pay Jan 21 DI at 3.10#
+·         In credit, they like South Africa $ debt, and Angola in distressed EM credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This seems quite compelling on a multi-month basis, given Hungary will have implied rates between 1-2% and Poland will likely cut 50bp again to 0 – along with Poland running a much bigger QE program.
+Positioning is the other way, long PLNHUF. There is very little investor money to come out of Hungary (portfolio investment has been minimal for years, and every RM account is deeply UW HUF assets). There is a lot of money which can come out of Poland.
+Given no one is paying interest in Hungary this year, I expect NBH to tighten to 180bp if HUF got weak - + reduce the FX stock program, and potential hike the deposit rate. Might not seem much, but will stand out against Poland having rates at 5bp in a month’s time
+Hungary is slightly weaker in COVID fundamentals – and with trade being a greater % of GDP it will have a bigger growth hit than Poland. Both have domestic political issues – I would actually say this is marginally in favour of HUF at the moment as we know what Orban is doing, we don’t know what PIS are doing about elections next month (one idea is to just extend Duda’s term for 2 years!). The delta on the political situation would change if EU took more interest in the matter, but I think it’s worth keeping in mind the EU still have not done anything proper about Poland’s changing of the constitutional courts and that has been an issue for nearly 3 years.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM Trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicolas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Fed Minutes Reveal Alarm Over Coronavirus Disruptions to Economy, Market
+*FED RELEASES MINUTES OF UNSCHEDULED MARCH 2, MARCH 15 MEETINGS
+*FED MINUTES: `EXTREMELY LARGE DEGREE' OF UNCERTAINTY ON OUTLOOK
+*FED MINUTES: RATES AT ZERO UNTIL ECONOMY WEATHERED VIRUS
+*FED MINUTES: A FEW PREFERRED 50 BPS CUT AT MARCH 15 MEETING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The main/only thing to note from these minutes is what future steps the FOMC did, and did not, discuss.
+They listed additional QE and strengthened forward guidance. The former has of course been utilized since. The latter could be forthcoming.
+They did not mention yield curve control. I don’t read that as rejection; more that it wasn’t relevant at the time.
+There were concerns from a ‘few’ and ‘some’ about cutting to ELB. Given what has since transpired I think any such disagreement can be safely ignored.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2646,11 +2756,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2668,13 +2778,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>315241</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2200274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2708,13 +2818,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228724</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1609725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2748,13 +2858,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>991264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2788,13 +2898,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1995121</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2828,13 +2938,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>412239</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>504824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1676399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2868,13 +2978,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>461701</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2908,13 +3018,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1149080</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2948,13 +3058,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>865322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3019425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2993,13 +3103,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>214770</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3031,15 +3141,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139430</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2234930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3058,7 +3168,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9391649" y="139430"/>
+          <a:off x="11963399" y="2406380"/>
           <a:ext cx="1247775" cy="1051194"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3073,13 +3183,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>375120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3113,13 +3223,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>136214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3153,13 +3263,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1039442</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>571499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1333499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3193,13 +3303,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>31216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3233,13 +3343,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1841579</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3273,13 +3383,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>616243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3313,13 +3423,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2307968</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3353,13 +3463,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>386103</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3393,13 +3503,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>508719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3433,13 +3543,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>361949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>302724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3469,6 +3579,46 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1435748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10591800" y="495300"/>
+          <a:ext cx="838200" cy="1111898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3478,13 +3628,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3000374</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>71728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3518,13 +3668,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97804</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>419099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3558,13 +3708,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>175973</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3598,13 +3748,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3073853</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>895350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3638,13 +3788,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3039208</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3678,13 +3828,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3067050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>127778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>666750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3718,13 +3868,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>935210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3758,13 +3908,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1254264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3798,13 +3948,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1895474</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>317664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3838,13 +3988,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1685924</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>223748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>962025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3878,13 +4028,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>647380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2790825</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1552575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3914,6 +4064,46 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>242492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1714499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>876299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12687299" y="2280842"/>
+          <a:ext cx="1400175" cy="633807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3929,8 +4119,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3963,13 +4153,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>455164</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1781176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4003,13 +4193,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1288767</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>876299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4043,13 +4233,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5638</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>1666875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4083,13 +4273,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>240251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4123,13 +4313,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161763</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4577,13 +4767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J1302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A121" sqref="A121"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4614,87 +4804,88 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="89.25" customHeight="1">
+    <row r="2" spans="1:10" ht="94.5">
       <c r="A2" s="5">
-        <v>43921</v>
+        <v>43927</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>176</v>
+        <v>457</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>177</v>
+        <v>458</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>459</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="147">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="89.25" customHeight="1">
       <c r="A3" s="5">
         <v>43921</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="I3" s="5">
-        <v>43860</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="42">
+    </row>
+    <row r="4" spans="1:10" ht="147">
       <c r="A4" s="5">
         <v>43921</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="201" customHeight="1">
+      <c r="I4" s="5">
+        <v>43860</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42">
       <c r="A5" s="5">
         <v>43921</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="F5" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="201" customHeight="1">
       <c r="A6" s="5">
         <v>43921</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4703,24 +4894,22 @@
         <v>43921</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>190</v>
@@ -4728,50 +4917,52 @@
       <c r="D8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="136.5">
+      <c r="E8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="73.5">
+    <row r="10" spans="1:10" ht="136.5">
       <c r="A10" s="5">
         <v>43920</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="73.5">
       <c r="A11" s="5">
         <v>43920</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -4780,10 +4971,10 @@
         <v>43920</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>166</v>
@@ -4795,188 +4986,187 @@
         <v>43920</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="40.5" customHeight="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="5">
         <v>43920</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A15" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="105" customHeight="1">
-      <c r="A15" s="5">
+    <row r="16" spans="1:10" ht="105" customHeight="1">
+      <c r="A16" s="5">
         <v>43919</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="5">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="21">
+      <c r="A17" s="5">
         <v>43920</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="136.5">
-      <c r="A17" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="21">
+    <row r="18" spans="1:6" ht="136.5">
       <c r="A18" s="5">
         <v>43919</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="168">
+        <v>194</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="21">
       <c r="A19" s="5">
         <v>43919</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="106.5" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="168">
       <c r="A20" s="5">
         <v>43919</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="106.5" customHeight="1">
       <c r="A21" s="5">
         <v>43919</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="31.5">
+        <v>166</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.5">
       <c r="A23" s="5">
         <v>43917</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="157.5">
+      <c r="F23" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>221</v>
@@ -4984,167 +5174,167 @@
       <c r="D24" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="157.5">
       <c r="A25" s="5">
         <v>43917</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="115.5">
+    <row r="26" spans="1:6">
       <c r="A26" s="5">
         <v>43917</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>228</v>
-      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="199.5">
+    <row r="27" spans="1:6" ht="115.5">
       <c r="A27" s="5">
         <v>43917</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="199.5">
       <c r="A28" s="5">
         <v>43917</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="136.5">
+    <row r="29" spans="1:6">
       <c r="A29" s="5">
         <v>43917</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="94.5">
+    <row r="30" spans="1:6" ht="136.5">
       <c r="A30" s="5">
         <v>43917</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>234</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="94.5">
       <c r="A31" s="5">
         <v>43917</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="84">
+    <row r="32" spans="1:6">
       <c r="A32" s="5">
         <v>43917</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="84">
+      <c r="A33" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5">
-        <v>43916</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="94.5">
+    <row r="34" spans="1:6">
       <c r="A34" s="5">
         <v>43916</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>221</v>
@@ -5155,63 +5345,63 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="94.5">
       <c r="A35" s="5">
         <v>43916</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="189">
+    <row r="36" spans="1:6">
       <c r="A36" s="5">
         <v>43916</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="189">
       <c r="A37" s="5">
         <v>43916</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="21">
+    <row r="38" spans="1:6">
       <c r="A38" s="5">
         <v>43916</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>222</v>
@@ -5219,15 +5409,15 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="115.5">
+    <row r="39" spans="1:6" ht="21">
       <c r="A39" s="5">
         <v>43916</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>222</v>
@@ -5235,82 +5425,82 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="178.5">
+    <row r="40" spans="1:6" ht="115.5">
       <c r="A40" s="5">
         <v>43916</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>254</v>
-      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="74.25" customHeight="1">
+    <row r="41" spans="1:6" ht="178.5">
       <c r="A41" s="5">
         <v>43916</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>222</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="66.75" customHeight="1">
+    <row r="42" spans="1:6" ht="74.25" customHeight="1">
       <c r="A42" s="5">
         <v>43916</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="84">
+    <row r="43" spans="1:6" ht="66.75" customHeight="1">
       <c r="A43" s="5">
         <v>43916</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="21">
+    <row r="44" spans="1:6" ht="84">
       <c r="A44" s="5">
         <v>43916</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>221</v>
@@ -5321,12 +5511,12 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="94.5">
+    <row r="45" spans="1:6" ht="21">
       <c r="A45" s="5">
         <v>43916</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>221</v>
@@ -5337,134 +5527,134 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" ht="63">
+    <row r="46" spans="1:6" ht="94.5">
       <c r="A46" s="5">
         <v>43916</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="67.5">
+    <row r="47" spans="1:6" ht="63">
       <c r="A47" s="5">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>222</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="80.25" customHeight="1">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="67.5">
       <c r="A48" s="5">
         <v>43915</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="80.25" customHeight="1">
+      <c r="A49" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5">
-        <v>43914</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="84">
+    <row r="50" spans="1:6">
       <c r="A50" s="5">
         <v>43914</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>269</v>
-      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" ht="66" customHeight="1">
+    <row r="51" spans="1:6" ht="84">
       <c r="A51" s="5">
         <v>43914</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="74.25" customHeight="1">
+    <row r="52" spans="1:6" ht="66" customHeight="1">
       <c r="A52" s="5">
         <v>43914</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="74.25" customHeight="1">
       <c r="A53" s="5">
         <v>43914</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -5474,93 +5664,93 @@
         <v>43914</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" ht="94.5">
+    <row r="55" spans="1:6">
       <c r="A55" s="5">
         <v>43914</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" ht="30.75" customHeight="1">
+    <row r="56" spans="1:6" ht="94.5">
       <c r="A56" s="5">
         <v>43914</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="30.75" customHeight="1">
       <c r="A57" s="5">
         <v>43914</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" ht="21">
+    <row r="58" spans="1:6">
       <c r="A58" s="5">
         <v>43914</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="21">
       <c r="A59" s="5">
         <v>43914</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -5570,7 +5760,7 @@
         <v>43914</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>221</v>
@@ -5581,28 +5771,28 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" ht="42" customHeight="1">
+    <row r="61" spans="1:6">
       <c r="A61" s="5">
         <v>43914</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" ht="27" customHeight="1">
+    <row r="62" spans="1:6" ht="42" customHeight="1">
       <c r="A62" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>221</v>
@@ -5613,15 +5803,15 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" ht="31.5">
+    <row r="63" spans="1:6" ht="27" customHeight="1">
       <c r="A63" s="5">
         <v>43913</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>194</v>
@@ -5629,12 +5819,12 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" ht="21" customHeight="1">
+    <row r="64" spans="1:6" ht="31.5">
       <c r="A64" s="5">
         <v>43913</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>235</v>
@@ -5645,173 +5835,173 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" ht="67.5" customHeight="1">
+    <row r="65" spans="1:6" ht="21" customHeight="1">
       <c r="A65" s="5">
         <v>43913</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" ht="42" customHeight="1">
+    <row r="66" spans="1:6" ht="67.5" customHeight="1">
       <c r="A66" s="5">
         <v>43913</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" ht="42">
+    <row r="67" spans="1:6" ht="42" customHeight="1">
       <c r="A67" s="5">
         <v>43913</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" customHeight="1">
+    <row r="68" spans="1:6" ht="42">
       <c r="A68" s="5">
         <v>43913</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="28.5" customHeight="1">
       <c r="A69" s="5">
         <v>43913</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" ht="63.75" customHeight="1">
+    <row r="70" spans="1:6">
       <c r="A70" s="5">
         <v>43913</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="63.75" customHeight="1">
       <c r="A71" s="5">
         <v>43913</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" ht="52.5">
+    <row r="72" spans="1:6">
       <c r="A72" s="5">
         <v>43913</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="52.5">
       <c r="A73" s="5">
         <v>43913</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" ht="51" customHeight="1">
+    <row r="74" spans="1:6">
       <c r="A74" s="5">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="51" customHeight="1">
       <c r="A75" s="5">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>222</v>
@@ -5824,10 +6014,10 @@
         <v>43910</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>222</v>
@@ -5840,33 +6030,31 @@
         <v>43910</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" ht="21">
+    <row r="78" spans="1:6">
       <c r="A78" s="5">
         <v>43910</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>313</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="21">
@@ -5874,29 +6062,31 @@
         <v>43910</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="21">
       <c r="A80" s="5">
         <v>43910</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -5906,60 +6096,60 @@
         <v>43910</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" ht="31.5">
+    <row r="82" spans="1:6">
       <c r="A82" s="5">
         <v>43910</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>320</v>
-      </c>
+      <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" ht="60" customHeight="1">
+    <row r="83" spans="1:6" ht="31.5">
       <c r="A83" s="5">
         <v>43910</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E83" s="6"/>
+      <c r="E83" s="13" t="s">
+        <v>320</v>
+      </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="60" customHeight="1">
       <c r="A84" s="5">
         <v>43910</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>222</v>
@@ -5972,26 +6162,26 @@
         <v>43910</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" ht="73.5">
+    <row r="86" spans="1:6">
       <c r="A86" s="5">
         <v>43910</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>194</v>
@@ -5999,31 +6189,31 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" ht="52.5">
+    <row r="87" spans="1:6" ht="73.5">
       <c r="A87" s="5">
         <v>43910</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" ht="42.75" customHeight="1">
+    <row r="88" spans="1:6" ht="52.5">
       <c r="A88" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>327</v>
@@ -6031,15 +6221,15 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="42.75" customHeight="1">
       <c r="A89" s="5">
         <v>43909</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>327</v>
@@ -6047,47 +6237,47 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" ht="51" customHeight="1">
+    <row r="90" spans="1:6">
       <c r="A90" s="5">
         <v>43909</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="51" customHeight="1">
       <c r="A91" s="5">
         <v>43909</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" ht="21">
+    <row r="92" spans="1:6">
       <c r="A92" s="5">
         <v>43909</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>327</v>
@@ -6095,15 +6285,15 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="43.5" customHeight="1">
+    <row r="93" spans="1:6" ht="21">
       <c r="A93" s="5">
         <v>43909</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>327</v>
@@ -6111,15 +6301,15 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" ht="115.5" customHeight="1">
+    <row r="94" spans="1:6" ht="43.5" customHeight="1">
       <c r="A94" s="5">
         <v>43909</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>327</v>
@@ -6127,47 +6317,47 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" ht="41.25" customHeight="1">
+    <row r="95" spans="1:6" ht="115.5" customHeight="1">
       <c r="A95" s="5">
         <v>43909</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="41.25" customHeight="1">
       <c r="A96" s="5">
         <v>43909</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" ht="21">
+    <row r="97" spans="1:6">
       <c r="A97" s="5">
         <v>43909</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>327</v>
@@ -6175,76 +6365,76 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="21">
       <c r="A98" s="5">
         <v>43909</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" ht="73.5">
+    <row r="100" spans="1:6">
       <c r="A100" s="5">
         <v>43908</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" ht="58.5" customHeight="1">
+    <row r="101" spans="1:6" ht="73.5">
       <c r="A101" s="5">
         <v>43908</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" ht="34.5" customHeight="1">
+    <row r="102" spans="1:6" ht="58.5" customHeight="1">
       <c r="A102" s="5">
         <v>43908</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>335</v>
@@ -6255,34 +6445,34 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" ht="64.5" customHeight="1">
+    <row r="103" spans="1:6" ht="34.5" customHeight="1">
       <c r="A103" s="5">
         <v>43908</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="64.5" customHeight="1">
       <c r="A104" s="5">
         <v>43908</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -6292,23 +6482,23 @@
         <v>43908</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" ht="40.5" customHeight="1">
+    <row r="106" spans="1:6">
       <c r="A106" s="5">
         <v>43908</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>350</v>
@@ -6319,15 +6509,15 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" ht="52.5">
+    <row r="107" spans="1:6" ht="40.5" customHeight="1">
       <c r="A107" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>327</v>
@@ -6335,15 +6525,15 @@
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" ht="73.5">
+    <row r="108" spans="1:6" ht="52.5">
       <c r="A108" s="5">
         <v>43907</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>327</v>
@@ -6351,18 +6541,18 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="73.5">
       <c r="A109" s="5">
         <v>43907</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -6372,76 +6562,76 @@
         <v>43907</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" ht="40.5">
+    <row r="111" spans="1:6">
       <c r="A111" s="5">
         <v>43907</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E111" s="6"/>
-      <c r="F111" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="1:6" ht="40.5">
       <c r="A112" s="5">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
+      <c r="F112" s="11" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="5">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>327</v>
@@ -6449,47 +6639,47 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" ht="38.25" customHeight="1">
+    <row r="115" spans="1:6">
       <c r="A115" s="5">
-        <v>43899</v>
+        <v>43902</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="38.25" customHeight="1">
       <c r="A116" s="5">
-        <v>43894</v>
+        <v>43899</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="5">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>327</v>
@@ -6497,59 +6687,67 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" ht="63">
+    <row r="118" spans="1:6">
       <c r="A118" s="5">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" ht="31.5">
+    <row r="119" spans="1:6" ht="63">
       <c r="A119" s="5">
-        <v>43868</v>
+        <v>43892</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6" ht="21">
+    <row r="120" spans="1:6" ht="31.5">
       <c r="A120" s="5">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="5"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+    <row r="121" spans="1:6" ht="21">
+      <c r="A121" s="5">
+        <v>43867</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
     </row>
@@ -7722,6 +7920,10 @@
       <c r="F267" s="6"/>
     </row>
     <row r="268" spans="1:6">
+      <c r="A268" s="5"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
     </row>
@@ -11857,20 +12059,19 @@
       <c r="E1301" s="6"/>
       <c r="F1301" s="6"/>
     </row>
-    <row r="1048576" spans="1:4">
-      <c r="A1048576" s="5"/>
-      <c r="C1048576" s="2"/>
-      <c r="D1048576" s="2"/>
+    <row r="1302" spans="5:6">
+      <c r="E1302" s="6"/>
+      <c r="F1302" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F20" r:id="rId2"/>
-    <hyperlink ref="F22" r:id="rId3"/>
-    <hyperlink ref="F47" r:id="rId4"/>
-    <hyperlink ref="E82" r:id="rId5"/>
-    <hyperlink ref="F111" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="F23" r:id="rId3"/>
+    <hyperlink ref="F48" r:id="rId4"/>
+    <hyperlink ref="E83" r:id="rId5"/>
+    <hyperlink ref="F112" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -11931,7 +12132,7 @@
         <v>445</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>446</v>
       </c>
       <c r="F3" s="7"/>
@@ -14631,13 +14832,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O409"/>
+  <dimension ref="A1:O410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14664,101 +14865,92 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:15" ht="178.5">
+      <c r="A2" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="62.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="62.25" customHeight="1">
+      <c r="A4" s="5">
         <v>43918</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="62.25" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" ht="31.5">
-      <c r="A5" s="5">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="62.25" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="31.5">
+      <c r="A6" s="5">
         <v>43918</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5">
-      <c r="A6" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -14770,16 +14962,20 @@
     </row>
     <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="5">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -14790,7 +14986,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:15" ht="42">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="5">
         <v>43910</v>
       </c>
@@ -14798,26 +14994,21 @@
         <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15">
+        <v>314</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="42">
       <c r="A10" s="5">
         <v>43910</v>
       </c>
@@ -14825,13 +15016,13 @@
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -14844,18 +15035,22 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="21">
+    <row r="11" spans="1:15">
       <c r="A11" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -14867,22 +15062,18 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="31.5">
+    <row r="12" spans="1:15" ht="21">
       <c r="A12" s="5">
         <v>43909</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -14894,18 +15085,22 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" ht="73.5">
+    <row r="13" spans="1:15" ht="31.5">
       <c r="A13" s="5">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -14917,15 +15112,15 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="63">
+    <row r="14" spans="1:15" ht="73.5">
       <c r="A14" s="5">
         <v>43906</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -14940,19 +15135,17 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="157.5">
+    <row r="15" spans="1:15" ht="63">
       <c r="A15" s="5">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>376</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -14965,15 +15158,15 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="63">
+    <row r="16" spans="1:15" ht="157.5">
       <c r="A16" s="5">
         <v>43905</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>373</v>
+        <v>130</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>376</v>
@@ -14990,18 +15183,18 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" ht="52.5">
+    <row r="17" spans="1:15" ht="63">
       <c r="A17" s="5">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>373</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -15015,13 +15208,15 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:15" ht="52.5">
+      <c r="A18" s="5">
+        <v>43902</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>350</v>
@@ -15038,13 +15233,13 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="54" customHeight="1">
+    <row r="19" spans="1:15">
       <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>350</v>
@@ -15061,13 +15256,13 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="75" customHeight="1">
+    <row r="20" spans="1:15" ht="54" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>381</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>350</v>
@@ -15084,17 +15279,17 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
-        <v>43902</v>
-      </c>
+    <row r="21" spans="1:15" ht="75" customHeight="1">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>383</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -15107,13 +15302,15 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A22" s="5">
+        <v>43902</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -15128,13 +15325,13 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="36" customHeight="1">
+    <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -15149,15 +15346,13 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" ht="105">
-      <c r="A24" s="5">
-        <v>43903</v>
-      </c>
+    <row r="24" spans="1:15" ht="36" customHeight="1">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -15172,22 +15367,18 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" ht="21">
+    <row r="25" spans="1:15" ht="105">
       <c r="A25" s="5">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -15199,20 +15390,22 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15" ht="119.25" customHeight="1">
+    <row r="26" spans="1:15" ht="21">
       <c r="A26" s="5">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -15224,13 +15417,15 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" ht="84" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
+    <row r="27" spans="1:15" ht="119.25" customHeight="1">
+      <c r="A27" s="5">
+        <v>43896</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>42</v>
@@ -15247,22 +15442,18 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" ht="42">
-      <c r="A28" s="5">
-        <v>43896</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
+    <row r="28" spans="1:15" ht="84" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -15274,16 +15465,22 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" ht="63">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
+    <row r="29" spans="1:15" ht="42">
+      <c r="A29" s="5">
+        <v>43896</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C29" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -15295,22 +15492,16 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="5">
-        <v>43895</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>99</v>
-      </c>
+    <row r="30" spans="1:15" ht="63">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -15324,19 +15515,19 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="5">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>105</v>
+        <v>42</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -15349,18 +15540,22 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="21">
+    <row r="32" spans="1:15">
       <c r="A32" s="5">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>384</v>
+        <v>33</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -15373,12 +15568,14 @@
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="21">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>43893</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="9"/>
@@ -15393,15 +15590,13 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="5">
-        <v>43893</v>
-      </c>
+    <row r="34" spans="1:15" ht="21">
+      <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="9"/>
@@ -15416,13 +15611,15 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="31.5">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:15">
+      <c r="A35" s="5">
+        <v>43893</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="9"/>
@@ -15440,10 +15637,10 @@
     <row r="36" spans="1:15" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="9"/>
@@ -15458,13 +15655,13 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="9"/>
@@ -15479,15 +15676,13 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="63">
-      <c r="A38" s="5">
-        <v>43892</v>
-      </c>
+    <row r="38" spans="1:15">
+      <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="9"/>
@@ -15502,13 +15697,15 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="133.5" customHeight="1">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:15" ht="63">
+      <c r="A39" s="5">
+        <v>43892</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="9"/>
@@ -15523,13 +15720,13 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="21">
+    <row r="40" spans="1:15" ht="133.5" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -15544,13 +15741,13 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="147">
+    <row r="41" spans="1:15" ht="21">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="9"/>
@@ -15565,18 +15762,16 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="157.5">
-      <c r="A42" s="5">
-        <v>43892</v>
-      </c>
+    <row r="42" spans="1:15" ht="147">
+      <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -15588,13 +15783,15 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="178.5">
-      <c r="A43" s="5"/>
+    <row r="43" spans="1:15" ht="157.5">
+      <c r="A43" s="5">
+        <v>43892</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -15609,13 +15806,13 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="45.75" customHeight="1">
+    <row r="44" spans="1:15" ht="178.5">
       <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -15630,13 +15827,13 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" ht="117" customHeight="1">
+    <row r="45" spans="1:15" ht="45.75" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -15651,15 +15848,13 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="73.5" customHeight="1">
-      <c r="A46" s="5">
-        <v>43891</v>
-      </c>
+    <row r="46" spans="1:15" ht="117" customHeight="1">
+      <c r="A46" s="5"/>
       <c r="B46" s="2" t="s">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>416</v>
+        <v>115</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -15674,22 +15869,18 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="51.75" customHeight="1">
+    <row r="47" spans="1:15" ht="73.5" customHeight="1">
       <c r="A47" s="5">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>129</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -15701,21 +15892,21 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1">
+    <row r="48" spans="1:15" ht="51.75" customHeight="1">
       <c r="A48" s="5">
-        <v>43888</v>
+        <v>43890</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>401</v>
+        <v>33</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>350</v>
+        <v>104</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -15728,13 +15919,15 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A49" s="5"/>
+    <row r="49" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A49" s="5">
+        <v>43888</v>
+      </c>
       <c r="B49" s="2" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>350</v>
@@ -15753,13 +15946,13 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="46.5" customHeight="1">
+    <row r="50" spans="1:15" ht="13.5" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>350</v>
@@ -15778,21 +15971,19 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="5">
-        <v>43886</v>
-      </c>
+    <row r="51" spans="1:15" ht="46.5" customHeight="1">
+      <c r="A51" s="5"/>
       <c r="B51" s="2" t="s">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>137</v>
+        <v>419</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -15805,7 +15996,7 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="189">
+    <row r="52" spans="1:15">
       <c r="A52" s="5">
         <v>43886</v>
       </c>
@@ -15813,12 +16004,14 @@
         <v>33</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -15830,7 +16023,7 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="63">
+    <row r="53" spans="1:15" ht="189">
       <c r="A53" s="5">
         <v>43886</v>
       </c>
@@ -15838,14 +16031,12 @@
         <v>33</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>129</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -15857,19 +16048,21 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="21">
+    <row r="54" spans="1:15" ht="63">
       <c r="A54" s="5">
-        <v>43883</v>
+        <v>43886</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="E54" s="6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -15882,21 +16075,19 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="21">
       <c r="A55" s="5">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -15909,20 +16100,22 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="81.75" customHeight="1">
+    <row r="56" spans="1:15">
       <c r="A56" s="5">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -15934,15 +16127,19 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="81.75" customHeight="1">
       <c r="A57" s="5">
         <v>43881</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="C57" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -15955,22 +16152,16 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="21">
+    <row r="58" spans="1:15">
       <c r="A58" s="5">
-        <v>43879</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>43881</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>155</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -15982,18 +16173,22 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="21">
       <c r="A59" s="5">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -16005,15 +16200,15 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="42">
+    <row r="60" spans="1:15">
       <c r="A60" s="5">
-        <v>43877</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>158</v>
+        <v>43878</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -16028,7 +16223,7 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="52.5">
+    <row r="61" spans="1:15" ht="42">
       <c r="A61" s="5">
         <v>43877</v>
       </c>
@@ -16036,11 +16231,9 @@
         <v>158</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -16053,11 +16246,19 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+    <row r="62" spans="1:15" ht="52.5">
+      <c r="A62" s="5">
+        <v>43877</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -16314,6 +16515,16 @@
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="5"/>
@@ -17858,9 +18069,9 @@
     <row r="298" spans="1:5">
       <c r="A298" s="5"/>
       <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="5"/>
@@ -18577,7 +18788,7 @@
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="2"/>
+      <c r="A401" s="5"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -18639,14 +18850,21 @@
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
     </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -18656,19 +18874,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="133.875" customWidth="1"/>
     <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18689,404 +18907,432 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="73.5">
+    <row r="2" spans="1:5" ht="147">
       <c r="A2" s="5">
-        <v>43917</v>
+        <v>43929</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
+      <c r="C2" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="70.5" customHeight="1">
-      <c r="A3" s="5">
-        <v>43915</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="94.5">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="73.5">
+      <c r="C3" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="51" customHeight="1">
       <c r="A4" s="5">
-        <v>43901</v>
+        <v>43922</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>452</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="94.5">
-      <c r="A5" s="5">
-        <v>43909</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="64.5" customHeight="1">
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="105">
-      <c r="A6" s="5">
-        <v>43909</v>
-      </c>
+      <c r="C5" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
+      <c r="C6" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="21">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="73.5">
       <c r="A7" s="5">
-        <v>43909</v>
+        <v>43917</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="178.5">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="70.5" customHeight="1">
       <c r="A8" s="5">
-        <v>43900</v>
+        <v>43915</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="31.5">
+    <row r="9" spans="1:5" ht="73.5">
       <c r="A9" s="5">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="157.5">
+    <row r="10" spans="1:5" ht="94.5">
       <c r="A10" s="5">
-        <v>43900</v>
+        <v>43909</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="210">
+    <row r="11" spans="1:5" ht="105">
       <c r="A11" s="5">
-        <v>43900</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>43909</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="105">
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="5">
-        <v>43899</v>
+        <v>43909</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="91.5" customHeight="1">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="178.5">
       <c r="A13" s="5">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="31.5">
       <c r="A14" s="5">
-        <v>43894</v>
+        <v>43900</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="168">
+    <row r="15" spans="1:5" ht="157.5">
       <c r="A15" s="5">
-        <v>43893</v>
+        <v>43900</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="42" customHeight="1">
+    <row r="16" spans="1:5" ht="210">
       <c r="A16" s="5">
-        <v>43893</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>43900</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="42">
+    <row r="17" spans="1:5" ht="105">
       <c r="A17" s="5">
-        <v>43893</v>
+        <v>43899</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="42">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="91.5" customHeight="1">
       <c r="A18" s="5">
-        <v>43888</v>
+        <v>43899</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>134</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="5">
-        <v>43887</v>
+        <v>43894</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="126">
+    <row r="20" spans="1:5" ht="168">
       <c r="A20" s="5">
-        <v>43887</v>
+        <v>43893</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="42" customHeight="1">
       <c r="A21" s="5">
-        <v>43882</v>
+        <v>43893</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="147">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="42">
       <c r="A22" s="5">
-        <v>43875</v>
+        <v>43893</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="220.5">
+    <row r="23" spans="1:5" ht="42">
       <c r="A23" s="5">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.5">
       <c r="A24" s="5">
-        <v>43874</v>
+        <v>43887</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="52.5">
+    <row r="25" spans="1:5" ht="126">
       <c r="A25" s="5">
-        <v>43867</v>
+        <v>43887</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>424</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>427</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="178.5">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
+        <v>43882</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="147">
+      <c r="A27" s="5">
+        <v>43875</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="220.5">
+      <c r="A28" s="5">
+        <v>43875</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5">
+        <v>43874</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="52.5">
+      <c r="A30" s="5">
+        <v>43867</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="178.5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
@@ -21006,6 +21252,41 @@
       <c r="C305" s="4"/>
       <c r="D305" s="2"/>
       <c r="E305" s="7"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="5"/>
+      <c r="B306" s="2"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="7"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="5"/>
+      <c r="B307" s="2"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="2"/>
+      <c r="E307" s="7"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="5"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="7"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="5"/>
+      <c r="B309" s="2"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="7"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="5"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21016,13 +21297,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21077,35 +21358,29 @@
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1">
+    <row r="4" spans="1:5" ht="58.5" customHeight="1">
       <c r="A4" s="5">
-        <v>43924</v>
+        <v>43929</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>352</v>
+        <v>467</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1">
-      <c r="A5" s="5">
-        <v>43924</v>
-      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="58.5" customHeight="1">
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>469</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="11" t="s">
-        <v>437</v>
-      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="42" customHeight="1">
       <c r="A6" s="5">
@@ -21115,10 +21390,12 @@
         <v>352</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1">
       <c r="A7" s="5">
@@ -21128,87 +21405,83 @@
         <v>352</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="56.25" customHeight="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" customHeight="1">
       <c r="A8" s="5">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="45" customHeight="1">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" ht="42" customHeight="1">
+      <c r="A9" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A10" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" customHeight="1">
+      <c r="A11" s="3">
         <v>43916</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="96" customHeight="1">
-      <c r="A10" s="3">
-        <v>43915</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A11" s="3">
-        <v>43914</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21">
+        <v>438</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="96" customHeight="1">
       <c r="A12" s="3">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.5">
+        <v>448</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="100.5" customHeight="1">
       <c r="A13" s="3">
         <v>43914</v>
       </c>
@@ -21216,14 +21489,14 @@
         <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="3">
         <v>43914</v>
       </c>
@@ -21231,109 +21504,111 @@
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5">
       <c r="A15" s="3">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="113.25" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="63">
+      <c r="A17" s="3">
+        <v>43913</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A18" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="147">
-      <c r="A17" s="3">
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="147">
+      <c r="A19" s="3">
         <v>43910</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="42">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="52.5">
-      <c r="A19" s="3">
-        <v>43909</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="42">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="52.5">
+      <c r="A21" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A20" s="3">
-        <v>43909</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A21" s="3">
-        <v>43908</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>333</v>
@@ -21342,76 +21617,76 @@
     </row>
     <row r="22" spans="1:5" ht="95.25" customHeight="1">
       <c r="A22" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A23" s="3">
         <v>43908</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="3">
-        <v>43901</v>
-      </c>
-      <c r="B23" s="7"/>
       <c r="C23" s="4" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A24" s="3">
+        <v>43908</v>
+      </c>
       <c r="B24" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A25" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A25" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21">
-      <c r="A26" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="4"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="21">
+    <row r="27" spans="1:5" ht="100.5" customHeight="1">
       <c r="A27" s="3">
         <v>43898</v>
       </c>
@@ -21419,330 +21694,332 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21">
+      <c r="A28" s="3">
+        <v>43898</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="157.5">
-      <c r="A28" s="3">
-        <v>43889</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="21">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>43898</v>
+      </c>
       <c r="B29" s="7" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="31.5">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:5" ht="157.5">
+      <c r="A30" s="3">
+        <v>43889</v>
+      </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="42">
+    <row r="31" spans="1:5" ht="21">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="42">
+    <row r="32" spans="1:5" ht="31.5">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="42">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="23.25" customHeight="1">
+    <row r="34" spans="1:5" ht="42">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A35" s="3">
-        <v>43897</v>
-      </c>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A36" s="3">
-        <v>43893</v>
-      </c>
+      <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="90.75" customHeight="1">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="23.25" customHeight="1">
       <c r="A37" s="3">
-        <v>43888</v>
+        <v>43897</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>131</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="42">
+    <row r="38" spans="1:5" ht="23.25" customHeight="1">
       <c r="A38" s="3">
-        <v>43885</v>
+        <v>43893</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="73.5" customHeight="1">
+      <c r="E38" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="90.75" customHeight="1">
       <c r="A39" s="3">
-        <v>43873</v>
+        <v>43888</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>166</v>
+        <v>396</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="22.5" customHeight="1">
+    <row r="40" spans="1:5" ht="42">
       <c r="A40" s="3">
-        <v>43872</v>
+        <v>43885</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>420</v>
+        <v>142</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="22.5" customHeight="1">
+    <row r="41" spans="1:5" ht="73.5" customHeight="1">
       <c r="A41" s="3">
-        <v>43860</v>
+        <v>43873</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3">
+        <v>43872</v>
+      </c>
       <c r="B42" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="52.5">
-      <c r="A44" s="3">
-        <v>43860</v>
-      </c>
+    <row r="44" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>167</v>
+        <v>430</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="357">
-      <c r="A45" s="3">
-        <v>43859</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>169</v>
-      </c>
+    <row r="45" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="31.5">
-      <c r="A46" s="3"/>
+    <row r="46" spans="1:5" ht="52.5">
+      <c r="A46" s="3">
+        <v>43860</v>
+      </c>
       <c r="B46" s="7" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="157.5">
-      <c r="A47" s="3"/>
+    <row r="47" spans="1:5" ht="357">
+      <c r="A47" s="3">
+        <v>43859</v>
+      </c>
       <c r="B47" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="31.5">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1">
-      <c r="A49" s="3">
-        <v>43914</v>
-      </c>
+    <row r="49" spans="1:5" ht="157.5">
+      <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>273</v>
+        <v>130</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="81" customHeight="1">
-      <c r="A50" s="3">
-        <v>43912</v>
-      </c>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>301</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" ht="41.25" customHeight="1">
+    <row r="51" spans="1:5" ht="30" customHeight="1">
       <c r="A51" s="3">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>302</v>
+        <v>274</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="141" customHeight="1">
+    <row r="52" spans="1:5" ht="81" customHeight="1">
       <c r="A52" s="3">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>304</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="17.25" customHeight="1">
+    <row r="53" spans="1:5" ht="41.25" customHeight="1">
       <c r="A53" s="3">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" ht="72" customHeight="1">
+    <row r="54" spans="1:5" ht="141" customHeight="1">
       <c r="A54" s="3">
         <v>43911</v>
       </c>
@@ -21750,22 +22027,36 @@
         <v>300</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D54" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="4"/>
+    <row r="55" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A55" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="4"/>
+    <row r="56" spans="1:5" ht="72" customHeight="1">
+      <c r="A56" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="7"/>
     </row>
@@ -23827,17 +24118,31 @@
       <c r="D350" s="4"/>
       <c r="E350" s="7"/>
     </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="3"/>
+      <c r="B351" s="7"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="7"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="3"/>
+      <c r="B352" s="7"/>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+      <c r="E352" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1"/>
-    <hyperlink ref="E25" r:id="rId2"/>
-    <hyperlink ref="D37" r:id="rId3"/>
-    <hyperlink ref="E36" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId2"/>
+    <hyperlink ref="D39" r:id="rId3"/>
+    <hyperlink ref="E38" r:id="rId4"/>
     <hyperlink ref="E2" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="E7" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -26774,10 +27079,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26795,10 +27100,18 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
         <v>43917</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
+++ b/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="6030" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="CB and gov actions" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="489">
   <si>
     <t>Person</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2354,16 +2354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Full statement below. The relevant paragraphs are 12 to 21.
-Conditionality to access the ESM funds will be temporary eased during the Covid crisis. That’s  a victory for Italy/Spain/France.
-Language about ‘innovative financial instruments’ suggests Eurobonds are on the table. A victory for France et al.
-The Dutch got three things: 1) the easier conditionality for ESM is temporary, 2) the Eurogroup agreed to return to fiscal commitment once the crisis is over and 3) the SURE program is also limited to the duration of the current crisis. May not sound like much but they can claim a moral victory of sort which will be valuable domestically.
-All in, a near term rupture has been avoided. European leaders, including the ECB will no doubt talk this up.
-Report on the comprehensive economic policy response to the COVID-19 pandemic
-Tomas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.consilium.europa.eu/en/press/press-releases/2020/04/09/report-on-the-comprehensive-economic-policy-response-to-the-covid-19-pandemic/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2519,14 +2509,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nagy is on a call now with GS. Complete 180 in policy. Push implied up to any level (i.e. above 90). Wants to tighten financial conditions (opposite of what he said at NBH meeting 2 weeks ago, and 1 month ago on BOA call), liquidity will only be injected in 3y-5y sector. Will never increase FX swaps again, only roll or reduce. ON depo will be phased out so all rates will be at 90bp. Can hike rates further if needed.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*HUNGARY'S ORBAN ANNOUNCES STIMULUS PLAN WORTH 18-20% OF GDP
-BNP
-These headlines are in line what has been signalled over the weekend
-JP
-This combined with fixing only +1 today and with the aggressive flattening we have seen, i would suggest the curve steepens from here</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2603,6 +2585,111 @@
 They listed additional QE and strengthened forward guidance. The former has of course been utilized since. The latter could be forthcoming.
 They did not mention yield curve control. I don’t read that as rejection; more that it wasn’t relevant at the time.
 There were concerns from a ‘few’ and ‘some’ about cutting to ELB. Given what has since transpired I think any such disagreement can be safely ignored.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full statement below. The relevant paragraphs are 12 to 21.
+Conditionality to access the ESM funds will be temporary eased during the Covid crisis. That’s  a victory for Italy/Spain/France.
+Language about ‘innovative financial instruments’ suggests Eurobonds are on the table. A victory for France et al.
+The Dutch got three things: 1) the easier conditionality for ESM is temporary, 2) the Eurogroup agreed to return to fiscal commitment once the crisis is over and 3) the SURE program is also limited to the duration of the current crisis. May not sound like much but they can claim a moral victory of sort which will be valuable domestically.
+All in, a near term rupture has been avoided. European leaders, including the ECB will no doubt talk this up.
+Report on the comprehensive economic policy response to the COVID-19 pandemic
+Tomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total loss over 2020/21 vs prior baseline is estimated to be $9 trillion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imf.org/en/Publications/WEO/Issues/2020/04/14/weo-april-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are two main messages here, the first more market relevant than the second:
+1)    The Fed’s aims are to provide support today and to ensure a robust recovery in the future. So more support may be forthcoming and it will be in place until both goals are achieved (i.e. for some time).
+2)     The Fed actions are well anchored legally and politically, i.e. they are not over stepping.
+Highlights, underlines, etc. are mine.The Fed can also contribute in important ways: by providing a measure of relief and stability during this period of constrained economic activity, and by using our tools to ensure that the eventual recovery is as vigorous as possible.many channels that households, businesses, and state and local governments rely on for credit had simply stopped working.We are deploying these lending powers to an unprecedented extent, enabled in large part by the financial backing from Congress and the Treasury. We will continue to use these powers forcefully, proactively, and aggressively until we are confident that we are solidly on the road to recovery. When the economy is well on its way back to recovery, and private markets and institutions are once again able to perform their vital functions of channeling credit and supporting economic growth, we will put these emergency tools away. There is every reason to believe that the economic rebound, when it comes, can be robust.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*HUNGARY RAISES 1-WEEK COLLATERALIZED LOAN RATE TO 1.85%
+*HUNGARY CENTRAL BANK READY TO USE ALL TOOLS TO ACHIEVE MANDATE
+*HUNGARIAN CENTRAL BANK:TO LAUNCH FUNDING FOR GROWTH SCHEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*HUNGARY'S ORBAN ANNOUNCES STIMULUS PLAN WORTH 18-20% OF GDP
+BNP
+These headlines are in line what has been signalled over the weekend
+JP
+This combined with fixing only +1 today and with the aggressive flattening we have seen, i would suggest the curve steepens from here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ECB ANNOUNCES PACKAGE OF TEMPORARY COLLATERAL EASING MEASURES
+*ECB DECIDES TO ACCEPT GREEK GOVERNMENT BONDS AS COLLATERAL
+*ECB EASES THE CONDITIONS FOR CREDIT CLAIMS AS COLLATERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECB accept collateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLISH CENTRAL BANK CUTS MAIN RATE TO 0.50%; EST. 1.00%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK OF KOREA LEAVES KEY INTEREST RATE UNCHANGED AT 0.75% (as expected)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*BOK: GROWTH TO BE BELOW FEB. PROJECTION BY `LARGE MARGIN'
+*BOK: UNCERTAINTIES ON GROWTH PATH VERY HIGH
+*BOK: CPI TO BE BELOW FEB. PROJECTION BY SIGNIFICANT MARGIN
+*BOK: TO MAINTAIN ACCOMMODATIVE POLICY STANCE
+*BOK: TO JUDGE WHETHER TO ADJUST DEGREE OF POLICY ACCOMMODATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fed Announces New Facilities to Support $2.3 Trillion in Lending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary of the Fed action we’ve seen
+1/ Secondary market program increased now to $750B
+2/ Still buying eligible bonds of 5 years or less maturity. The Eligible Corporates/Bonds definition is EXPANDED - and this is key - to INCLUDE names of which were IG as of 3/22 and have subsequently been downgraded as long as they are low BB still. Eligibility remains tied to Companies not taking CARES act funding
+3/ Eligible ETFs expanded - majority of holdings will be to IG bonds but they are ADDING ETFs 'whose primary investment objective is exposure to U.S. high-yield corporate bonds.'
+4/ Limits changed - now eligible issuer is capped at 1.5% of the facility (11.25B - 1.5% of 750B) and cannot own more than 10% of any issuers maximum bonds outstanding. Facility cannot own more than 20% of any ETF.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.federalreserve.gov/newsevents/pressreleases/files/monetary20200409a2.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2676,6 +2763,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2778,13 +2866,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>315241</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2200274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2818,13 +2906,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228724</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1609725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2858,13 +2946,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>991264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2898,13 +2986,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1995121</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2938,13 +3026,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>412239</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>504824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1676399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2978,13 +3066,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>461701</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3018,13 +3106,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1149080</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3058,13 +3146,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>865322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3019425</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4113,14 +4201,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>345009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>485774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4138,8 +4226,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12449175" y="133350"/>
-          <a:ext cx="4772025" cy="3486150"/>
+          <a:off x="13601700" y="2735784"/>
+          <a:ext cx="1209675" cy="883715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,13 +4241,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>455164</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1781176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4193,13 +4281,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1288767</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>876299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4233,13 +4321,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5638</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1666875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4273,13 +4361,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>240251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4313,13 +4401,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161763</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4340,6 +4428,46 @@
         <a:xfrm>
           <a:off x="9010488" y="8248650"/>
           <a:ext cx="2362362" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12963525" y="152673"/>
+          <a:ext cx="657225" cy="942702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4767,13 +4895,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1302"/>
+  <dimension ref="A1:J1308"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4804,159 +4932,166 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="94.5">
+    <row r="2" spans="1:10" ht="199.5">
       <c r="A2" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52.5">
+      <c r="A3" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="31.5">
+      <c r="A6" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="31.5">
+      <c r="A7" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="63">
+      <c r="A8" s="5">
         <v>43927</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="89.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="89.25" customHeight="1">
+      <c r="A9" s="5">
         <v>43921</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="147">
-      <c r="A4" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="I4" s="5">
-        <v>43860</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="42">
-      <c r="A5" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="201" customHeight="1">
-      <c r="A6" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="31.5">
-      <c r="A9" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="136.5">
+    <row r="10" spans="1:10" ht="147">
       <c r="A10" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="73.5">
+      <c r="I10" s="5">
+        <v>43860</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42">
       <c r="A11" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>177</v>
@@ -4965,333 +5100,328 @@
         <v>182</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="F11" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="201" customHeight="1">
       <c r="A12" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="40.5" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="5">
         <v>43920</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="105" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="136.5">
       <c r="A16" s="5">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="21">
+    <row r="17" spans="1:6" ht="73.5">
       <c r="A17" s="5">
         <v>43920</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="136.5">
-      <c r="A18" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="21">
+    <row r="19" spans="1:6">
       <c r="A19" s="5">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="168">
+        <v>166</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="5">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="106.5" customHeight="1">
+        <v>188</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="40.5" customHeight="1">
       <c r="A21" s="5">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="105" customHeight="1">
       <c r="A22" s="5">
         <v>43919</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.5">
+        <v>204</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="21">
       <c r="A23" s="5">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="136.5">
       <c r="A24" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="157.5">
+        <v>194</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="21">
       <c r="A25" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="168">
       <c r="A26" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="115.5">
+        <v>166</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="106.5" customHeight="1">
       <c r="A27" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="199.5">
+        <v>215</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="5">
         <v>43917</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="136.5">
+      <c r="F29" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="5">
         <v>43917</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="94.5">
+    <row r="31" spans="1:6" ht="157.5">
       <c r="A31" s="5">
         <v>43917</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>222</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F31" s="6"/>
     </row>
@@ -5300,60 +5430,60 @@
         <v>43917</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="84">
+    <row r="33" spans="1:6" ht="115.5">
       <c r="A33" s="5">
         <v>43917</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>241</v>
+      <c r="E33" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="199.5">
       <c r="A34" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="94.5">
+    <row r="35" spans="1:6">
       <c r="A35" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>222</v>
@@ -5361,15 +5491,15 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="136.5">
       <c r="A36" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>144</v>
@@ -5377,60 +5507,64 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="189">
+    <row r="37" spans="1:6" ht="94.5">
       <c r="A37" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="21">
+    <row r="39" spans="1:6" ht="84">
       <c r="A39" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="115.5">
+    <row r="40" spans="1:6">
       <c r="A40" s="5">
         <v>43916</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>221</v>
@@ -5441,72 +5575,66 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="178.5">
+    <row r="41" spans="1:6" ht="94.5">
       <c r="A41" s="5">
         <v>43916</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>254</v>
-      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="74.25" customHeight="1">
+    <row r="42" spans="1:6">
       <c r="A42" s="5">
         <v>43916</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>256</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="66.75" customHeight="1">
+    <row r="43" spans="1:6" ht="189">
       <c r="A43" s="5">
         <v>43916</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>258</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="84">
+    <row r="44" spans="1:6">
       <c r="A44" s="5">
         <v>43916</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -5516,142 +5644,144 @@
         <v>43916</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" ht="94.5">
+    <row r="46" spans="1:6" ht="115.5">
       <c r="A46" s="5">
         <v>43916</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="63">
+    <row r="47" spans="1:6" ht="178.5">
       <c r="A47" s="5">
         <v>43916</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" ht="67.5">
+    <row r="48" spans="1:6" ht="74.25" customHeight="1">
       <c r="A48" s="5">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="80.25" customHeight="1">
+      <c r="E48" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="66.75" customHeight="1">
       <c r="A49" s="5">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="84">
       <c r="A50" s="5">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" ht="84">
+    <row r="51" spans="1:6" ht="21">
       <c r="A51" s="5">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>269</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="66" customHeight="1">
+    <row r="52" spans="1:6" ht="94.5">
       <c r="A52" s="5">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="74.25" customHeight="1">
+    <row r="53" spans="1:6" ht="63">
       <c r="A53" s="5">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>222</v>
@@ -5659,76 +5789,80 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="67.5">
       <c r="A54" s="5">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="80.25" customHeight="1">
       <c r="A55" s="5">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" ht="94.5">
+    <row r="56" spans="1:6">
       <c r="A56" s="5">
         <v>43914</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" ht="30.75" customHeight="1">
+    <row r="57" spans="1:6" ht="84">
       <c r="A57" s="5">
         <v>43914</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="66" customHeight="1">
       <c r="A58" s="5">
         <v>43914</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>221</v>
@@ -5739,18 +5873,18 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" ht="21">
+    <row r="59" spans="1:6" ht="74.25" customHeight="1">
       <c r="A59" s="5">
         <v>43914</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -5760,13 +5894,13 @@
         <v>43914</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -5776,42 +5910,42 @@
         <v>43914</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" ht="42" customHeight="1">
+    <row r="62" spans="1:6" ht="94.5">
       <c r="A62" s="5">
         <v>43914</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" ht="27" customHeight="1">
+    <row r="63" spans="1:6" ht="30.75" customHeight="1">
       <c r="A63" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>194</v>
@@ -5819,31 +5953,31 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" ht="31.5">
+    <row r="64" spans="1:6">
       <c r="A64" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" ht="21" customHeight="1">
+    <row r="65" spans="1:6" ht="21">
       <c r="A65" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>194</v>
@@ -5851,45 +5985,47 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" ht="67.5" customHeight="1">
+    <row r="66" spans="1:6">
       <c r="A66" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" ht="42" customHeight="1">
+    <row r="67" spans="1:6">
       <c r="A67" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" ht="42">
+    <row r="68" spans="1:6" ht="42" customHeight="1">
       <c r="A68" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>194</v>
@@ -5897,31 +6033,31 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" ht="28.5" customHeight="1">
+    <row r="69" spans="1:6" ht="27" customHeight="1">
       <c r="A69" s="5">
         <v>43913</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="31.5">
       <c r="A70" s="5">
         <v>43913</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>194</v>
@@ -5929,63 +6065,61 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" ht="63.75" customHeight="1">
+    <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="A71" s="5">
         <v>43913</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="67.5" customHeight="1">
       <c r="A72" s="5">
         <v>43913</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>238</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="52.5">
+    <row r="73" spans="1:6" ht="42" customHeight="1">
       <c r="A73" s="5">
         <v>43913</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="42">
       <c r="A74" s="5">
         <v>43913</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>194</v>
@@ -5993,15 +6127,15 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" ht="51" customHeight="1">
+    <row r="75" spans="1:6" ht="28.5" customHeight="1">
       <c r="A75" s="5">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>222</v>
@@ -6011,29 +6145,29 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="63.75" customHeight="1">
       <c r="A77" s="5">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>222</v>
@@ -6043,66 +6177,64 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" ht="21">
+    <row r="79" spans="1:6" ht="52.5">
       <c r="A79" s="5">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>313</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" ht="21">
+    <row r="80" spans="1:6">
       <c r="A80" s="5">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="51" customHeight="1">
       <c r="A81" s="5">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -6112,10 +6244,10 @@
         <v>43910</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>222</v>
@@ -6123,193 +6255,195 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" ht="31.5">
+    <row r="83" spans="1:6">
       <c r="A83" s="5">
         <v>43910</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>320</v>
-      </c>
+      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" ht="60" customHeight="1">
+    <row r="84" spans="1:6">
       <c r="A84" s="5">
         <v>43910</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="21">
       <c r="A85" s="5">
         <v>43910</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E85" s="6"/>
+      <c r="E85" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="21">
       <c r="A86" s="5">
         <v>43910</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" ht="73.5">
+    <row r="87" spans="1:6">
       <c r="A87" s="5">
         <v>43910</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" ht="52.5">
+    <row r="88" spans="1:6">
       <c r="A88" s="5">
         <v>43910</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" ht="42.75" customHeight="1">
+    <row r="89" spans="1:6" ht="31.5">
       <c r="A89" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E89" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>320</v>
+      </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="60" customHeight="1">
       <c r="A90" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" ht="51" customHeight="1">
+    <row r="91" spans="1:6">
       <c r="A91" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="21">
+    <row r="93" spans="1:6" ht="73.5">
       <c r="A93" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" ht="43.5" customHeight="1">
+    <row r="94" spans="1:6" ht="52.5">
       <c r="A94" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>327</v>
@@ -6317,15 +6451,15 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" ht="115.5" customHeight="1">
+    <row r="95" spans="1:6" ht="42.75" customHeight="1">
       <c r="A95" s="5">
         <v>43909</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>327</v>
@@ -6333,47 +6467,47 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" ht="41.25" customHeight="1">
+    <row r="96" spans="1:6">
       <c r="A96" s="5">
         <v>43909</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="51" customHeight="1">
       <c r="A97" s="5">
         <v>43909</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" ht="21">
+    <row r="98" spans="1:6">
       <c r="A98" s="5">
         <v>43909</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>327</v>
@@ -6381,31 +6515,31 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="21">
       <c r="A99" s="5">
         <v>43909</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="43.5" customHeight="1">
       <c r="A100" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>327</v>
@@ -6413,44 +6547,44 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" ht="73.5">
+    <row r="101" spans="1:6" ht="115.5" customHeight="1">
       <c r="A101" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" ht="58.5" customHeight="1">
+    <row r="102" spans="1:6" ht="41.25" customHeight="1">
       <c r="A102" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" ht="34.5" customHeight="1">
+    <row r="103" spans="1:6">
       <c r="A103" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>335</v>
@@ -6461,34 +6595,34 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" ht="64.5" customHeight="1">
+    <row r="104" spans="1:6" ht="21">
       <c r="A104" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -6498,10 +6632,10 @@
         <v>43908</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>327</v>
@@ -6509,28 +6643,28 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" ht="40.5" customHeight="1">
+    <row r="107" spans="1:6" ht="73.5">
       <c r="A107" s="5">
         <v>43908</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" ht="52.5">
+    <row r="108" spans="1:6" ht="58.5" customHeight="1">
       <c r="A108" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>335</v>
@@ -6541,15 +6675,15 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" ht="73.5">
+    <row r="109" spans="1:6" ht="34.5" customHeight="1">
       <c r="A109" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>327</v>
@@ -6557,15 +6691,15 @@
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="64.5" customHeight="1">
       <c r="A110" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>347</v>
@@ -6575,60 +6709,58 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" ht="40.5">
+    <row r="112" spans="1:6">
       <c r="A112" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E112" s="6"/>
-      <c r="F112" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" ht="40.5" customHeight="1">
       <c r="A113" s="5">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="52.5">
       <c r="A114" s="5">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>335</v>
@@ -6639,15 +6771,15 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="73.5">
       <c r="A115" s="5">
-        <v>43902</v>
+        <v>43907</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>327</v>
@@ -6655,31 +6787,31 @@
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" ht="38.25" customHeight="1">
+    <row r="116" spans="1:6">
       <c r="A116" s="5">
-        <v>43899</v>
+        <v>43907</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="5">
-        <v>43894</v>
+        <v>43907</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>327</v>
@@ -6687,12 +6819,12 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="40.5">
       <c r="A118" s="5">
-        <v>43893</v>
+        <v>43907</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>335</v>
@@ -6701,49 +6833,51 @@
         <v>327</v>
       </c>
       <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="1:6" ht="63">
+      <c r="F118" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="5">
-        <v>43892</v>
+        <v>43906</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>194</v>
+        <v>372</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6" ht="31.5">
+    <row r="120" spans="1:6">
       <c r="A120" s="5">
-        <v>43868</v>
+        <v>43904</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>327</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" ht="21">
+    <row r="121" spans="1:6">
       <c r="A121" s="5">
-        <v>43867</v>
+        <v>43902</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>327</v>
@@ -6751,51 +6885,99 @@
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="5"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+    <row r="122" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A122" s="5">
+        <v>43899</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="5"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="A123" s="5">
+        <v>43894</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="5"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="A124" s="5">
+        <v>43893</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="5"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+    <row r="125" spans="1:6" ht="63">
+      <c r="A125" s="5">
+        <v>43892</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="5"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+    <row r="126" spans="1:6" ht="31.5">
+      <c r="A126" s="5">
+        <v>43868</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="5"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+    <row r="127" spans="1:6" ht="21">
+      <c r="A127" s="5">
+        <v>43867</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
     </row>
@@ -7928,82 +8110,106 @@
       <c r="F268" s="6"/>
     </row>
     <row r="269" spans="1:6">
+      <c r="A269" s="5"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
     </row>
     <row r="270" spans="1:6">
+      <c r="A270" s="5"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
     </row>
     <row r="271" spans="1:6">
+      <c r="A271" s="5"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
     </row>
     <row r="272" spans="1:6">
+      <c r="A272" s="5"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
     </row>
-    <row r="273" spans="5:6">
+    <row r="273" spans="1:6">
+      <c r="A273" s="5"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
     </row>
-    <row r="274" spans="5:6">
+    <row r="274" spans="1:6">
+      <c r="A274" s="5"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
     </row>
-    <row r="275" spans="5:6">
+    <row r="275" spans="1:6">
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
     </row>
-    <row r="276" spans="5:6">
+    <row r="276" spans="1:6">
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
     </row>
-    <row r="277" spans="5:6">
+    <row r="277" spans="1:6">
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
     </row>
-    <row r="278" spans="5:6">
+    <row r="278" spans="1:6">
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="5:6">
+    <row r="279" spans="1:6">
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="5:6">
+    <row r="280" spans="1:6">
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="5:6">
+    <row r="281" spans="1:6">
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
     </row>
-    <row r="282" spans="5:6">
+    <row r="282" spans="1:6">
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
     </row>
-    <row r="283" spans="5:6">
+    <row r="283" spans="1:6">
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
     </row>
-    <row r="284" spans="5:6">
+    <row r="284" spans="1:6">
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
     </row>
-    <row r="285" spans="5:6">
+    <row r="285" spans="1:6">
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
     </row>
-    <row r="286" spans="5:6">
+    <row r="286" spans="1:6">
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
     </row>
-    <row r="287" spans="5:6">
+    <row r="287" spans="1:6">
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="5:6">
+    <row r="288" spans="1:6">
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
     </row>
@@ -12063,19 +12269,44 @@
       <c r="E1302" s="6"/>
       <c r="F1302" s="6"/>
     </row>
+    <row r="1303" spans="5:6">
+      <c r="E1303" s="6"/>
+      <c r="F1303" s="6"/>
+    </row>
+    <row r="1304" spans="5:6">
+      <c r="E1304" s="6"/>
+      <c r="F1304" s="6"/>
+    </row>
+    <row r="1305" spans="5:6">
+      <c r="E1305" s="6"/>
+      <c r="F1305" s="6"/>
+    </row>
+    <row r="1306" spans="5:6">
+      <c r="E1306" s="6"/>
+      <c r="F1306" s="6"/>
+    </row>
+    <row r="1307" spans="5:6">
+      <c r="E1307" s="6"/>
+      <c r="F1307" s="6"/>
+    </row>
+    <row r="1308" spans="5:6">
+      <c r="E1308" s="6"/>
+      <c r="F1308" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F21" r:id="rId2"/>
-    <hyperlink ref="F23" r:id="rId3"/>
-    <hyperlink ref="F48" r:id="rId4"/>
-    <hyperlink ref="E83" r:id="rId5"/>
-    <hyperlink ref="F112" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F27" r:id="rId2"/>
+    <hyperlink ref="F29" r:id="rId3"/>
+    <hyperlink ref="F54" r:id="rId4"/>
+    <hyperlink ref="E89" r:id="rId5"/>
+    <hyperlink ref="F118" r:id="rId6"/>
+    <hyperlink ref="F2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -12115,10 +12346,10 @@
         <v>43923</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
@@ -12126,14 +12357,14 @@
         <v>43921</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -14870,10 +15101,10 @@
         <v>43928</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -14881,10 +15112,10 @@
     <row r="3" spans="1:15">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -14912,7 +15143,7 @@
         <v>373</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -18915,10 +19146,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -18928,7 +19159,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -18938,13 +19169,13 @@
         <v>43922</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -18954,7 +19185,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18965,12 +19196,12 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="73.5">
+    <row r="7" spans="1:5" ht="52.5">
       <c r="A7" s="5">
         <v>43917</v>
       </c>
@@ -19002,7 +19233,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="73.5">
+    <row r="9" spans="1:5" ht="52.5">
       <c r="A9" s="5">
         <v>43901</v>
       </c>
@@ -19017,7 +19248,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="94.5">
+    <row r="10" spans="1:5" ht="42">
       <c r="A10" s="5">
         <v>43909</v>
       </c>
@@ -19032,7 +19263,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="105">
+    <row r="11" spans="1:5" ht="63">
       <c r="A11" s="5">
         <v>43909</v>
       </c>
@@ -19045,7 +19276,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="21">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>43909</v>
       </c>
@@ -19058,7 +19289,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="178.5">
+    <row r="13" spans="1:5" ht="126">
       <c r="A13" s="5">
         <v>43900</v>
       </c>
@@ -19073,7 +19304,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="31.5">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="5">
         <v>43900</v>
       </c>
@@ -19088,7 +19319,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="157.5">
+    <row r="15" spans="1:5" ht="115.5">
       <c r="A15" s="5">
         <v>43900</v>
       </c>
@@ -19103,7 +19334,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="210">
+    <row r="16" spans="1:5" ht="199.5">
       <c r="A16" s="5">
         <v>43900</v>
       </c>
@@ -19116,7 +19347,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="105">
+    <row r="17" spans="1:5" ht="52.5">
       <c r="A17" s="5">
         <v>43899</v>
       </c>
@@ -19148,7 +19379,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="31.5">
+    <row r="19" spans="1:5">
       <c r="A19" s="5">
         <v>43894</v>
       </c>
@@ -19163,7 +19394,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="168">
+    <row r="20" spans="1:5" ht="105">
       <c r="A20" s="5">
         <v>43893</v>
       </c>
@@ -19189,7 +19420,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="42">
+    <row r="22" spans="1:5" ht="21">
       <c r="A22" s="5">
         <v>43893</v>
       </c>
@@ -19202,7 +19433,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="42">
+    <row r="23" spans="1:5" ht="21">
       <c r="A23" s="5">
         <v>43888</v>
       </c>
@@ -19219,7 +19450,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.5">
+    <row r="24" spans="1:5">
       <c r="A24" s="5">
         <v>43887</v>
       </c>
@@ -19232,7 +19463,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="126">
+    <row r="25" spans="1:5" ht="73.5">
       <c r="A25" s="5">
         <v>43887</v>
       </c>
@@ -19260,7 +19491,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="147">
+    <row r="27" spans="1:5" ht="94.5">
       <c r="A27" s="5">
         <v>43875</v>
       </c>
@@ -19275,7 +19506,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="220.5">
+    <row r="28" spans="1:5" ht="157.5">
       <c r="A28" s="5">
         <v>43875</v>
       </c>
@@ -19307,7 +19538,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="52.5">
+    <row r="30" spans="1:5" ht="31.5">
       <c r="A30" s="5">
         <v>43867</v>
       </c>
@@ -19322,7 +19553,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="178.5">
+    <row r="31" spans="1:5" ht="84">
       <c r="A31" s="5"/>
       <c r="B31" s="2" t="s">
         <v>17</v>
@@ -21297,13 +21528,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E352"/>
+  <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21330,87 +21561,85 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57" customHeight="1">
+    <row r="2" spans="1:5" ht="26.25" customHeight="1">
       <c r="A2" s="5">
-        <v>43930</v>
+        <v>43935</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42" customHeight="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="89.25" customHeight="1">
       <c r="A3" s="5">
         <v>43930</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>352</v>
+        <v>472</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="58.5" customHeight="1">
+    <row r="4" spans="1:5" ht="106.5" customHeight="1">
       <c r="A4" s="5">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>467</v>
+        <v>352</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="58.5" customHeight="1">
-      <c r="A5" s="5"/>
+      <c r="E4" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1">
+      <c r="A5" s="5">
+        <v>43930</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="42" customHeight="1">
+    <row r="6" spans="1:5" ht="58.5" customHeight="1">
       <c r="A6" s="5">
-        <v>43924</v>
+        <v>43929</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>352</v>
+        <v>465</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="42" customHeight="1">
-      <c r="A7" s="5">
-        <v>43924</v>
-      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="83.25" customHeight="1">
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
-        <v>352</v>
+        <v>467</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="11" t="s">
-        <v>437</v>
-      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="42" customHeight="1">
       <c r="A8" s="5">
@@ -21420,10 +21649,12 @@
         <v>352</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="42" customHeight="1">
       <c r="A9" s="5">
@@ -21433,87 +21664,83 @@
         <v>352</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="56.25" customHeight="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42" customHeight="1">
       <c r="A10" s="5">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="45" customHeight="1">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" ht="42" customHeight="1">
+      <c r="A11" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A12" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" customHeight="1">
+      <c r="A13" s="3">
         <v>43916</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="96" customHeight="1">
-      <c r="A12" s="3">
-        <v>43915</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A13" s="3">
-        <v>43914</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21">
+        <v>437</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="96" customHeight="1">
       <c r="A14" s="3">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5">
+        <v>447</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="100.5" customHeight="1">
       <c r="A15" s="3">
         <v>43914</v>
       </c>
@@ -21521,14 +21748,14 @@
         <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="3">
         <v>43914</v>
       </c>
@@ -21536,109 +21763,111 @@
         <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5">
       <c r="A17" s="3">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="113.25" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="63">
+      <c r="A19" s="3">
+        <v>43913</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A20" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="147">
-      <c r="A19" s="3">
+      <c r="D20" s="4"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="147">
+      <c r="A21" s="3">
         <v>43910</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="42">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="52.5">
-      <c r="A21" s="3">
-        <v>43909</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="52.5">
+      <c r="A23" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A22" s="3">
-        <v>43909</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A23" s="3">
-        <v>43908</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>333</v>
@@ -21647,76 +21876,76 @@
     </row>
     <row r="24" spans="1:5" ht="95.25" customHeight="1">
       <c r="A24" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A25" s="3">
         <v>43908</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A25" s="3">
-        <v>43901</v>
-      </c>
-      <c r="B25" s="7"/>
       <c r="C25" s="4" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A26" s="3">
+        <v>43908</v>
+      </c>
       <c r="B26" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A27" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A27" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21">
-      <c r="A28" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="4"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="21">
+    <row r="29" spans="1:5" ht="100.5" customHeight="1">
       <c r="A29" s="3">
         <v>43898</v>
       </c>
@@ -21724,330 +21953,332 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21">
+      <c r="A30" s="3">
+        <v>43898</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="157.5">
-      <c r="A30" s="3">
-        <v>43889</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="21">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>43898</v>
+      </c>
       <c r="B31" s="7" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="31.5">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:5" ht="157.5">
+      <c r="A32" s="3">
+        <v>43889</v>
+      </c>
       <c r="B32" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="42">
+    <row r="33" spans="1:5" ht="21">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="42">
+    <row r="34" spans="1:5" ht="31.5">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="42">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="23.25" customHeight="1">
+    <row r="36" spans="1:5" ht="42">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A37" s="3">
-        <v>43897</v>
-      </c>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A38" s="3">
-        <v>43893</v>
-      </c>
+      <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="90.75" customHeight="1">
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="23.25" customHeight="1">
       <c r="A39" s="3">
-        <v>43888</v>
+        <v>43897</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>131</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="42">
+    <row r="40" spans="1:5" ht="23.25" customHeight="1">
       <c r="A40" s="3">
-        <v>43885</v>
+        <v>43893</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="73.5" customHeight="1">
+      <c r="E40" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="90.75" customHeight="1">
       <c r="A41" s="3">
-        <v>43873</v>
+        <v>43888</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>166</v>
+        <v>396</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="22.5" customHeight="1">
+    <row r="42" spans="1:5" ht="42">
       <c r="A42" s="3">
-        <v>43872</v>
+        <v>43885</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>420</v>
+        <v>142</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="22.5" customHeight="1">
+    <row r="43" spans="1:5" ht="73.5" customHeight="1">
       <c r="A43" s="3">
-        <v>43860</v>
+        <v>43873</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3">
+        <v>43872</v>
+      </c>
       <c r="B44" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="52.5">
-      <c r="A46" s="3">
-        <v>43860</v>
-      </c>
+    <row r="46" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>167</v>
+        <v>430</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="357">
-      <c r="A47" s="3">
-        <v>43859</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>169</v>
-      </c>
+    <row r="47" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="31.5">
-      <c r="A48" s="3"/>
+    <row r="48" spans="1:5" ht="52.5">
+      <c r="A48" s="3">
+        <v>43860</v>
+      </c>
       <c r="B48" s="7" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="157.5">
-      <c r="A49" s="3"/>
+    <row r="49" spans="1:5" ht="357">
+      <c r="A49" s="3">
+        <v>43859</v>
+      </c>
       <c r="B49" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="31.5">
       <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1">
-      <c r="A51" s="3">
-        <v>43914</v>
-      </c>
+    <row r="51" spans="1:5" ht="157.5">
+      <c r="A51" s="3"/>
       <c r="B51" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>273</v>
+        <v>130</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="81" customHeight="1">
-      <c r="A52" s="3">
-        <v>43912</v>
-      </c>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3"/>
       <c r="B52" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>301</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="41.25" customHeight="1">
+    <row r="53" spans="1:5" ht="30" customHeight="1">
       <c r="A53" s="3">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>302</v>
+        <v>274</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" ht="141" customHeight="1">
+    <row r="54" spans="1:5" ht="81" customHeight="1">
       <c r="A54" s="3">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>304</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="17.25" customHeight="1">
+    <row r="55" spans="1:5" ht="41.25" customHeight="1">
       <c r="A55" s="3">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="72" customHeight="1">
+    <row r="56" spans="1:5" ht="141" customHeight="1">
       <c r="A56" s="3">
         <v>43911</v>
       </c>
@@ -22055,22 +22286,36 @@
         <v>300</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="4"/>
+    <row r="57" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A57" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="4"/>
+    <row r="58" spans="1:5" ht="72" customHeight="1">
+      <c r="A58" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="7"/>
     </row>
@@ -24132,21 +24377,36 @@
       <c r="D352" s="4"/>
       <c r="E352" s="7"/>
     </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="3"/>
+      <c r="B353" s="7"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="7"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="3"/>
+      <c r="B354" s="7"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1"/>
-    <hyperlink ref="E27" r:id="rId2"/>
-    <hyperlink ref="D39" r:id="rId3"/>
-    <hyperlink ref="E38" r:id="rId4"/>
-    <hyperlink ref="E2" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E29" r:id="rId2"/>
+    <hyperlink ref="D41" r:id="rId3"/>
+    <hyperlink ref="E40" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -24155,10 +24415,10 @@
   <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:F1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27079,10 +27339,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27104,14 +27364,20 @@
         <v>43930</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
         <v>43917</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
+++ b/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="518">
   <si>
     <t>Person</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2524,11 +2524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Infra constr has entered high season in most regions Since infra construction started seasonal recovery from mid-to-late Feb, China avg. excavator on-duty ratio improved from less than 15% in early Feb to 38% in early Mar and to 77% in early Apr, reaching Mar 2019 avg level, c.5% below Apr 2019 avg. Mar 2020 avg. excavator on-duty ratio in China was 68%, -10%YoY. In early Apr, most regions, incl. East, SW, North, NE and NW China, saw excavator on-duty ratio reach 8090%, reaching or exceeding Apr 2019 level; provinces in and close to South China, such as Guangdong, Guangxi, Fujian and Hunan, saw YoY lower on-duty ratio of excavator for rainy days over the past week; in Hubei, excavator on-duty ratio recovered to 66% in early Apr (vs. less than 5% in Feb- early Mar 2020, and c.90% in Mar-Apr 2019).
-Ppty constr YoY decline narrowed to MSD% last week Property construction started notable recovery from early-to mid Mar, and was close to normal level last week. Tower crane’s on-duty ratio improved from 14.5% in Feb to 52% in Mar, down 27%YoY; in late Mar,  tower crane’s on-duty ratio reached 64% (down 13%YoY); considering tower crane fleet size expanded 8%YoY, we estimate the property construction YoY decline narrowed to MSD% in late Mar. In most regions, concrete mixing plants’ production just recovered to normal level last week given relatively late recovery of property construction compared with infra construction after newly added COVID-19 cases were under control in China; as such, China concrete sales declined by c.30%YoY in Mar, but will likely be flat YoY in Apr as increasing demand from infra construction could offset the slight YoY decline in property construction.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Andrew Law</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2681,6 +2676,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.federalreserve.gov/newsevents/pressreleases/files/monetary20200409a2.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Summary of the Fed action we’ve seen
 1/ Secondary market program increased now to $750B
 2/ Still buying eligible bonds of 5 years or less maturity. The Eligible Corporates/Bonds definition is EXPANDED - and this is key - to INCLUDE names of which were IG as of 3/22 and have subsequently been downgraded as long as they are low BB still. Eligibility remains tied to Companies not taking CARES act funding
@@ -2689,7 +2688,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.federalreserve.gov/newsevents/pressreleases/files/monetary20200409a2.pdf</t>
+    <t>FEDERAL RESERVE – RECOMMENDATION FOR AGGRESSIVE FORWARD GUIDANCE TO FOSTER A ROBUST AND SPEEDY RECOVERY.“The core of the AFG would be a commitment by the FOMC to keep interest rates at zero at least until unemployment has returned to 4 per cent and inflation since the start of 2020 has averaged 2.5 per cent and to undertake a new large scale asset purchase (QE) program at least until unemployment has returned to 5 per cent and inflation since the start of 2020 has averaged 2 per cent.”
+Harry Potter seeing the ball very clearly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew Law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EverCoreISI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU BARS BAILED-OUT COMPANIES FROM PAYING DIVIDENDS, BONUSES: FT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This seems quite compelling on a multi-month basis, given Hungary will have implied rates between 1-2% and Poland will likely cut 50bp again to 0 – along with Poland running a much bigger QE program.
+Positioning is the other way, long PLNHUF. There is very little investor money to come out of Hungary (portfolio investment has been minimal for years, and every RM account is deeply UW HUF assets). There is a lot of money which can come out of Poland.
+Given no one is paying interest in Hungary this year, I expect NBH to tighten to 180bp if HUF got weak - + reduce the FX stock program, and potential hike the deposit rate. Might not seem much, but will stand out against Poland having rates at 5bp in a month’s time
+Hungary is slightly weaker in COVID fundamentals – and with trade being a greater % of GDP it will have a bigger growth hit than Poland. Both have domestic political issues – I would actually say this is marginally in favour of HUF at the moment as we know what Orban is doing, we don’t know what PIS are doing about elections next month (one idea is to just extend Duda’s term for 2 years!). The delta on the political situation would change if EU took more interest in the matter, but I think it’s worth keeping in mind the EU still have not done anything proper about Poland’s changing of the constitutional courts and that has been an issue for nearly 3 years.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infra constr has entered high season in most regions Since infra construction started seasonal recovery from mid-to-late Feb, China avg. excavator on-duty ratio improved from less than 15% in early Feb to 38% in early Mar and to 77% in early Apr, reaching Mar 2019 avg level, c.5% below Apr 2019 avg. Mar 2020 avg. excavator on-duty ratio in China was 68%, -10%YoY. In early Apr, most regions, incl. East, SW, North, NE and NW China, saw excavator on-duty ratio reach 8090%, reaching or exceeding Apr 2019 level; provinces in and close to South China, such as Guangdong, Guangxi, Fujian and Hunan, saw YoY lower on-duty ratio of excavator for rainy days over the past week; in Hubei, excavator on-duty ratio recovered to 66% in early Apr (vs. less than 5% in Feb- early Mar 2020, and c.90% in Mar-Apr 2019).
+Ppty constr YoY decline narrowed to MSD% last week Property construction started notable recovery from early-to mid Mar, and was close to normal level last week. Tower crane’s on-duty ratio improved from 14.5% in Feb to 52% in Mar, down 27%YoY; in late Mar,  tower crane’s on-duty ratio reached 64% (down 13%YoY); considering tower crane fleet size expanded 8%YoY, we estimate the property construction YoY decline narrowed to MSD% in late Mar. In most regions, concrete mixing plants’ production just recovered to normal level last week given relatively late recovery of property construction compared with infra construction after newly added COVID-19 cases were under control in China; as such, China concrete sales declined by c.30%YoY in Mar, but will likely be flat YoY in Apr as increasing demand from infra construction could offset the slight YoY decline in property construction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHINA POLITBURO URGES STRONGER MACROPOLICY TO COUNTER IMPACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Had some phone issues apologies. FI generally opened weaker and then came back with the weak PMIs. Italy has held the bounce from yesterday afternoon/evening. Mkt definitely feels like we are in a bit of a limbo ahead of EU meeting, which is ironic given we are unlikely to get much from it.
+Tomas’s comment regarding Berlusconi was interesting and on balance should make agreement more likely. It sounds as though FI are positioning themselves ahead of a showdown in parliament over ESM. A large number of M5S representatives have declared themselves firmly against activation, so Berlusconi’s party will likely have an important role to play.
+Given what we know about history, it seems to me he will make the most of a position as kingmaker by either getting some sort of concessions up front (minister posts?), or as part of a new coalition after a potential government collapse.
+Overall I think the machinations of Italian politics will be the drivers of European spreads for a while longer.
+C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU Politics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS: 50bps in March
+50bps in 2q
+2% growth gdp global
+1.       Quarantine, 15-20% og global economy. China pmi 35. 2.5% gdp yoy
+2.       Spill over through.
+3.       Reduce good export to china
+4.       Damage to supply chain.
+5.       Hit to domestic spending affects countries outbreak, korea, Italy.
+a.       Air travel
+b.      Entertainment
+c.       Large gathering
+6.       1.3% in US gdp, 1% taken away.
+7.       Downside on consumer spending.
+a.       2-4% hit on consumer spending
+b.      Not only Q1, but also Q2, recession
+c.       Upside scenario unlikely.
+8.       Ultimately will be a V shape recovery
+9.       CB calls:
+a.       Fed move aggressively. Money might not do much?
+i.      Public health and fiscal more important, but CB not control                                                             ii.      They’ll be using their ability to do something
+iii.      Inflation is not a big concern
+b.      Doing nothing is tightening when market is pricing easing
+c.       Last year 75bps, economy not yet bounced higher
+10.   Start with 50bps cut this week
+11.   CAN, Japan looking to cut
+12.   Possibility of coordinated cut, next week, joint statement
+13.   China:
+a.       Latest data:
+i.      Far below normal
+ii.      2/3 firms restart
+1.       Migrate workers not back
+2.       Power genr, transportation 30% below normal
+iii.      Property trans 1/3 recovered
+iv.      Steel demand ½
+b.      Government stimulus:
+i.      Very weak q1(-6% annual), weak q2
+ii.      Worse than 08 crisis
+iii.      Significant easing, strong desire to addict to social target
+iv.      Shift from virus control to economic recovery
+v.      Fiscal:
+1.       3% increase in augmented fiscal deficit
+a.       Off-budget
+2.       200bps in RRR, 50bps in LRF rates, money easing
+3.       Credit growth
+4.       Don’t think there’s broad based housing easing
+5.       No large depreciation in CNY
+14.   Risky assets:
+a.       Still in the process of pricing the full range of possible outcomes
+b.      Long JPY/USD
+i.      Aggressive fed easing
+c.       Front end long: UK, CAN
+d.      Equity market:
+i.      fundamental
+ii.      valuation
+iii.      V shape:
+1.       Earning 2020, no growth.
+2.       2021: arise around 6%
+3.       Trough: 2900.
+4.       Earning yields 6%
+5.       Treasury yield 1%
+6.       Gap: 500 bps
+7.       End of the year: 3400, p/e 19.4
+8.       Downside: 2450.                        iv.      Very well orders:
+1.       Sell-off in beta-implied-would-be sector
+2.       Overweight:
+a.       Tech: software
+b.      Real estate
+c.       Health care sector
+3.       Overweight:
+a.       Domestic oriented companies
+4.       Dividend: 3.9%
+15.   Fed takes back 100bps? Too early to envision that. Depend on a lot on inflation number.
+16.   USA: 1.3% gdp, 0.9% q1, 0 q2(potential hit to consumer behaviour, weak in entertainment, public transportation, gambling).
+17.   PBOC will follow lock step? Won’t follow one-on-one steps. RMB: inflation high. Leverage. RMB outperf the others, maybe catch up a little bit. This is not a China issue anymore. Fed cut: dollar weakness.
+18.   How would they use the cash: 90% of US companies buy back desk 2-3 times than usual. Many maxing out. 8 bn dollars a day.
+19.   Fiscal policy: US and Europe. Now small, but likely to growth is community spread. Free up room to stabilize the economy. Money policy more quickly.
+20.   US election: implication: too early to tell. More of how admin deals with the crisis.
+21.   Europe: ECB: 10bps cut expected. March 12. Likely to join coordinated cut. QE will do more.
+a.       Eur: negative shock for the EU area, currency negative
+b.      EUR-MXN was popular trade in FX market
+c.       EUR rallying because risk reduction in the portfolio, carry trade extra.
+d.      Squeeze higher in the short term.
+e.      Hard to see the EUR rally a lot, will be pricin’ into EUR itself
+22.   Asset purchasing: ECB ramping up. Use convention first elsewhere.
+23.   Global credit event: depend on global recession in major economies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fivethirtyeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other links</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fivethirtyeight.com/</t>
+  </si>
+  <si>
+    <t>citi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Potter comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call Speakers for The U.S. Economic Outlook: What is Next for the Fed? With Simon Potter
+Speaker: Simon Potter – Former Head of the NY Markets Group at the Federal Reserve and Non-resident senior fellow at the Peterson Institute for International Economics
+Moderator: Andrew John Morton – Global Co-Head of Markets and Securities Services, Citi
+Highlights
+General Overview of Fed Programs thus far:
+·         The Fed has rolled out nearly every program from 2008 and much more. A big innovation has been the programs for lending to corporates which would have been unimaginable in 2008.
+·         The reason for these measures is that this is a very different type of shock than the GFC.
+·         When strain hit capital markets in late February and early March, the Fed took many steps in the markets. The majority of the action was in UST markets. They set records in terms of treasuries and agency MBS purchased.
+·         March 23 was a very important day in that the Fed used its full set of powers to announce lending to a wide range of counterparties within the US.
+·         While projecting this crisis is very difficult it is clear we will have a depression-like decrease in output and increase in unemployment. However, the recovery will be better than the typical depression scenario.
+·         While moral hazard is a concern, it is a much smaller concern when the crisis results from an exogenous shock as it did here.
+·         Does not see this as a time to let moral hazard bog down stimulus. That should be a concern for after the crisis.
+QE and Balance Sheet:
+·         While there are limits on the amount of buying the Fed can do, it can be much more comfortable in operating with a larger balance sheet than in 2008.
+·         One concern is that if rates are raised, the Fed could see potentially negative income on its balance sheet holdings.
+·         Imagines that the Main Street lending program will realize some losses on individual loans. The question is whether the income from the other loans compensates for this.
+·         In the past, the goal of QE programs was to get long and medium term interest rates down. That was not really the driving force of this QE.
+·         What does the Fed want to see in the yield curve? Low real rates, inflation compensation around its goal that is being transmitted into financial conditions.
+·         It may be difficult for private markets to absorb the massive amount of treasury issuance in the pipeline.
+·         Next week will be telling as the treasury will announce its more long term plans on how to finance its expenditure.
+Potential for Negative Rates:
+·         Right now, options markets are pricing a non-negligible chance of rates going below 0.
+·         The Fed has been clear this is not something they are considering at the moment.
+·         There is an argument that the Fed may want the market to price some chance of negative rates as it brings rates lower across the curve.
+·         Sees 0 evidence that mildly negative rates are helpful in Europe and Japan.
+Actions of the ECB:
+·         It is clear that different central banks recognized the severity of the crisis at different points.
+·         The ECB was one of the latter to realize it. There was also the mistake of saying its job is not to compress spreads.
+·         The ECB’s problem is much more difficult than the Fed’s. There are much more restrictions on its purchases.
+Upcoming Fed Meeting:
+·         Pro of raising IOER by 5 bps is that you eliminate the market dysfunction that accompanies negative rates trading.
+·         The con is that you do not usually raise your own funding costs during a depression/recession.
+·         There has not been much evidence of widespread negative rate trading yet.
+·         Sees 0 chance that Fed Funds will trade less than 0 with IOER where it is.
+Inflation Prospects:
+·         There is not actually a large amount of inflationary fiscal stimulus right now. It is mostly transfer payments to help households bridge the gap until reopening.
+·         This will in large part depend on how quickly incomes recover. Not very optimistic on this.
+·         Overall though, inflation will be much more driven by things like oil in the near term.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:\yangs\Third_yr_grad_English\relevant_file\workspace_zy\JY_completed\Caxton\script and emails\FOMC ECB one pager 20200429.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pwc.com/us/en/library/covid-19/pwc-covid-19-cfo-pulse-survey.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC bi-weekly global CFO survey and BAML’s weekly UK consumer survey both point to more subdued recoveries. This builds on the confidence shock theme I discussed throughout last week.
+PWC CFO Survey (link)
+·         The PWC survey show that an increasing share of companies expect a more elongated period until normalcy returns.
+·         In hypothetical scenario in which the virus goes away today, 48% thinks it will take 3m or longer for activity to fully return, up from 39% two weeks ago. That still strikes me as optimistic. First chart below.
+·         The same survey suggests that an increased number of companies plan to delay capex and greater concern about consumer weakness.
+BAML UK Consumer Survey (link)
+Today’s release paints a clear negative picture for outlook beyond the current lockdown.
+1.       32% plan to rein in spending, three times as many that plan to satisfy pent up demand (chart 10)
+2.       Ca 40% intend to save more vs 20% who intend to save less (chart 11)
+3.       People that have stopped working edged higher (chart 7),
+4.       mainly because there are more company closures (chart 8)
+5.       Survey respondents are still fairly upbeat about the return of normality; almost half expecting it to happen by September (chart 9).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">China Annual Political Meeting to Start May 22: Xinhua
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiscal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We expect the NPC to disclose the fiscal stimulus' size and mix, particularly on public capex boost (~US$280bn), and tax/consumption incentives for the private sector (~US$200bn), financed by the Rmb2-3trn new Covid-19 special treasury (for multiple usages including tax rebates, consumption incentives) and an Rmb1.35trn increase in local govt special bonds to Rmb3.5trn (largely for infrastructure capex and old residential building renovation). In turn, the cyclically adjusted aggregate fiscal balance could widen by 230bps.
+On social distancing measures, while the NPC may indicate further easing of travel restrictions to/from Beijing city post late-May, we still believe the current phase of softer (but possibly long-standing) social distancing could be ongoing for months, following the nationwide lock down in February and hard social distancing in March, capping the pace of consumption recovery.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2801,7 +3058,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2850,6 +3107,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2866,13 +3126,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>315241</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2200274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2906,13 +3166,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228724</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1609725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2946,13 +3206,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>991264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2986,13 +3246,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1995121</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3026,13 +3286,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>412239</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>504824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1676399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3066,13 +3326,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>461701</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3106,13 +3366,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1149080</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3146,13 +3406,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>865322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3019425</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3182,6 +3442,86 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1209674</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>477231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2343149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7991474" y="648681"/>
+          <a:ext cx="1133475" cy="370494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>348350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10668000" y="519800"/>
+          <a:ext cx="1695450" cy="861325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3191,13 +3531,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>214770</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3231,14 +3571,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>2234930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3271,13 +3611,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>375120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3311,13 +3651,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>136214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3351,13 +3691,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1039442</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>571499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1333499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3391,13 +3731,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>31216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3431,13 +3771,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1841579</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3471,13 +3811,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>616243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3511,13 +3851,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2307968</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3551,13 +3891,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>386103</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3591,13 +3931,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>508719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3631,13 +3971,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>361949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>302724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3671,13 +4011,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1435748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3716,13 +4056,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3000374</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>71728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3756,13 +4096,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97804</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>419099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3796,14 +4136,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>175973</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>742950</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3836,13 +4176,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3073853</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>895350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3876,13 +4216,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3039208</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3916,13 +4256,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3067050</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>127778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>666750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3956,13 +4296,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>935210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3996,13 +4336,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1254264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4036,13 +4376,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1895474</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>317664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4076,14 +4416,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1685924</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>223748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>962025</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4116,14 +4456,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>647380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2790825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1552575</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4156,13 +4496,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>242492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1714499</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>876299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4192,6 +4532,46 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>299047</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12672022" y="495300"/>
+          <a:ext cx="1205903" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4201,13 +4581,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>345009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>485774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4241,13 +4621,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>455164</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1781176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4281,13 +4661,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1288767</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>876299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4321,13 +4701,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5638</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>1666875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4361,13 +4741,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>240251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4401,13 +4781,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161763</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4439,16 +4819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2276475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152673</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>590550</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4466,8 +4846,48 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12963525" y="152673"/>
+          <a:off x="13087350" y="2362473"/>
           <a:ext cx="657225" cy="942702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>551929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13458824" y="723379"/>
+          <a:ext cx="866775" cy="724421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4598,6 +5018,86 @@
         <a:xfrm>
           <a:off x="95250" y="476250"/>
           <a:ext cx="8705850" cy="3400425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5600700" y="3876675"/>
+          <a:ext cx="3238500" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9001125" y="3848100"/>
+          <a:ext cx="6267450" cy="1952625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4895,13 +5395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1308"/>
+  <dimension ref="A1:J1311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4932,437 +5432,435 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="199.5">
+    <row r="2" spans="1:10" ht="114" customHeight="1">
       <c r="A2" s="5">
-        <v>43930</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>43950</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="52.5">
+        <v>517</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="199.5" customHeight="1">
       <c r="A3" s="5">
-        <v>43930</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>484</v>
+        <v>43950</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>507</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="81.75" customHeight="1">
       <c r="A4" s="5">
-        <v>43930</v>
+        <v>43941</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>475</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="157.5">
       <c r="A5" s="5">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="52.5">
+      <c r="A6" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.5">
-      <c r="A6" s="5">
-        <v>43928</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="5">
-        <v>43928</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="63">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
-        <v>43927</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>476</v>
+        <v>43929</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="89.25" customHeight="1">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="5">
-        <v>43921</v>
+        <v>43928</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="147">
+        <v>474</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="31.5">
       <c r="A10" s="5">
-        <v>43921</v>
+        <v>43928</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>180</v>
+        <v>473</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>179</v>
+        <v>456</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>474</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="I10" s="5">
-        <v>43860</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="42">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="63">
       <c r="A11" s="5">
-        <v>43921</v>
+        <v>43927</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>181</v>
+        <v>475</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>177</v>
+        <v>456</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>182</v>
+        <v>457</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="201" customHeight="1">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="89.25" customHeight="1">
       <c r="A12" s="5">
         <v>43921</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="147">
       <c r="A13" s="5">
         <v>43921</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13" s="5">
+        <v>43860</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="42">
       <c r="A14" s="5">
         <v>43921</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="31.5">
+        <v>182</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="201" customHeight="1">
       <c r="A15" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="136.5">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="73.5">
+    <row r="17" spans="1:6">
       <c r="A17" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="5">
         <v>43920</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="136.5">
       <c r="A19" s="5">
         <v>43920</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="73.5">
       <c r="A20" s="5">
         <v>43920</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="40.5" customHeight="1">
+    <row r="21" spans="1:6">
       <c r="A21" s="5">
         <v>43920</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="105" customHeight="1">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="5">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="21">
+    <row r="23" spans="1:6">
       <c r="A23" s="5">
         <v>43920</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A24" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="136.5">
-      <c r="A24" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="21">
+      <c r="E24" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="105" customHeight="1">
       <c r="A25" s="5">
         <v>43919</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="168">
+        <v>204</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="21">
       <c r="A26" s="5">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="106.5" customHeight="1">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="136.5">
       <c r="A27" s="5">
         <v>43919</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>194</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="21">
       <c r="A28" s="5">
         <v>43919</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>177</v>
@@ -5370,83 +5868,87 @@
       <c r="D28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.5">
+      <c r="E28" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="168">
       <c r="A29" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="106.5" customHeight="1">
       <c r="A30" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="157.5">
+        <v>166</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="5">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>224</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" s="5">
         <v>43917</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="115.5">
+      <c r="F32" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="5">
         <v>43917</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>221</v>
@@ -5454,25 +5956,25 @@
       <c r="D33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>228</v>
-      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="199.5">
+    <row r="34" spans="1:6" ht="157.5">
       <c r="A34" s="5">
         <v>43917</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
@@ -5480,10 +5982,10 @@
         <v>43917</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>222</v>
@@ -5491,38 +5993,38 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="136.5">
+    <row r="36" spans="1:6" ht="115.5">
       <c r="A36" s="5">
         <v>43917</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="94.5">
+    <row r="37" spans="1:6" ht="199.5">
       <c r="A37" s="5">
         <v>43917</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>234</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
@@ -5530,108 +6032,110 @@
         <v>43917</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="84">
+    <row r="39" spans="1:6" ht="136.5">
       <c r="A39" s="5">
         <v>43917</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>241</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="94.5">
       <c r="A40" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="94.5">
+    <row r="41" spans="1:6">
       <c r="A41" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="84">
       <c r="A42" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="189">
+    <row r="43" spans="1:6">
       <c r="A43" s="5">
         <v>43916</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="94.5">
       <c r="A44" s="5">
         <v>43916</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>222</v>
@@ -5639,62 +6143,60 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="21">
+    <row r="45" spans="1:6">
       <c r="A45" s="5">
         <v>43916</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" ht="115.5">
+    <row r="46" spans="1:6" ht="189">
       <c r="A46" s="5">
         <v>43916</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="178.5">
+    <row r="47" spans="1:6">
       <c r="A47" s="5">
         <v>43916</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>254</v>
-      </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" ht="74.25" customHeight="1">
+    <row r="48" spans="1:6" ht="21">
       <c r="A48" s="5">
         <v>43916</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>250</v>
@@ -5702,117 +6204,117 @@
       <c r="D48" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" ht="66.75" customHeight="1">
+    <row r="49" spans="1:6" ht="115.5">
       <c r="A49" s="5">
         <v>43916</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>258</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="84">
+    <row r="50" spans="1:6" ht="178.5">
       <c r="A50" s="5">
         <v>43916</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" ht="21">
+    <row r="51" spans="1:6" ht="74.25" customHeight="1">
       <c r="A51" s="5">
         <v>43916</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="94.5">
+    <row r="52" spans="1:6" ht="66.75" customHeight="1">
       <c r="A52" s="5">
         <v>43916</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="63">
+    <row r="53" spans="1:6" ht="84">
       <c r="A53" s="5">
         <v>43916</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" ht="67.5">
+    <row r="54" spans="1:6" ht="21">
       <c r="A54" s="5">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="80.25" customHeight="1">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="94.5">
       <c r="A55" s="5">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>221</v>
@@ -5823,94 +6325,96 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="63">
       <c r="A56" s="5">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" ht="84">
+    <row r="57" spans="1:6" ht="67.5">
       <c r="A57" s="5">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" ht="66" customHeight="1">
+        <v>222</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="80.25" customHeight="1">
       <c r="A58" s="5">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" ht="74.25" customHeight="1">
+    <row r="59" spans="1:6">
       <c r="A59" s="5">
         <v>43914</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="84">
       <c r="A60" s="5">
         <v>43914</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="66" customHeight="1">
       <c r="A61" s="5">
         <v>43914</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>221</v>
@@ -5921,15 +6425,15 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" ht="94.5">
+    <row r="62" spans="1:6" ht="74.25" customHeight="1">
       <c r="A62" s="5">
         <v>43914</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>222</v>
@@ -5937,15 +6441,15 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" ht="30.75" customHeight="1">
+    <row r="63" spans="1:6">
       <c r="A63" s="5">
         <v>43914</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>194</v>
@@ -5958,7 +6462,7 @@
         <v>43914</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>221</v>
@@ -5969,34 +6473,34 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" ht="21">
+    <row r="65" spans="1:6" ht="94.5">
       <c r="A65" s="5">
         <v>43914</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="30.75" customHeight="1">
       <c r="A66" s="5">
         <v>43914</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -6006,23 +6510,23 @@
         <v>43914</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" ht="42" customHeight="1">
+    <row r="68" spans="1:6" ht="21">
       <c r="A68" s="5">
         <v>43914</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>221</v>
@@ -6033,47 +6537,47 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" ht="27" customHeight="1">
+    <row r="69" spans="1:6">
       <c r="A69" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" ht="31.5">
+    <row r="70" spans="1:6">
       <c r="A70" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1">
+    <row r="71" spans="1:6" ht="42" customHeight="1">
       <c r="A71" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>194</v>
@@ -6081,45 +6585,47 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" ht="67.5" customHeight="1">
+    <row r="72" spans="1:6" ht="27" customHeight="1">
       <c r="A72" s="5">
         <v>43913</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="42" customHeight="1">
+    <row r="73" spans="1:6" ht="31.5">
       <c r="A73" s="5">
         <v>43913</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" ht="42">
+    <row r="74" spans="1:6" ht="21" customHeight="1">
       <c r="A74" s="5">
         <v>43913</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>194</v>
@@ -6127,193 +6633,189 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" ht="28.5" customHeight="1">
+    <row r="75" spans="1:6" ht="67.5" customHeight="1">
       <c r="A75" s="5">
         <v>43913</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D75" s="2"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="42" customHeight="1">
       <c r="A76" s="5">
         <v>43913</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" ht="63.75" customHeight="1">
+    <row r="77" spans="1:6" ht="42">
       <c r="A77" s="5">
         <v>43913</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="28.5" customHeight="1">
       <c r="A78" s="5">
         <v>43913</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" ht="52.5">
+    <row r="79" spans="1:6">
       <c r="A79" s="5">
         <v>43913</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="63.75" customHeight="1">
       <c r="A80" s="5">
         <v>43913</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" ht="51" customHeight="1">
+    <row r="81" spans="1:6">
       <c r="A81" s="5">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="52.5">
       <c r="A82" s="5">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="5">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="51" customHeight="1">
       <c r="A84" s="5">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>311</v>
+        <v>221</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" ht="21">
+    <row r="85" spans="1:6">
       <c r="A85" s="5">
         <v>43910</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>313</v>
-      </c>
+      <c r="E85" s="6"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" ht="21">
+    <row r="86" spans="1:6">
       <c r="A86" s="5">
         <v>43910</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>222</v>
@@ -6326,63 +6828,63 @@
         <v>43910</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="21">
       <c r="A88" s="5">
         <v>43910</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E88" s="6"/>
+      <c r="E88" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" ht="31.5">
+    <row r="89" spans="1:6" ht="21">
       <c r="A89" s="5">
         <v>43910</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>320</v>
-      </c>
+      <c r="E89" s="6"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" ht="60" customHeight="1">
+    <row r="90" spans="1:6">
       <c r="A90" s="5">
         <v>43910</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -6392,10 +6894,10 @@
         <v>43910</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>222</v>
@@ -6403,111 +6905,113 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="31.5">
       <c r="A92" s="5">
         <v>43910</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E92" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>320</v>
+      </c>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="73.5">
+    <row r="93" spans="1:6" ht="60" customHeight="1">
       <c r="A93" s="5">
         <v>43910</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" ht="52.5">
+    <row r="94" spans="1:6">
       <c r="A94" s="5">
         <v>43910</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" ht="42.75" customHeight="1">
+    <row r="95" spans="1:6">
       <c r="A95" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="73.5">
       <c r="A96" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" ht="51" customHeight="1">
+    <row r="97" spans="1:6" ht="52.5">
       <c r="A97" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="42.75" customHeight="1">
       <c r="A98" s="5">
         <v>43909</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>327</v>
@@ -6515,15 +7019,15 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" ht="21">
+    <row r="99" spans="1:6">
       <c r="A99" s="5">
         <v>43909</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>327</v>
@@ -6531,31 +7035,31 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" ht="43.5" customHeight="1">
+    <row r="100" spans="1:6" ht="51" customHeight="1">
       <c r="A100" s="5">
         <v>43909</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" ht="115.5" customHeight="1">
+    <row r="101" spans="1:6">
       <c r="A101" s="5">
         <v>43909</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>327</v>
@@ -6563,31 +7067,31 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" ht="41.25" customHeight="1">
+    <row r="102" spans="1:6" ht="21">
       <c r="A102" s="5">
         <v>43909</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="43.5" customHeight="1">
       <c r="A103" s="5">
         <v>43909</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>327</v>
@@ -6595,15 +7099,15 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" ht="21">
+    <row r="104" spans="1:6" ht="115.5" customHeight="1">
       <c r="A104" s="5">
         <v>43909</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>327</v>
@@ -6611,15 +7115,15 @@
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="41.25" customHeight="1">
       <c r="A105" s="5">
         <v>43909</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>347</v>
@@ -6629,13 +7133,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>327</v>
@@ -6643,47 +7147,47 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" ht="73.5">
+    <row r="107" spans="1:6" ht="21">
       <c r="A107" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" ht="58.5" customHeight="1">
+    <row r="108" spans="1:6">
       <c r="A108" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" ht="34.5" customHeight="1">
+    <row r="109" spans="1:6">
       <c r="A109" s="5">
         <v>43908</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>327</v>
@@ -6691,15 +7195,15 @@
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="1:6" ht="64.5" customHeight="1">
+    <row r="110" spans="1:6" ht="73.5">
       <c r="A110" s="5">
         <v>43908</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>347</v>
@@ -6707,31 +7211,31 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="58.5" customHeight="1">
       <c r="A111" s="5">
         <v>43908</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="34.5" customHeight="1">
       <c r="A112" s="5">
         <v>43908</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>327</v>
@@ -6739,47 +7243,47 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" ht="40.5" customHeight="1">
+    <row r="113" spans="1:6" ht="64.5" customHeight="1">
       <c r="A113" s="5">
         <v>43908</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" ht="52.5">
+    <row r="114" spans="1:6">
       <c r="A114" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" ht="73.5">
+    <row r="115" spans="1:6">
       <c r="A115" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>327</v>
@@ -6787,31 +7291,31 @@
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="40.5" customHeight="1">
       <c r="A116" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="52.5">
       <c r="A117" s="5">
         <v>43907</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>327</v>
@@ -6819,49 +7323,47 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" ht="40.5">
+    <row r="118" spans="1:6" ht="73.5">
       <c r="A118" s="5">
         <v>43907</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E118" s="6"/>
-      <c r="F118" s="11" t="s">
-        <v>370</v>
-      </c>
+      <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="5">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="5">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>327</v>
@@ -6869,47 +7371,49 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="40.5">
       <c r="A121" s="5">
-        <v>43902</v>
+        <v>43907</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-    </row>
-    <row r="122" spans="1:6" ht="38.25" customHeight="1">
+      <c r="F121" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="5">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>194</v>
+        <v>372</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="5">
-        <v>43894</v>
+        <v>43904</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>327</v>
@@ -6919,13 +7423,13 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="5">
-        <v>43893</v>
+        <v>43902</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>327</v>
@@ -6933,12 +7437,12 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" ht="63">
+    <row r="125" spans="1:6" ht="38.25" customHeight="1">
       <c r="A125" s="5">
-        <v>43892</v>
+        <v>43899</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>335</v>
@@ -6949,59 +7453,84 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" ht="31.5">
+    <row r="126" spans="1:6">
       <c r="A126" s="5">
-        <v>43868</v>
+        <v>43894</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>327</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6" ht="21">
+    <row r="127" spans="1:6">
       <c r="A127" s="5">
-        <v>43867</v>
+        <v>43893</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>423</v>
+        <v>335</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E127" s="6"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="5"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="6"/>
+    <row r="128" spans="1:6" ht="123" customHeight="1">
+      <c r="A128" s="5">
+        <v>43892</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>500</v>
+      </c>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="5"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+    <row r="129" spans="1:6" ht="31.5">
+      <c r="A129" s="5">
+        <v>43868</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="5"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+    <row r="130" spans="1:6" ht="21">
+      <c r="A130" s="5">
+        <v>43867</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
     </row>
@@ -8158,14 +8687,26 @@
       <c r="F274" s="6"/>
     </row>
     <row r="275" spans="1:6">
+      <c r="A275" s="5"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
     </row>
     <row r="276" spans="1:6">
+      <c r="A276" s="5"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
     </row>
     <row r="277" spans="1:6">
+      <c r="A277" s="5"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
     </row>
@@ -12293,16 +12834,28 @@
       <c r="E1308" s="6"/>
       <c r="F1308" s="6"/>
     </row>
+    <row r="1309" spans="5:6">
+      <c r="E1309" s="6"/>
+      <c r="F1309" s="6"/>
+    </row>
+    <row r="1310" spans="5:6">
+      <c r="E1310" s="6"/>
+      <c r="F1310" s="6"/>
+    </row>
+    <row r="1311" spans="5:6">
+      <c r="E1311" s="6"/>
+      <c r="F1311" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F27" r:id="rId2"/>
-    <hyperlink ref="F29" r:id="rId3"/>
-    <hyperlink ref="F54" r:id="rId4"/>
-    <hyperlink ref="E89" r:id="rId5"/>
-    <hyperlink ref="F118" r:id="rId6"/>
-    <hyperlink ref="F2" r:id="rId7"/>
+    <hyperlink ref="F14" r:id="rId1"/>
+    <hyperlink ref="F30" r:id="rId2"/>
+    <hyperlink ref="F32" r:id="rId3"/>
+    <hyperlink ref="F57" r:id="rId4"/>
+    <hyperlink ref="E92" r:id="rId5"/>
+    <hyperlink ref="F121" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -12315,7 +12868,7 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15063,13 +15616,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O410"/>
+  <dimension ref="A1:O413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15096,241 +15649,211 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="178.5">
+    <row r="2" spans="1:15" ht="147">
       <c r="A2" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="73.5">
+      <c r="A3" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="147">
+      <c r="A5" s="5">
         <v>43928</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="62.25" customHeight="1">
-      <c r="A4" s="5">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="62.25" customHeight="1">
+      <c r="A7" s="5">
         <v>43918</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="62.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="1:15" ht="62.25" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="31.5">
-      <c r="A6" s="5">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="31.5">
+      <c r="A9" s="5">
         <v>43918</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5">
-      <c r="A7" s="5">
+    <row r="10" spans="1:15" ht="16.5">
+      <c r="A10" s="5">
         <v>43919</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5">
-      <c r="A8" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5">
-      <c r="A9" s="5">
-        <v>43910</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" ht="42">
-      <c r="A10" s="5">
-        <v>43910</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="5">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="21">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="31.5">
+      <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="42">
       <c r="A13" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -15343,18 +15866,22 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="73.5">
+    <row r="14" spans="1:15">
       <c r="A14" s="5">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -15366,15 +15893,15 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="63">
+    <row r="15" spans="1:15" ht="21">
       <c r="A15" s="5">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -15389,20 +15916,22 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="157.5">
+    <row r="16" spans="1:15" ht="31.5">
       <c r="A16" s="5">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -15414,19 +15943,17 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" ht="63">
+    <row r="17" spans="1:15" ht="73.5">
       <c r="A17" s="5">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>373</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>376</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -15439,19 +15966,17 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" ht="52.5">
+    <row r="18" spans="1:15" ht="63">
       <c r="A18" s="5">
-        <v>43902</v>
+        <v>43906</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>373</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>350</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -15464,16 +15989,18 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:15" ht="157.5">
+      <c r="A19" s="5">
+        <v>43905</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>379</v>
+        <v>130</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -15487,16 +16014,18 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="54" customHeight="1">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:15" ht="63">
+      <c r="A20" s="5">
+        <v>43905</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -15510,13 +16039,15 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="75" customHeight="1">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:15" ht="52.5">
+      <c r="A21" s="5">
+        <v>43902</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>350</v>
@@ -15533,17 +16064,17 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
-        <v>43902</v>
-      </c>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>380</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -15556,15 +16087,17 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="19.5" customHeight="1">
+    <row r="23" spans="1:15" ht="54" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>382</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -15577,15 +16110,17 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" ht="36" customHeight="1">
+    <row r="24" spans="1:15" ht="75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>383</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -15598,15 +16133,15 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" ht="105">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="5">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -15621,22 +16156,16 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15" ht="21">
-      <c r="A26" s="5">
-        <v>43901</v>
-      </c>
+    <row r="26" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -15648,19 +16177,15 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" ht="119.25" customHeight="1">
-      <c r="A27" s="5">
-        <v>43896</v>
-      </c>
+    <row r="27" spans="1:15" ht="36" customHeight="1">
+      <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>373</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -15673,17 +16198,17 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" ht="84" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>95</v>
+    <row r="28" spans="1:15" ht="105">
+      <c r="A28" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -15696,21 +16221,21 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" ht="42">
+    <row r="29" spans="1:15" ht="21">
       <c r="A29" s="5">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -15723,11 +16248,15 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="63">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
+    <row r="30" spans="1:15" ht="119.25" customHeight="1">
+      <c r="A30" s="5">
+        <v>43896</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>42</v>
@@ -15744,22 +16273,18 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="5">
-        <v>43895</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>99</v>
+    <row r="31" spans="1:15" ht="84" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -15771,21 +16296,21 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="42">
       <c r="A32" s="5">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>105</v>
+        <v>42</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -15798,18 +16323,16 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:15" ht="21">
-      <c r="A33" s="5">
-        <v>43893</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>384</v>
-      </c>
+    <row r="33" spans="1:15" ht="63">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -15821,16 +16344,22 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" ht="21">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:15">
+      <c r="A34" s="5">
+        <v>43895</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>373</v>
+        <v>99</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -15844,16 +16373,20 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="5">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>401</v>
+        <v>33</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -15865,13 +16398,15 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="31.5">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:15" ht="21">
+      <c r="A36" s="5">
+        <v>43893</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="9"/>
@@ -15886,13 +16421,13 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="31.5">
+    <row r="37" spans="1:15" ht="21">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="9"/>
@@ -15908,12 +16443,14 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5">
+        <v>43893</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="9"/>
@@ -15928,15 +16465,13 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="63">
-      <c r="A39" s="5">
-        <v>43892</v>
-      </c>
+    <row r="39" spans="1:15" ht="31.5">
+      <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="9"/>
@@ -15951,13 +16486,13 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="133.5" customHeight="1">
+    <row r="40" spans="1:15" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -15972,13 +16507,13 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="21">
+    <row r="41" spans="1:15">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="9"/>
@@ -15993,13 +16528,15 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="147">
-      <c r="A42" s="5"/>
+    <row r="42" spans="1:15" ht="63">
+      <c r="A42" s="5">
+        <v>43892</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="9"/>
@@ -16014,18 +16551,16 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="157.5">
-      <c r="A43" s="5">
-        <v>43892</v>
-      </c>
+    <row r="43" spans="1:15" ht="133.5" customHeight="1">
+      <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>112</v>
+        <v>413</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -16037,16 +16572,16 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="178.5">
+    <row r="44" spans="1:15" ht="21">
       <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>373</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>113</v>
+        <v>415</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -16058,16 +16593,16 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" ht="45.75" customHeight="1">
+    <row r="45" spans="1:15" ht="147">
       <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>114</v>
+        <v>414</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -16079,13 +16614,15 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="117" customHeight="1">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:15" ht="157.5">
+      <c r="A46" s="5">
+        <v>43892</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -16100,15 +16637,13 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="73.5" customHeight="1">
-      <c r="A47" s="5">
-        <v>43891</v>
-      </c>
+    <row r="47" spans="1:15" ht="178.5">
+      <c r="A47" s="5"/>
       <c r="B47" s="2" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>416</v>
+        <v>113</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -16123,22 +16658,16 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="51.75" customHeight="1">
-      <c r="A48" s="5">
-        <v>43890</v>
-      </c>
+    <row r="48" spans="1:15" ht="45.75" customHeight="1">
+      <c r="A48" s="5"/>
       <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>129</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -16150,22 +16679,16 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A49" s="5">
-        <v>43888</v>
-      </c>
+    <row r="49" spans="1:15" ht="117" customHeight="1">
+      <c r="A49" s="5"/>
       <c r="B49" s="2" t="s">
-        <v>401</v>
+        <v>75</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>327</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -16177,20 +16700,18 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A50" s="5"/>
+    <row r="50" spans="1:15" ht="73.5" customHeight="1">
+      <c r="A50" s="5">
+        <v>43891</v>
+      </c>
       <c r="B50" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>327</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -16202,19 +16723,21 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:15" ht="51.75" customHeight="1">
+      <c r="A51" s="5">
+        <v>43890</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>384</v>
+        <v>33</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>419</v>
+        <v>128</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>350</v>
+        <v>104</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -16227,21 +16750,21 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1">
       <c r="A52" s="5">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>33</v>
+        <v>401</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -16254,20 +16777,20 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="189">
-      <c r="A53" s="5">
-        <v>43886</v>
-      </c>
+    <row r="53" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A53" s="5"/>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>140</v>
+        <v>418</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -16279,21 +16802,19 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="63">
-      <c r="A54" s="5">
-        <v>43886</v>
-      </c>
+    <row r="54" spans="1:15" ht="46.5" customHeight="1">
+      <c r="A54" s="5"/>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>143</v>
+        <v>419</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -16306,19 +16827,21 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" ht="21">
+    <row r="55" spans="1:15">
       <c r="A55" s="5">
-        <v>43883</v>
+        <v>43886</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E55" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -16331,22 +16854,20 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" ht="189">
       <c r="A56" s="5">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>148</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -16358,20 +16879,22 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" ht="81.75" customHeight="1">
+    <row r="57" spans="1:15" ht="63">
       <c r="A57" s="5">
-        <v>43881</v>
+        <v>43886</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -16383,16 +16906,20 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="21">
       <c r="A58" s="5">
-        <v>43881</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>43883</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C58" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -16404,21 +16931,21 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="21">
+    <row r="59" spans="1:15">
       <c r="A59" s="5">
-        <v>43879</v>
+        <v>43882</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -16431,17 +16958,19 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="81.75" customHeight="1">
       <c r="A60" s="5">
-        <v>43878</v>
+        <v>43881</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -16454,15 +16983,13 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="42">
+    <row r="61" spans="1:15">
       <c r="A61" s="5">
-        <v>43877</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>158</v>
-      </c>
+        <v>43881</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -16477,20 +17004,22 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="52.5">
+    <row r="62" spans="1:15" ht="21">
       <c r="A62" s="5">
-        <v>43877</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>158</v>
+        <v>43879</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -16503,9 +17032,15 @@
       <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="5"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="6"/>
+      <c r="A63" s="5">
+        <v>43878</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -16519,10 +17054,16 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="6"/>
+    <row r="64" spans="1:15" ht="42">
+      <c r="A64" s="5">
+        <v>43877</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -16536,11 +17077,19 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="5"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+    <row r="65" spans="1:15" ht="52.5">
+      <c r="A65" s="5">
+        <v>43877</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -16763,6 +17312,16 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="5"/>
@@ -16770,6 +17329,16 @@
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="5"/>
@@ -16777,6 +17346,16 @@
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5"/>
@@ -18307,23 +18886,23 @@
     <row r="299" spans="1:5">
       <c r="A299" s="5"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="5"/>
       <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="5"/>
       <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="5"/>
@@ -19026,21 +19605,21 @@
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="2"/>
+      <c r="A402" s="5"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="2"/>
+      <c r="A403" s="5"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="2"/>
+      <c r="A404" s="5"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -19088,14 +19667,35 @@
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
     </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E13" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -19105,13 +19705,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19138,132 +19738,130 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="147">
+    <row r="2" spans="1:5" ht="94.5">
       <c r="A2" s="5">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>464</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="94.5">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:5" ht="147">
+      <c r="A3" s="5">
+        <v>43929</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="51" customHeight="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" ht="94.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="51" customHeight="1">
+      <c r="A5" s="5">
         <v>43922</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="38.25" customHeight="1">
+    <row r="6" spans="1:5" ht="64.5" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="52.5">
-      <c r="A7" s="5">
-        <v>43917</v>
-      </c>
+    <row r="7" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="70.5" customHeight="1">
+      <c r="C7" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="52.5">
       <c r="A8" s="5">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="52.5">
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="70.5" customHeight="1">
       <c r="A9" s="5">
-        <v>43901</v>
+        <v>43915</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="42">
+    <row r="10" spans="1:5" ht="52.5">
       <c r="A10" s="5">
-        <v>43909</v>
+        <v>43901</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="63">
+    <row r="11" spans="1:5" ht="42">
       <c r="A11" s="5">
         <v>43909</v>
       </c>
@@ -19271,12 +19869,14 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="63">
       <c r="A12" s="5">
         <v>43909</v>
       </c>
@@ -19284,27 +19884,25 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="126">
+    <row r="13" spans="1:5">
       <c r="A13" s="5">
-        <v>43900</v>
+        <v>43909</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="21">
+    <row r="14" spans="1:5" ht="126">
       <c r="A14" s="5">
         <v>43900</v>
       </c>
@@ -19312,14 +19910,14 @@
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="115.5">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="5">
         <v>43900</v>
       </c>
@@ -19327,44 +19925,42 @@
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="199.5">
+    <row r="16" spans="1:5" ht="115.5">
       <c r="A16" s="5">
         <v>43900</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="52.5">
+    <row r="17" spans="1:5" ht="199.5">
       <c r="A17" s="5">
-        <v>43899</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>43900</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="91.5" customHeight="1">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="52.5">
       <c r="A18" s="5">
         <v>43899</v>
       </c>
@@ -19372,42 +19968,46 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="91.5" customHeight="1">
       <c r="A19" s="5">
-        <v>43894</v>
+        <v>43899</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="105">
+    <row r="20" spans="1:5">
       <c r="A20" s="5">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="42" customHeight="1">
+    <row r="21" spans="1:5" ht="105">
       <c r="A21" s="5">
         <v>43893</v>
       </c>
@@ -19415,12 +20015,12 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="21">
+    <row r="22" spans="1:5" ht="42" customHeight="1">
       <c r="A22" s="5">
         <v>43893</v>
       </c>
@@ -19428,42 +20028,42 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="21">
       <c r="A23" s="5">
-        <v>43888</v>
+        <v>43893</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="21">
       <c r="A24" s="5">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="73.5">
+        <v>132</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="5">
         <v>43887</v>
       </c>
@@ -19471,42 +20071,40 @@
         <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="73.5">
       <c r="A26" s="5">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="94.5">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5">
-        <v>43875</v>
+        <v>43882</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="157.5">
+        <v>149</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="94.5">
       <c r="A28" s="5">
         <v>43875</v>
       </c>
@@ -19514,63 +20112,71 @@
         <v>17</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="157.5">
       <c r="A29" s="5">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="31.5">
+      <c r="E29" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="5">
+        <v>43874</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="31.5">
+      <c r="A31" s="5">
         <v>43867</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="84">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>427</v>
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="84">
       <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>427</v>
+      </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
@@ -21518,6 +22124,13 @@
       <c r="C310" s="4"/>
       <c r="D310" s="2"/>
       <c r="E310" s="7"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="5"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21528,13 +22141,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E354"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21561,115 +22174,113 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.25" customHeight="1">
+    <row r="2" spans="1:5" ht="157.5">
       <c r="A2" s="5">
-        <v>43935</v>
+        <v>43950</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="89.25" customHeight="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
-        <v>43930</v>
+        <v>43950</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>473</v>
+        <v>510</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="106.5" customHeight="1">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="26.25" customHeight="1">
       <c r="A4" s="5">
-        <v>43930</v>
+        <v>43935</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>469</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="89.25" customHeight="1">
       <c r="A5" s="5">
         <v>43930</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="58.5" customHeight="1">
+    <row r="6" spans="1:5" ht="106.5" customHeight="1">
       <c r="A6" s="5">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>465</v>
+        <v>352</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="83.25" customHeight="1">
-      <c r="A7" s="5"/>
+      <c r="E6" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1">
+      <c r="A7" s="5">
+        <v>43930</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>467</v>
+        <v>352</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="42" customHeight="1">
+    <row r="8" spans="1:5" ht="58.5" customHeight="1">
       <c r="A8" s="5">
-        <v>43924</v>
+        <v>43929</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="42" customHeight="1">
-      <c r="A9" s="5">
-        <v>43924</v>
-      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="83.25" customHeight="1">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
-        <v>352</v>
+        <v>466</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="11" t="s">
-        <v>436</v>
-      </c>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="42" customHeight="1">
       <c r="A10" s="5">
@@ -21679,10 +22290,12 @@
         <v>352</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="42" customHeight="1">
       <c r="A11" s="5">
@@ -21692,87 +22305,83 @@
         <v>352</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="56.25" customHeight="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="42" customHeight="1">
       <c r="A12" s="5">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" ht="45" customHeight="1">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" ht="42" customHeight="1">
+      <c r="A13" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A14" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="45" customHeight="1">
+      <c r="A15" s="3">
         <v>43916</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="96" customHeight="1">
-      <c r="A14" s="3">
-        <v>43915</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A15" s="3">
-        <v>43914</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21">
+        <v>437</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="96" customHeight="1">
       <c r="A16" s="3">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5">
+        <v>447</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="100.5" customHeight="1">
       <c r="A17" s="3">
         <v>43914</v>
       </c>
@@ -21780,14 +22389,14 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="3">
         <v>43914</v>
       </c>
@@ -21795,109 +22404,111 @@
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="3">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="113.25" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="63">
+      <c r="A21" s="3">
+        <v>43913</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A22" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="147">
-      <c r="A21" s="3">
+      <c r="D22" s="4"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="147">
+      <c r="A23" s="3">
         <v>43910</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="52.5">
-      <c r="A23" s="3">
-        <v>43909</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="42">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="52.5">
+      <c r="A25" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A24" s="3">
-        <v>43909</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A25" s="3">
-        <v>43908</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>333</v>
@@ -21906,76 +22517,76 @@
     </row>
     <row r="26" spans="1:5" ht="95.25" customHeight="1">
       <c r="A26" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A27" s="3">
         <v>43908</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A27" s="3">
-        <v>43901</v>
-      </c>
-      <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A28" s="3">
+        <v>43908</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A29" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A29" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21">
-      <c r="A30" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="4"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="21">
+    <row r="31" spans="1:5" ht="100.5" customHeight="1">
       <c r="A31" s="3">
         <v>43898</v>
       </c>
@@ -21983,330 +22594,332 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21">
+      <c r="A32" s="3">
+        <v>43898</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="157.5">
-      <c r="A32" s="3">
-        <v>43889</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="21">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>43898</v>
+      </c>
       <c r="B33" s="7" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="31.5">
-      <c r="A34" s="3"/>
+    <row r="34" spans="1:5" ht="157.5">
+      <c r="A34" s="3">
+        <v>43889</v>
+      </c>
       <c r="B34" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="42">
+    <row r="35" spans="1:5" ht="21">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="42">
+    <row r="36" spans="1:5" ht="31.5">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="42">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="23.25" customHeight="1">
+    <row r="38" spans="1:5" ht="42">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A39" s="3">
-        <v>43897</v>
-      </c>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A40" s="3">
-        <v>43893</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="90.75" customHeight="1">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="23.25" customHeight="1">
       <c r="A41" s="3">
-        <v>43888</v>
+        <v>43897</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>131</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="42">
+    <row r="42" spans="1:5" ht="23.25" customHeight="1">
       <c r="A42" s="3">
-        <v>43885</v>
+        <v>43893</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" ht="73.5" customHeight="1">
+      <c r="E42" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="90.75" customHeight="1">
       <c r="A43" s="3">
-        <v>43873</v>
+        <v>43888</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>166</v>
+        <v>396</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="22.5" customHeight="1">
+    <row r="44" spans="1:5" ht="42">
       <c r="A44" s="3">
-        <v>43872</v>
+        <v>43885</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>420</v>
+        <v>142</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="22.5" customHeight="1">
+    <row r="45" spans="1:5" ht="73.5" customHeight="1">
       <c r="A45" s="3">
-        <v>43860</v>
+        <v>43873</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3">
+        <v>43872</v>
+      </c>
       <c r="B46" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="52.5">
-      <c r="A48" s="3">
-        <v>43860</v>
-      </c>
+    <row r="48" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>167</v>
+        <v>430</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="357">
-      <c r="A49" s="3">
-        <v>43859</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>169</v>
-      </c>
+    <row r="49" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="31.5">
-      <c r="A50" s="3"/>
+    <row r="50" spans="1:5" ht="52.5">
+      <c r="A50" s="3">
+        <v>43860</v>
+      </c>
       <c r="B50" s="7" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" ht="157.5">
-      <c r="A51" s="3"/>
+    <row r="51" spans="1:5" ht="357">
+      <c r="A51" s="3">
+        <v>43859</v>
+      </c>
       <c r="B51" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="31.5">
       <c r="A52" s="3"/>
       <c r="B52" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1">
-      <c r="A53" s="3">
-        <v>43914</v>
-      </c>
+    <row r="53" spans="1:5" ht="157.5">
+      <c r="A53" s="3"/>
       <c r="B53" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>273</v>
+        <v>130</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" ht="81" customHeight="1">
-      <c r="A54" s="3">
-        <v>43912</v>
-      </c>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3"/>
       <c r="B54" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>301</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="41.25" customHeight="1">
+    <row r="55" spans="1:5" ht="30" customHeight="1">
       <c r="A55" s="3">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>302</v>
+        <v>274</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="141" customHeight="1">
+    <row r="56" spans="1:5" ht="81" customHeight="1">
       <c r="A56" s="3">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>304</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="17.25" customHeight="1">
+    <row r="57" spans="1:5" ht="41.25" customHeight="1">
       <c r="A57" s="3">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="72" customHeight="1">
+    <row r="58" spans="1:5" ht="141" customHeight="1">
       <c r="A58" s="3">
         <v>43911</v>
       </c>
@@ -22314,22 +22927,36 @@
         <v>300</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D58" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="4"/>
+    <row r="59" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A59" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="4"/>
+    <row r="60" spans="1:5" ht="72" customHeight="1">
+      <c r="A60" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="7"/>
     </row>
@@ -24391,22 +25018,37 @@
       <c r="D354" s="4"/>
       <c r="E354" s="7"/>
     </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="3"/>
+      <c r="B355" s="7"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+      <c r="E355" s="7"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="3"/>
+      <c r="B356" s="7"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1"/>
-    <hyperlink ref="E29" r:id="rId2"/>
-    <hyperlink ref="D41" r:id="rId3"/>
-    <hyperlink ref="E40" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="E9" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E2" r:id="rId9"/>
+    <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E31" r:id="rId2"/>
+    <hyperlink ref="D43" r:id="rId3"/>
+    <hyperlink ref="E42" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E13" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E2" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -27285,10 +27927,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27296,7 +27938,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -27312,8 +27954,11 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>43917</v>
       </c>
@@ -27330,10 +27975,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D24" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B25" t="s">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
+++ b/Caxton/script and emails/summary of the covid 19 and market reaction.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="571">
   <si>
     <t>Person</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2602,13 +2602,6 @@
   </si>
   <si>
     <t>TJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There are two main messages here, the first more market relevant than the second:
-1)    The Fed’s aims are to provide support today and to ensure a robust recovery in the future. So more support may be forthcoming and it will be in place until both goals are achieved (i.e. for some time).
-2)     The Fed actions are well anchored legally and politically, i.e. they are not over stepping.
-Highlights, underlines, etc. are mine.The Fed can also contribute in important ways: by providing a measure of relief and stability during this period of constrained economic activity, and by using our tools to ensure that the eventual recovery is as vigorous as possible.many channels that households, businesses, and state and local governments rely on for credit had simply stopped working.We are deploying these lending powers to an unprecedented extent, enabled in large part by the financial backing from Congress and the Treasury. We will continue to use these powers forcefully, proactively, and aggressively until we are confident that we are solidly on the road to recovery. When the economy is well on its way back to recovery, and private markets and institutions are once again able to perform their vital functions of channeling credit and supporting economic growth, we will put these emergency tools away. There is every reason to believe that the economic rebound, when it comes, can be robust.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2949,12 +2942,377 @@
 On social distancing measures, while the NPC may indicate further easing of travel restrictions to/from Beijing city post late-May, we still believe the current phase of softer (but possibly long-standing) social distancing could be ongoing for months, following the nationwide lock down in February and hard social distancing in March, capping the pace of consumption recovery.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Powell's speech highlighted:There are two main messages here, the first more market relevant than the second:
+1)    The Fed’s aims are to provide support today and to ensure a robust recovery in the future. So more support may be forthcoming and it will be in place until both goals are achieved (i.e. for some time).
+2)     The Fed actions are well anchored legally and politically, i.e. they are not over stepping.
+Highlights, underlines, etc. are mine.The Fed can also contribute in important ways: by providing a measure of relief and stability during this period of constrained economic activity, and by using our tools to ensure that the eventual recovery is as vigorous as possible.many channels that households, businesses, and state and local governments rely on for credit had simply stopped working.We are deploying these lending powers to an unprecedented extent, enabled in large part by the financial backing from Congress and the Treasury. We will continue to use these powers forcefully, proactively, and aggressively until we are confident that we are solidly on the road to recovery. When the economy is well on its way back to recovery, and private markets and institutions are once again able to perform their vital functions of channeling credit and supporting economic growth, we will put these emergency tools away. There is every reason to believe that the economic rebound, when it comes, can be robust.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table comparing Fed and ECB corporate programmes (from our interpretation):
+Fed Corporate buying
+ECB Corporate Buying
+Expected size
+750bn (500bn primary + 250bn secondary).
+Fed can lever up to 10x 50bn in primary programme and 25bn in secondary programme.
+The leverage will be 10x for IG bonds and ETFs, 7x for “fallen angel” bonds and between 3 and 7x for other eligible assets (e.g. HY ETFs).
+220bn? (Research)
+End
+End of Sept.
+End of year
+Implementation channels
+Primary (bonds/loans). As sole investor in bonds or participating in syndicated bond/loans (25% issuance limit here).
+Secondary: via direct bond purchases and "broad US Corporate" US-listed ETFs (predominantly IG but also HY ones – without specifying split).
+Primary and secondary markets directly.
+Market size outstanding (overall IG markets, including non-eligible bonds, local CCY)
+~4.4tn.
+Average gross/net issuance in USD IG (last year, all IG): ~1.2tn/200bn.
+~3.5tn.
+Average gross/net issuance in EUR IG (last year, all IG): ~650bn/~260bn.
+Eligible size outstanding
+Secondary bond market:
+IG: ~1.8tn (essentially IG, US domiciled, non-banks, &lt;= 5y as per the secondary bond programme). As of March 22nd. ~30% of the whole market.
+Fallen Angels (downgraded since March 22nd): ~40bn (&lt;=5y).
+(Not excluding any companies or industries which may receive direct federal assistance, which could reduce the eligible universe by 400bn).
+ETFs: IG (130bn), HY (40bn).
+~975bn (essentially IG, EA domiciled, non-banks, &lt;= 30y).
+Eligible bonds
+Rating
+Investment grade (rated IG by at least two rating agencies - or IG if only rated by one) on March 22nd. Fallen angels: If an issuer was IG at that time but has been downgraded since, it is eligible if it is rated at least BB-/Ba3 at the time of purchase (by at least two rating agencies – or by one if only rated by one).
+Investment grade (rated IG by at least one rating agency)
+Location
+Businesses created or organized in the US or under the laws of the US with significant operations in and a majority of its employees based in the US
+European Area domiciled.
+Maturity
+Maturities &lt;= 5y in the direct secondary programme and &lt;= 4y in the primary programme.
+Via the ETF secondary programme, they can in theory buy longer dated bonds.
+Maturities &lt;= 30y in both primary and secondary.
+Sectors
+Corporates (including, we assume, insurance). Excludes depository institutions (i.e. banks).
+Via the ETF secondary programme, they can in theory buy bank bonds.
+Non-banks.
+Exclusions
+Issuers receiving specific support pursuant to the CARES Act or any subsequent federal legislation.
+Potentially impacting:
+Airlines, Entertainment, Leisure Time
+Lodging, Oil&amp;Gas, Oil&amp;Gas Services, Pipelines, Retail, Transportation.
+Loans?
+Allowed in the primary programme.
+Not allowed
+ETF purchases?
+Yes, IG and HY.
+Allowed in the secondary programme, but only on ETFs not trading at a "material" premium to NAV (which should be the case in all nowadays).
+Not allowed
+Target allocation
+Not defined, in theory close to the "market"; but unlike the ECB they don't target a market-neutral (ish) portfolio.
+Bonds will be purchased in proportion "to the nominal outstanding amount of eligible bonds issued by the issuer in question as a share of the entire CSPP-eligible universe".
+Size limit per issuer / bond / loan
+Re issuer, max of the below:
+·         1.5% of the total size (i.e. 750bn x 1.5% = 11.25bn) per issuer (primary + secondary purchases combined).
+·         Secondary bond purchases: 10% of issuer's outstanding bonds.
+·         Primary bonds/loans: 130% of the issuers outstanding bonds/loans.
+Re bonds/loans ISIN:
+Primary market: all issue for bonds when sole investor, 25% of the issue in syndicated bonds/loans.
+Re ETFs:
+·         Secondary ETF purchases: 20% of the ETF assets.
+70% limit per ISIN, i.e. in theory 70% of issuer/eligible universe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK OF THAILAND STUDYING ASSET PURCHASES, YIELD-CURVE CONTROL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCB swap intervention: BCB $500mm FX swaps auction. Brings YTD intervention to:
+$14.09 bn outright
+$17.3 bn in credit lines
+$12.365 bn in swaps
+Grand Total $43.755 b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Evans: Many of Fed Emergency Efforts Will Wind Down on Their Own
+*Evans: Large and Growing Fed Balance Sheet Will Shrink in Future on Its Own
+*EVANS: PROGRAMS SELF LIQUIDATING NATURE TO TRIM B/SHEET IN TIME
+*Evans: Not Worried Current Fed Support Efforts Will Fuel Moral Hazard
+*Evans: 'The Fed Is All About Transparency'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*TRUMP ADMIN., AIRLINES REACH AGREEMENT IN PRINCIPLE ON AID: DJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiscal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*BANK OF CANADA UNVEILS NEW MONEY MARKET OPERATIONS
+*BANK OF CANADA ANNOUNCES NEW CORPORATE BOND PURCHASE PROGRAM
+*BOC ANNOUNCES PROVINCIAL BOND PURCHASE PROGRAM UP TO C$50 BLN
+*BANK OF CANADA TO BUY UP TO C$10 BLN IN CORPORATE BONDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FED RELEASES BEIGE BOOK SURVEY OF U.S. ECONOMY
+*FED SAYS ECONOMIC ACTIVITY CONTRACTED SHARPLY IN RECENT WEEKS
+*Federal Reserve's Beige Book: Economic Activity 'Contracted Sharply and Abruptly' Across All Regions
+*Fed Beige Book: Retail, Hospitality Were Hardest Hit
+*Fed Beige Book: Most Regions Saw Declines in Manufacturing
+*Fed's Beige Book Is Collection of Business Anecdotes From Business Contacts
+*FED: EMPLOYMENT FELL IN ALL DISTRICTS, STEEPLY IN MANY CASES
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RBNZ ORR: HAVEN'T RULED OUT NEGATIVE INTEREST RATES....`SHADOW OCR' IS SIGNIFICANTLY NEGATIVE
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAGARDE: PREPARED TO ADJUST SIZE, COMPOSITION OF BOND BUYING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NZD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSTIC: EXPECT FED TO BE THINKING ABOUT FORWARD GUIDANCE
+BOSTIC: MORTGAGE SERVICER STRESS A WORRY, MUST AVOID DISRUPTION
+ATLANTA FED’S BOSTIC SPEAKS WITH REPORTERS VIA CONFERENCE CALL
+BOSTIC: DON’T VIEW FED PROGRAM FOR MUNICIPALITIES AS FINAL WORD
+Bostic: Forward Guidance Is Key for Monetary Policy Right Now
+Bostic: Hopeful Fed/Government Loans Can Be Repaid Quickly
+Bostic: Worried Municipal Support Programs Leaving Some Cities Behind
+Fed's Bostic: Expects Congress to Provide More Money for Small Biz Loans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*FED'S KAPLAN SEES PEAK UNEMPLOYMENT IN MID TO HIGH TEENS
+*DALLAS FED'S KAPLAN SPEAKS IN BLOOMBERG TV INTERVIEW
+*FED'S KAPLAN: ECONOMIC VIEW BASICALLY SAME AS 2 WEEKS AGO
+*Kaplan: Jobless Rate Peak Likely High to Mid Teens, Year End 8%-10%
+*Kaplan: GDP Likely to Fall 25-30% in Second Quarter on Annualized Basis
+*Kaplan: Economy Likely to Grow Again in 3Q
+*Fed's Kaplan: Still Sees 'Substantial' 2Q Contraction - Bloomberg TV
+*KAPLAN: UBIQUITY OF TESTING IS CRITICAL FOR CONSUMER CONFIDENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*BAILEY SEES NOTHING IMPLAUSIBLE IN FORECAST FOR 35% 2Q GDP DROP
+*BOE'S BAILEY SAYS BANKS NEED TO `GET ON WITH' LENDING TO FIRMS
+*BAILEY SAYS MAY 7 FORECASTS WILL REQUIRE DIFFICULT JUDGEMENT
+*BAILEY SAYS BOE'S AIM IS TO PREVENT SCARRING FROM VIRUS
+*BAILEY SAYS GOVERNMENT'S BOE OVERDRAFT HASN'T BEEN USED YET
+*BAILEY SAYS MARKETS HAVE CALMED DOWN OVER THE PAST MONTH
+*BANK OF ENGLAND GOVERNOR BAILEY SPEAKS IN CALL WITH JOURNALISTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CHINA'S 1-YEAR PRIME RATE CUT BY 20 BASIS POINTS TO 3.85%
+*CHINA'S 5-YEAR PRIME RATE CUT BY 10 BASIS POINTS TO 4.65%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CHINA MOF TO SELL ANOTHER 1T YUAN OF SPECIAL BONDS IN NEAR TERM
+RTRS - CHINA FINANCE MINISTRY OFFICIAL SAYS SAYS CHINA PLANS TO ISSUE ANOTHER 1 TRLN YUAN IN LOCAL GOVERNMENT SPECIAL BONDS QUOTA IN ADVANCE
+*CHINA TO UNVEIL GUIDELINE ON 'NEW INFRASTRUCTURE': NDRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Politburo wording suggests rate cuts are imminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">March 27, 2020
+April 17, 2020
+The meeting pointed out that it is necessary to step up macroeconomic policy adjustment and implementation. We must pay close attention to research and put forward a package of macro-policy measures that are actively responded to. Active fiscal policies must be more proactive and sound, and sound monetary policies must be more flexible and appropriate, appropriately increase the fiscal deficit rate, issue special national bonds, increase the size of local government special bonds, and guide loans Market interest rates are down, keeping liquidity reasonably ample. It is necessary to implement various tax reduction and fee reduction policies, accelerate the issuance and use of local government special bonds, and step up preparations and construction work for key projects. It is necessary to give full play to the leading role of financial policies such as re-loan re-discounting and loan repayment of principal and interest, unblock the transmission mechanism, alleviate financing difficulties and expensive financing, and provide accurate financial services for epidemic prevention and control, resumption of production and real economy development.
+The meeting pointed out that the impact of the epidemic should be hedged with greater macro-policy efforts. An active fiscal policy should be more proactive and effective, increase the deficit rate, issue special anti-epidemic government bonds, increase local government special bonds, improve the efficiency of fund use, and truly play a key role in stabilizing the economy. A sound monetary policy should be more flexible and appropriate, using means such as RRR cuts, interest rate cuts, and re-loans to maintain reasonable and sufficient liquidity, guide the loan market interest rate to fall, and use funds to support the real economy, especially small and medium-sized enterprises.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*RBNZ'S ORR: WILL BE THINKING ABOUT ADDITIONAL STIMULUS IN MAY
+*RBNZ'S ORR SAYS QE BETTER THAN NEGATIVE RATE FOR CURRENT TASK
+*RBNZ'S ORR REITERATES NEGATIVE RATES ARE NOT RULED OUT
+*RBNZ'S ORR: OPEN MINDED ON DIRECT MONETISATION OF NZ DEBT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX - Second intra-meeting cut by Banxico leaving the overnight rate at 6%. The board argues that Covid-19's economic impact is yet unknown but that GDP could contract "more than 5% y/y during H1 '20" And that clearly, the risks to growth remain skewed to the downside. In addition to their concern regarding growth, Banxico highlighted the plummeting of oil prices as another risk factor.
+The board points out that uncertainty related to inflation is now higher but that the whether the reduction of gasoline prices or the MXN's depreciation will prevail in their impact on inflation is unclear yet.
+We expect GDP to fall 6.1% this year although risks are tilted to the downside in our forecast as well. And we expect Banxico to continue cutting as economic data deteriorates bringing the overnight rate below to at least 4.5%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTB futures selling off and bear steepening pressure on the bond curve...
+Finance minister said that the 3rd supplementary budget will likely be financed mostly with debt financing. Supp budget size would be 9.3 trillion won.
+*S.KOREA: MOST OF 3RD EXTRA BUDGET TO BE FUNDED BY BOND ISSUANCE
+*S.KOREA'S HONG: HAVE TO ISSUE GOVT BONDS FOR 3RD EXTRA BUDGET
+*S.KOREA: TO RAISE FUNDS BY ISSUING GOVT-GUARANTEED BONDS
+*S. KOREA TO CREATE SPV TO BUY CP, LOWER-RATED CORP. BONDS
+*S.KOREA TO CREATE 40T WON OF FUND IN KDB FOR KEY INDUSTRIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOE WILL FROM TODAY INCREASE PROPORTION OF GILTS HELD IN APF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bankofengland.co.uk/news/2020/april/statement-on-increase-to-apf-gilt-lending-limits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*TURKEY'S CENTRAL BANK CUTS ONE-WEEK REPO RATE TO 8.75 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*EU COMMISSION SEES EU2 TRILLION MOBILIZED UNDER ITS DRAFT PLAN
+To ‘raise’ 320bn is well below what I think people have been hoping for.
+That’s 3x the SURE program and 2.2% of 2019 EU GDP.
+I think that should be the focus rather than the 2trln they hope to ‘mobilize’
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*BOJ TO DISCUSS UNLIMITED BOND BUYING AT NEXT MEETING: NIKKEI
+*BOJ TO REMOVE BOND BUYING LIMIT: NIKKEI
+*BOJ PLANS TO KEEP YCC GOAL AND NEGATIVE RATE UNCHANGED: NIKKEI
+*BOJ TO DOUBLE PURCHASES OF CORP BONDS, CP :NIKKEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOA:Big picture, I think many—especially JGB market participants—will argue that it's more marketing/symbolic. And no, it’s probably not a flag for a dramatic helicopter money announcement or anything.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK OF RUSSIA: RATE CUT POSSIBLE AT ONE OF NEXT MEETINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*FED EXPANDS MUNICIPAL FACILITY TO SMALLER COUNTIES AND CITIES
+*Fed Will Broaden Municipal Lending Program Eligibility
+*Fed Will Include Cities of at Least 250,000 Residents, Up From 1 Million
+*Fed Will Include Counties of at Least 500,000 Residents, Up From 2 Million
+*Fed Will Purchase Debt With Maturities of up to Three Years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*RIKSBANK DOESN'T PROVIDE QUARTERLY, YEARLY AVG REPO RATE ESTS.
+*RIKSBANK DOESN'T RULE OUT POSSIBILITY OF RATE CUT AT LATER DATE
+Sweden's Riksbank Leaves Key Rate Unchanged at 0.00%
+*RIKSBANK SEES 2021 GDP GROWTH 4.6%; FEB. EST. 1.8%
+*RIKSBANK DOESN'T RULE OUT OF INTEREST RATE BEING CUT LATER DATE
+              *RIKSBANK SEES 2020 GDP GROWTH -6.9%; FEB. EST. 1.3%
+               *RIKSBANK PRE ANNOUNCEMENT OF CERTIFICATE AUCTION TENDER
+               *Sweden Riksbank Holds Repo Rate Unchanged At 0.0%
+               *RIKSBANK SEES 2021 CPIF GROWTH 1.5%; FEB. EST. 1.7%
+               *RIKSBANK LOW INTEREST RATES FOR FORESEEABLE FUTURE
+               *RIKSBANK SEES 2020 CPIF GROWTH 0.6%; FEB. EST. 1.3%
+               *RIKSBANK PREPARED TO CONTINUE TO USE TOOLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Below is the key paragraph. They don’t deem it appropriate to go negative again when restrictions on activity dominate. Once those are eased they may act.
+The Executive Board also decided to leave the repo rate unchanged at zero per cent. It was not deemed justified at this point in time to try to increase demand by lowering the repo rate when the downturn in the economy is due to imposed restrictions and people’s concerns about the spread of infection. However, this does not rule out the possibility of the interest rate being cut at a later date if this is deemed an effective measure to stimulate demand and support the development of inflation in the recovery phase.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ITALY CUT TO 'BBB-' BY FITCH; OUTLOOK STABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*SOUTH AFRICA CUT TO BB- FROM BB BY S&amp;P, OUTLOOK STABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUMP SAYS TARIFFS WOULD BE `ULTIMATE PUNISHMENT' ON CHINA....SAYS HE IS NOT DOING STIMULUS WITHOUT PAYROLL TAX CUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fed taper to $8bln/day from 10bn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLOMBIA CENTRAL BANK LOWERS LENDING RATE TO 3.25% VS 3.75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3031,6 +3389,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3058,7 +3432,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3104,11 +3478,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3126,13 +3506,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>315241</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>2200274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3166,13 +3546,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228724</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1609725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3206,13 +3586,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>991264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3246,13 +3626,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1995121</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3286,13 +3666,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>412239</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>504824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>1676399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3326,13 +3706,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>461701</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3366,13 +3746,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1149080</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3406,13 +3786,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>865322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3019425</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3446,13 +3826,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1209674</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>477231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2343149</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>847725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3486,13 +3866,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>348350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1209675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3513,6 +3893,86 @@
         <a:xfrm>
           <a:off x="10668000" y="519800"/>
           <a:ext cx="1695450" cy="861325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>438149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10915650" y="3743324"/>
+          <a:ext cx="876300" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>828674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10982325" y="282095"/>
+          <a:ext cx="742950" cy="718029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4581,13 +5041,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>345009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>485774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4621,13 +5081,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>455164</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1781176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4661,13 +5121,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1288767</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>876299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4701,13 +5161,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5638</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>1666875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4741,13 +5201,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>240251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4781,13 +5241,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161763</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4821,13 +5281,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>19323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5395,13 +5855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1311"/>
+  <dimension ref="A1:J1338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5409,10 +5869,11 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5" customWidth="1"/>
     <col min="5" max="5" width="47.25" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5432,942 +5893,933 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="114" customHeight="1">
+    <row r="2" spans="1:6" ht="21">
       <c r="A2" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="80.25" customHeight="1">
+      <c r="A3" s="5">
+        <v>43952</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="114" customHeight="1">
+      <c r="A5" s="5">
         <v>43950</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="199.5" customHeight="1">
-      <c r="A3" s="5">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="162" customHeight="1">
+      <c r="A6" s="5">
         <v>43950</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="52.5">
+      <c r="A9" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="42">
+      <c r="A11" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="84">
+      <c r="A14" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="115.5">
+      <c r="A15" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="42">
+      <c r="A16" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="90.75" customHeight="1">
+      <c r="A17" s="5">
         <v>43941</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="157.5">
-      <c r="A5" s="5">
-        <v>43930</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="52.5">
-      <c r="A6" s="5">
-        <v>43930</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
-        <v>43930</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
-        <v>43929</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.5">
-      <c r="A9" s="5">
-        <v>43928</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="5">
-        <v>43928</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="63">
-      <c r="A11" s="5">
-        <v>43927</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="89.25" customHeight="1">
-      <c r="A12" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="147">
-      <c r="A13" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="I13" s="5">
-        <v>43860</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="42">
-      <c r="A14" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="201" customHeight="1">
-      <c r="A15" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5">
-        <v>43921</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>189</v>
+      <c r="B17" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>190</v>
+        <v>540</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5">
+      <c r="E17" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="42">
       <c r="A18" s="5">
-        <v>43920</v>
+        <v>43941</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>192</v>
+        <v>541</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>190</v>
+        <v>540</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="21">
+      <c r="A19" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="81.75" customHeight="1">
+      <c r="A20" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="136.5">
-      <c r="A19" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="81.75" customHeight="1">
+      <c r="A21" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="81.75" customHeight="1">
+      <c r="A22" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="81.75" customHeight="1">
+      <c r="A23" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="31.5">
+      <c r="A25" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="81.75" customHeight="1">
+      <c r="A26" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="42">
+      <c r="A27" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="52.5">
+      <c r="A29" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="52.5">
+      <c r="A30" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="200.25" customHeight="1">
+      <c r="A32" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="52.5">
+      <c r="A33" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="31.5">
+      <c r="A36" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="31.5">
+      <c r="A37" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="63">
+      <c r="A38" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="89.25" customHeight="1">
+      <c r="A39" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="73.5">
-      <c r="A20" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A24" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="105" customHeight="1">
-      <c r="A25" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="21">
-      <c r="A26" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="136.5">
-      <c r="A27" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="21">
-      <c r="A28" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="168">
-      <c r="A29" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="106.5" customHeight="1">
-      <c r="A30" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5">
-        <v>43919</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.5">
-      <c r="A32" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="157.5">
-      <c r="A34" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="115.5">
-      <c r="A36" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="199.5">
-      <c r="A37" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" ht="136.5">
-      <c r="A39" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" ht="94.5">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="147">
       <c r="A40" s="5">
-        <v>43917</v>
+        <v>43921</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="I40" s="5">
+        <v>43860</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="42">
       <c r="A41" s="5">
-        <v>43917</v>
+        <v>43921</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" ht="84">
+        <v>182</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="201" customHeight="1">
       <c r="A42" s="5">
-        <v>43917</v>
+        <v>43921</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="5">
-        <v>43916</v>
+        <v>43921</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" ht="94.5">
+        <v>188</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="5">
-        <v>43916</v>
+        <v>43921</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="31.5">
       <c r="A45" s="5">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" ht="189">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="136.5">
       <c r="A46" s="5">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6">
+        <v>194</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="73.5">
       <c r="A47" s="5">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" ht="21">
+        <v>182</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="5">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" ht="115.5">
+        <v>166</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="5">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" ht="178.5">
+        <v>166</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="5">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" ht="74.25" customHeight="1">
+        <v>188</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="40.5" customHeight="1">
       <c r="A51" s="5">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" ht="66.75" customHeight="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="105" customHeight="1">
       <c r="A52" s="5">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" ht="84">
+        <v>204</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="21">
       <c r="A53" s="5">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" ht="21">
+        <v>166</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="136.5">
       <c r="A54" s="5">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" ht="94.5">
+        <v>194</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="21">
       <c r="A55" s="5">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" ht="63">
+      <c r="E55" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="168">
       <c r="A56" s="5">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" ht="67.5">
+        <v>166</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="106.5" customHeight="1">
       <c r="A57" s="5">
-        <v>43915</v>
+        <v>43919</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="80.25" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="5">
-        <v>43915</v>
+        <v>43919</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>144</v>
@@ -6375,65 +6827,67 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="31.5">
       <c r="A59" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" ht="84">
-      <c r="A60" s="5">
-        <v>43914</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>269</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" ht="66" customHeight="1">
+    <row r="61" spans="1:6" ht="157.5">
       <c r="A61" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E61" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" ht="74.25" customHeight="1">
+    <row r="62" spans="1:6">
       <c r="A62" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>222</v>
@@ -6441,47 +6895,49 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="115.5">
       <c r="A63" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="199.5">
       <c r="A64" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" ht="94.5">
+    <row r="65" spans="1:6">
       <c r="A65" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>222</v>
@@ -6489,170 +6945,176 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" ht="30.75" customHeight="1">
+    <row r="66" spans="1:6" ht="136.5">
       <c r="A66" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="94.5">
       <c r="A67" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" ht="21">
-      <c r="A68" s="5">
-        <v>43914</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="84">
       <c r="A69" s="5">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" ht="42" customHeight="1">
+    <row r="71" spans="1:6" ht="94.5">
       <c r="A71" s="5">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" ht="27" customHeight="1">
+    <row r="72" spans="1:6">
       <c r="A72" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="31.5">
+    <row r="73" spans="1:6" ht="189">
       <c r="A73" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" ht="21" customHeight="1">
+    <row r="74" spans="1:6">
       <c r="A74" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" ht="67.5" customHeight="1">
+    <row r="75" spans="1:6" ht="21">
       <c r="A75" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" ht="42" customHeight="1">
+    <row r="76" spans="1:6" ht="115.5">
       <c r="A76" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>221</v>
@@ -6663,95 +7125,101 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" ht="42">
+    <row r="77" spans="1:6" ht="178.5">
       <c r="A77" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="74.25" customHeight="1">
+      <c r="A78" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A78" s="5">
-        <v>43913</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="66.75" customHeight="1">
       <c r="A79" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E79" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" ht="63.75" customHeight="1">
+    <row r="80" spans="1:6" ht="84">
       <c r="A80" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="21">
       <c r="A81" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" ht="52.5">
+    <row r="82" spans="1:6" ht="94.5">
       <c r="A82" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>144</v>
@@ -6759,113 +7227,115 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="63">
       <c r="A83" s="5">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" ht="51" customHeight="1">
+    <row r="84" spans="1:6" ht="67.5">
       <c r="A84" s="5">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>222</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="80.25" customHeight="1">
       <c r="A85" s="5">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="84">
       <c r="A87" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E87" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" ht="21">
+    <row r="88" spans="1:6" ht="66" customHeight="1">
       <c r="A88" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>313</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" ht="21">
+    <row r="89" spans="1:6" ht="74.25" customHeight="1">
       <c r="A89" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>222</v>
@@ -6875,92 +7345,90 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" ht="31.5">
+    <row r="92" spans="1:6" ht="94.5">
       <c r="A92" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>320</v>
-      </c>
+      <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="60" customHeight="1">
+    <row r="93" spans="1:6" ht="30.75" customHeight="1">
       <c r="A93" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="21">
       <c r="A95" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>221</v>
@@ -6971,465 +7439,465 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" ht="73.5">
+    <row r="96" spans="1:6">
       <c r="A96" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" ht="52.5">
+    <row r="97" spans="1:6">
       <c r="A97" s="5">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" ht="42.75" customHeight="1">
+    <row r="98" spans="1:6" ht="42" customHeight="1">
       <c r="A98" s="5">
-        <v>43909</v>
+        <v>43914</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="27" customHeight="1">
       <c r="A99" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" ht="51" customHeight="1">
+    <row r="100" spans="1:6" ht="31.5">
       <c r="A100" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="21" customHeight="1">
       <c r="A101" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" ht="21">
+    <row r="102" spans="1:6" ht="67.5" customHeight="1">
       <c r="A102" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>327</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" ht="43.5" customHeight="1">
+    <row r="103" spans="1:6" ht="42" customHeight="1">
       <c r="A103" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>342</v>
+        <v>221</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" ht="115.5" customHeight="1">
+    <row r="104" spans="1:6" ht="42">
       <c r="A104" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:6" ht="41.25" customHeight="1">
+    <row r="105" spans="1:6" ht="28.5" customHeight="1">
       <c r="A105" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" ht="21">
+    <row r="107" spans="1:6" ht="63.75" customHeight="1">
       <c r="A107" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="52.5">
       <c r="A109" s="5">
-        <v>43908</v>
+        <v>43913</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="1:6" ht="73.5">
+    <row r="110" spans="1:6">
       <c r="A110" s="5">
-        <v>43908</v>
+        <v>43913</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>347</v>
+        <v>194</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" ht="58.5" customHeight="1">
+    <row r="111" spans="1:6" ht="51" customHeight="1">
       <c r="A111" s="5">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" ht="34.5" customHeight="1">
+    <row r="112" spans="1:6">
       <c r="A112" s="5">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" ht="64.5" customHeight="1">
+    <row r="113" spans="1:6">
       <c r="A113" s="5">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="21">
       <c r="A115" s="5">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E115" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" ht="40.5" customHeight="1">
+    <row r="116" spans="1:6" ht="21">
       <c r="A116" s="5">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" ht="52.5">
+    <row r="117" spans="1:6">
       <c r="A117" s="5">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" ht="73.5">
+    <row r="118" spans="1:6">
       <c r="A118" s="5">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>366</v>
+        <v>235</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="31.5">
       <c r="A119" s="5">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E119" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>320</v>
+      </c>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="60" customHeight="1">
       <c r="A120" s="5">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" ht="40.5">
+    <row r="121" spans="1:6">
       <c r="A121" s="5">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="11" t="s">
-        <v>370</v>
-      </c>
+      <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>372</v>
+        <v>194</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="73.5">
       <c r="A123" s="5">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="52.5">
       <c r="A124" s="5">
-        <v>43902</v>
+        <v>43910</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>327</v>
@@ -7437,31 +7905,31 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" ht="38.25" customHeight="1">
+    <row r="125" spans="1:6" ht="42.75" customHeight="1">
       <c r="A125" s="5">
-        <v>43899</v>
+        <v>43909</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="5">
-        <v>43894</v>
+        <v>43909</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>327</v>
@@ -7469,64 +7937,63 @@
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="51" customHeight="1">
       <c r="A127" s="5">
-        <v>43893</v>
+        <v>43909</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="1:6" ht="123" customHeight="1">
-      <c r="A128" s="5">
-        <v>43892</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C128" s="2" t="s">
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="1:6" ht="21">
+      <c r="A129" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" spans="1:6" ht="31.5">
-      <c r="A129" s="5">
-        <v>43868</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>327</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="1:6" ht="21">
+    <row r="130" spans="1:6" ht="43.5" customHeight="1">
       <c r="A130" s="5">
-        <v>43867</v>
+        <v>43909</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>327</v>
@@ -7534,219 +8001,438 @@
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="5"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+    <row r="131" spans="1:6" ht="115.5" customHeight="1">
+      <c r="A131" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="5"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+    <row r="132" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A132" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="5"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="A133" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="5"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+    <row r="134" spans="1:6" ht="21">
+      <c r="A134" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="A135" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="5"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="A136" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+    <row r="137" spans="1:6" ht="73.5">
+      <c r="A137" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="5"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+    <row r="138" spans="1:6" ht="58.5" customHeight="1">
+      <c r="A138" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="5"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+    <row r="139" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A139" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="5"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+    <row r="140" spans="1:6" ht="64.5" customHeight="1">
+      <c r="A140" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="5"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="A141" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="5"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="A142" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="5"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+    <row r="143" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A143" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="5"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+    <row r="144" spans="1:6" ht="52.5">
+      <c r="A144" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="5"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+    <row r="145" spans="1:6" ht="73.5">
+      <c r="A145" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="5"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="A146" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="5"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="A147" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="5"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+    <row r="148" spans="1:6" ht="40.5">
+      <c r="A148" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="11" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="5"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="A149" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="5"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="A150" s="5">
+        <v>43904</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="5"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="A151" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="5"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+    <row r="152" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A152" s="5">
+        <v>43899</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="5"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="A153" s="5">
+        <v>43894</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="5"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="6"/>
+      <c r="A154" s="5">
+        <v>43893</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="5"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="6"/>
+    <row r="155" spans="1:6" ht="123" customHeight="1">
+      <c r="A155" s="5">
+        <v>43892</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="F155" s="6"/>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="5"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+    <row r="156" spans="1:6" ht="31.5">
+      <c r="A156" s="5">
+        <v>43868</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="5"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+    <row r="157" spans="1:6" ht="21">
+      <c r="A157" s="5">
+        <v>43867</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
     </row>
@@ -8711,110 +9397,218 @@
       <c r="F277" s="6"/>
     </row>
     <row r="278" spans="1:6">
+      <c r="A278" s="5"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
     </row>
     <row r="279" spans="1:6">
+      <c r="A279" s="5"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
     </row>
     <row r="280" spans="1:6">
+      <c r="A280" s="5"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
     </row>
     <row r="281" spans="1:6">
+      <c r="A281" s="5"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
     </row>
     <row r="282" spans="1:6">
+      <c r="A282" s="5"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
     </row>
     <row r="283" spans="1:6">
+      <c r="A283" s="5"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
     </row>
     <row r="284" spans="1:6">
+      <c r="A284" s="5"/>
+      <c r="B284" s="6"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
     </row>
     <row r="285" spans="1:6">
+      <c r="A285" s="5"/>
+      <c r="B285" s="6"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
     </row>
     <row r="286" spans="1:6">
+      <c r="A286" s="5"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
     </row>
     <row r="287" spans="1:6">
+      <c r="A287" s="5"/>
+      <c r="B287" s="6"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
     </row>
     <row r="288" spans="1:6">
+      <c r="A288" s="5"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
     </row>
-    <row r="289" spans="5:6">
+    <row r="289" spans="1:6">
+      <c r="A289" s="5"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
     </row>
-    <row r="290" spans="5:6">
+    <row r="290" spans="1:6">
+      <c r="A290" s="5"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
     </row>
-    <row r="291" spans="5:6">
+    <row r="291" spans="1:6">
+      <c r="A291" s="5"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
     </row>
-    <row r="292" spans="5:6">
+    <row r="292" spans="1:6">
+      <c r="A292" s="5"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="5:6">
+    <row r="293" spans="1:6">
+      <c r="A293" s="5"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
     </row>
-    <row r="294" spans="5:6">
+    <row r="294" spans="1:6">
+      <c r="A294" s="5"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
     </row>
-    <row r="295" spans="5:6">
+    <row r="295" spans="1:6">
+      <c r="A295" s="5"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
     </row>
-    <row r="296" spans="5:6">
+    <row r="296" spans="1:6">
+      <c r="A296" s="5"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
     </row>
-    <row r="297" spans="5:6">
+    <row r="297" spans="1:6">
+      <c r="A297" s="5"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
     </row>
-    <row r="298" spans="5:6">
+    <row r="298" spans="1:6">
+      <c r="A298" s="5"/>
+      <c r="B298" s="6"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
     </row>
-    <row r="299" spans="5:6">
+    <row r="299" spans="1:6">
+      <c r="A299" s="5"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
     </row>
-    <row r="300" spans="5:6">
+    <row r="300" spans="1:6">
+      <c r="A300" s="5"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
     </row>
-    <row r="301" spans="5:6">
+    <row r="301" spans="1:6">
+      <c r="A301" s="5"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
     </row>
-    <row r="302" spans="5:6">
+    <row r="302" spans="1:6">
+      <c r="A302" s="5"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="5:6">
+    <row r="303" spans="1:6">
+      <c r="A303" s="5"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
     </row>
-    <row r="304" spans="5:6">
+    <row r="304" spans="1:6">
+      <c r="A304" s="5"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
     </row>
@@ -12846,20 +13640,129 @@
       <c r="E1311" s="6"/>
       <c r="F1311" s="6"/>
     </row>
+    <row r="1312" spans="5:6">
+      <c r="E1312" s="6"/>
+      <c r="F1312" s="6"/>
+    </row>
+    <row r="1313" spans="5:6">
+      <c r="E1313" s="6"/>
+      <c r="F1313" s="6"/>
+    </row>
+    <row r="1314" spans="5:6">
+      <c r="E1314" s="6"/>
+      <c r="F1314" s="6"/>
+    </row>
+    <row r="1315" spans="5:6">
+      <c r="E1315" s="6"/>
+      <c r="F1315" s="6"/>
+    </row>
+    <row r="1316" spans="5:6">
+      <c r="E1316" s="6"/>
+      <c r="F1316" s="6"/>
+    </row>
+    <row r="1317" spans="5:6">
+      <c r="E1317" s="6"/>
+      <c r="F1317" s="6"/>
+    </row>
+    <row r="1318" spans="5:6">
+      <c r="E1318" s="6"/>
+      <c r="F1318" s="6"/>
+    </row>
+    <row r="1319" spans="5:6">
+      <c r="E1319" s="6"/>
+      <c r="F1319" s="6"/>
+    </row>
+    <row r="1320" spans="5:6">
+      <c r="E1320" s="6"/>
+      <c r="F1320" s="6"/>
+    </row>
+    <row r="1321" spans="5:6">
+      <c r="E1321" s="6"/>
+      <c r="F1321" s="6"/>
+    </row>
+    <row r="1322" spans="5:6">
+      <c r="E1322" s="6"/>
+      <c r="F1322" s="6"/>
+    </row>
+    <row r="1323" spans="5:6">
+      <c r="E1323" s="6"/>
+      <c r="F1323" s="6"/>
+    </row>
+    <row r="1324" spans="5:6">
+      <c r="E1324" s="6"/>
+      <c r="F1324" s="6"/>
+    </row>
+    <row r="1325" spans="5:6">
+      <c r="E1325" s="6"/>
+      <c r="F1325" s="6"/>
+    </row>
+    <row r="1326" spans="5:6">
+      <c r="E1326" s="6"/>
+      <c r="F1326" s="6"/>
+    </row>
+    <row r="1327" spans="5:6">
+      <c r="E1327" s="6"/>
+      <c r="F1327" s="6"/>
+    </row>
+    <row r="1328" spans="5:6">
+      <c r="E1328" s="6"/>
+      <c r="F1328" s="6"/>
+    </row>
+    <row r="1329" spans="5:6">
+      <c r="E1329" s="6"/>
+      <c r="F1329" s="6"/>
+    </row>
+    <row r="1330" spans="5:6">
+      <c r="E1330" s="6"/>
+      <c r="F1330" s="6"/>
+    </row>
+    <row r="1331" spans="5:6">
+      <c r="E1331" s="6"/>
+      <c r="F1331" s="6"/>
+    </row>
+    <row r="1332" spans="5:6">
+      <c r="E1332" s="6"/>
+      <c r="F1332" s="6"/>
+    </row>
+    <row r="1333" spans="5:6">
+      <c r="E1333" s="6"/>
+      <c r="F1333" s="6"/>
+    </row>
+    <row r="1334" spans="5:6">
+      <c r="E1334" s="6"/>
+      <c r="F1334" s="6"/>
+    </row>
+    <row r="1335" spans="5:6">
+      <c r="E1335" s="6"/>
+      <c r="F1335" s="6"/>
+    </row>
+    <row r="1336" spans="5:6">
+      <c r="E1336" s="6"/>
+      <c r="F1336" s="6"/>
+    </row>
+    <row r="1337" spans="5:6">
+      <c r="E1337" s="6"/>
+      <c r="F1337" s="6"/>
+    </row>
+    <row r="1338" spans="5:6">
+      <c r="E1338" s="6"/>
+      <c r="F1338" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1"/>
-    <hyperlink ref="F30" r:id="rId2"/>
-    <hyperlink ref="F32" r:id="rId3"/>
-    <hyperlink ref="F57" r:id="rId4"/>
-    <hyperlink ref="E92" r:id="rId5"/>
-    <hyperlink ref="F121" r:id="rId6"/>
-    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="F41" r:id="rId1"/>
+    <hyperlink ref="F57" r:id="rId2"/>
+    <hyperlink ref="F59" r:id="rId3"/>
+    <hyperlink ref="F84" r:id="rId4"/>
+    <hyperlink ref="E119" r:id="rId5"/>
+    <hyperlink ref="F148" r:id="rId6"/>
+    <hyperlink ref="F32" r:id="rId7"/>
+    <hyperlink ref="F13" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -15654,13 +16557,13 @@
         <v>43944</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -15669,16 +16572,16 @@
         <v>43938</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -15686,14 +16589,14 @@
         <v>43936</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="147">
@@ -15704,7 +16607,7 @@
         <v>458</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15780,8 +16683,8 @@
       <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -19746,7 +20649,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -22141,13 +23044,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E356"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22179,14 +23082,14 @@
         <v>43950</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -22194,123 +23097,121 @@
         <v>43950</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1">
+    <row r="4" spans="1:5" ht="100.5" customHeight="1">
       <c r="A4" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="52.5">
+      <c r="A5" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A6" s="5">
         <v>43935</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="89.25" customHeight="1">
-      <c r="A5" s="5">
-        <v>43930</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="106.5" customHeight="1">
-      <c r="A6" s="5">
-        <v>43930</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="42" customHeight="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="89.25" customHeight="1">
       <c r="A7" s="5">
         <v>43930</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>432</v>
+        <v>517</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="58.5" customHeight="1">
+    <row r="8" spans="1:5" ht="106.5" customHeight="1">
       <c r="A8" s="5">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>464</v>
+        <v>352</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="83.25" customHeight="1">
-      <c r="A9" s="5"/>
+      <c r="E8" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1">
+      <c r="A9" s="5">
+        <v>43930</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="42" customHeight="1">
+    <row r="10" spans="1:5" ht="58.5" customHeight="1">
       <c r="A10" s="5">
-        <v>43924</v>
+        <v>43929</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="42" customHeight="1">
-      <c r="A11" s="5">
-        <v>43924</v>
-      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="83.25" customHeight="1">
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>352</v>
+        <v>466</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="11" t="s">
-        <v>436</v>
-      </c>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="42" customHeight="1">
       <c r="A12" s="5">
@@ -22320,10 +23221,12 @@
         <v>352</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1">
       <c r="A13" s="5">
@@ -22333,87 +23236,83 @@
         <v>352</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="56.25" customHeight="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42" customHeight="1">
       <c r="A14" s="5">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="45" customHeight="1">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5" ht="42" customHeight="1">
+      <c r="A15" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A16" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" customHeight="1">
+      <c r="A17" s="3">
         <v>43916</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="96" customHeight="1">
-      <c r="A16" s="3">
-        <v>43915</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A17" s="3">
-        <v>43914</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21">
+        <v>437</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="96" customHeight="1">
       <c r="A18" s="3">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5">
+        <v>447</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="100.5" customHeight="1">
       <c r="A19" s="3">
         <v>43914</v>
       </c>
@@ -22421,14 +23320,14 @@
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21">
       <c r="A20" s="3">
         <v>43914</v>
       </c>
@@ -22436,109 +23335,111 @@
         <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5">
       <c r="A21" s="3">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="113.25" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="63">
+      <c r="A23" s="3">
+        <v>43913</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A24" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="147">
-      <c r="A23" s="3">
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="147">
+      <c r="A25" s="3">
         <v>43910</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="42">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="52.5">
-      <c r="A25" s="3">
-        <v>43909</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="52.5">
+      <c r="A27" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A26" s="3">
-        <v>43909</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A27" s="3">
-        <v>43908</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>333</v>
@@ -22547,76 +23448,76 @@
     </row>
     <row r="28" spans="1:5" ht="95.25" customHeight="1">
       <c r="A28" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A29" s="3">
         <v>43908</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="3">
-        <v>43901</v>
-      </c>
-      <c r="B29" s="7"/>
       <c r="C29" s="4" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A30" s="3">
+        <v>43908</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A31" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A31" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21">
-      <c r="A32" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="4"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="21">
+    <row r="33" spans="1:5" ht="100.5" customHeight="1">
       <c r="A33" s="3">
         <v>43898</v>
       </c>
@@ -22624,330 +23525,332 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21">
+      <c r="A34" s="3">
+        <v>43898</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="157.5">
-      <c r="A34" s="3">
-        <v>43889</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="21">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>43898</v>
+      </c>
       <c r="B35" s="7" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5">
-      <c r="A36" s="3"/>
+    <row r="36" spans="1:5" ht="157.5">
+      <c r="A36" s="3">
+        <v>43889</v>
+      </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="42">
+    <row r="37" spans="1:5" ht="21">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="42">
+    <row r="38" spans="1:5" ht="31.5">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="42">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="23.25" customHeight="1">
+    <row r="40" spans="1:5" ht="42">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A41" s="3">
-        <v>43897</v>
-      </c>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>395</v>
+        <v>126</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A42" s="3">
-        <v>43893</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="90.75" customHeight="1">
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="23.25" customHeight="1">
       <c r="A43" s="3">
-        <v>43888</v>
+        <v>43897</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>131</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="42">
+    <row r="44" spans="1:5" ht="23.25" customHeight="1">
       <c r="A44" s="3">
-        <v>43885</v>
+        <v>43893</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="73.5" customHeight="1">
+      <c r="E44" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="90.75" customHeight="1">
       <c r="A45" s="3">
-        <v>43873</v>
+        <v>43888</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>166</v>
+        <v>396</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="22.5" customHeight="1">
+    <row r="46" spans="1:5" ht="42">
       <c r="A46" s="3">
-        <v>43872</v>
+        <v>43885</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>420</v>
+        <v>142</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="22.5" customHeight="1">
+    <row r="47" spans="1:5" ht="73.5" customHeight="1">
       <c r="A47" s="3">
-        <v>43860</v>
+        <v>43873</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A48" s="3"/>
+      <c r="A48" s="3">
+        <v>43872</v>
+      </c>
       <c r="B48" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="52.5">
-      <c r="A50" s="3">
-        <v>43860</v>
-      </c>
+    <row r="50" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>167</v>
+        <v>430</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" ht="357">
-      <c r="A51" s="3">
-        <v>43859</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>169</v>
-      </c>
+    <row r="51" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="31.5">
-      <c r="A52" s="3"/>
+    <row r="52" spans="1:5" ht="52.5">
+      <c r="A52" s="3">
+        <v>43860</v>
+      </c>
       <c r="B52" s="7" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="157.5">
-      <c r="A53" s="3"/>
+    <row r="53" spans="1:5" ht="357">
+      <c r="A53" s="3">
+        <v>43859</v>
+      </c>
       <c r="B53" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="31.5">
       <c r="A54" s="3"/>
       <c r="B54" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1">
-      <c r="A55" s="3">
-        <v>43914</v>
-      </c>
+    <row r="55" spans="1:5" ht="157.5">
+      <c r="A55" s="3"/>
       <c r="B55" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>273</v>
+        <v>130</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="81" customHeight="1">
-      <c r="A56" s="3">
-        <v>43912</v>
-      </c>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3"/>
       <c r="B56" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>301</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="41.25" customHeight="1">
+    <row r="57" spans="1:5" ht="30" customHeight="1">
       <c r="A57" s="3">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>302</v>
+        <v>274</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="141" customHeight="1">
+    <row r="58" spans="1:5" ht="81" customHeight="1">
       <c r="A58" s="3">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>304</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" ht="17.25" customHeight="1">
+    <row r="59" spans="1:5" ht="41.25" customHeight="1">
       <c r="A59" s="3">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" ht="72" customHeight="1">
+    <row r="60" spans="1:5" ht="141" customHeight="1">
       <c r="A60" s="3">
         <v>43911</v>
       </c>
@@ -22955,22 +23858,36 @@
         <v>300</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D60" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="4"/>
+    <row r="61" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A61" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="4"/>
+    <row r="62" spans="1:5" ht="72" customHeight="1">
+      <c r="A62" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="7"/>
     </row>
@@ -25032,18 +25949,32 @@
       <c r="D356" s="4"/>
       <c r="E356" s="7"/>
     </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="3"/>
+      <c r="B357" s="7"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="7"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="3"/>
+      <c r="B358" s="7"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
-    <hyperlink ref="E31" r:id="rId2"/>
-    <hyperlink ref="D43" r:id="rId3"/>
-    <hyperlink ref="E42" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E10" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E13" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E20" r:id="rId1"/>
+    <hyperlink ref="E33" r:id="rId2"/>
+    <hyperlink ref="D45" r:id="rId3"/>
+    <hyperlink ref="E44" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E15" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
     <hyperlink ref="E2" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27955,7 +28886,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -27980,13 +28911,13 @@
         <v>43950</v>
       </c>
       <c r="B24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D24" t="s">
         <v>501</v>
       </c>
-      <c r="D24" t="s">
-        <v>502</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>504</v>
+      <c r="F24" s="15" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -27994,7 +28925,7 @@
         <v>43950</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
